--- a/GUI Designs/GUI designs.xlsx
+++ b/GUI Designs/GUI designs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bernhard\Documents\GUI_DESIGNS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bernhard\Documents\GitHub\Zeon\GUI Designs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -726,360 +726,360 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1611,13 +1611,13 @@
       <xdr:col>20</xdr:col>
       <xdr:colOff>13356</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>44408</xdr:rowOff>
+      <xdr:rowOff>34883</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>137429</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>168481</xdr:rowOff>
+      <xdr:rowOff>158956</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1640,7 +1640,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3632856" y="815933"/>
+          <a:off x="4242456" y="996908"/>
           <a:ext cx="124073" cy="124073"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3315,84 +3315,84 @@
       </c>
     </row>
     <row r="2" spans="2:47" x14ac:dyDescent="0.25">
-      <c r="B2" s="124"/>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="66"/>
-      <c r="N2" s="124"/>
-      <c r="O2" s="127"/>
-      <c r="P2" s="127"/>
-      <c r="Q2" s="127"/>
-      <c r="R2" s="127"/>
-      <c r="S2" s="127"/>
-      <c r="T2" s="127"/>
-      <c r="U2" s="127"/>
-      <c r="V2" s="127"/>
-      <c r="W2" s="66"/>
+      <c r="B2" s="127"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="130"/>
+      <c r="K2" s="69"/>
+      <c r="N2" s="127"/>
+      <c r="O2" s="130"/>
+      <c r="P2" s="130"/>
+      <c r="Q2" s="130"/>
+      <c r="R2" s="130"/>
+      <c r="S2" s="130"/>
+      <c r="T2" s="130"/>
+      <c r="U2" s="130"/>
+      <c r="V2" s="130"/>
+      <c r="W2" s="69"/>
       <c r="X2" s="3"/>
-      <c r="Z2" s="110"/>
-      <c r="AA2" s="111"/>
-      <c r="AB2" s="111"/>
-      <c r="AC2" s="111"/>
-      <c r="AD2" s="111"/>
-      <c r="AE2" s="111"/>
-      <c r="AF2" s="111"/>
-      <c r="AG2" s="111"/>
-      <c r="AH2" s="111"/>
-      <c r="AI2" s="112"/>
+      <c r="Z2" s="113"/>
+      <c r="AA2" s="114"/>
+      <c r="AB2" s="114"/>
+      <c r="AC2" s="114"/>
+      <c r="AD2" s="114"/>
+      <c r="AE2" s="114"/>
+      <c r="AF2" s="114"/>
+      <c r="AG2" s="114"/>
+      <c r="AH2" s="114"/>
+      <c r="AI2" s="115"/>
       <c r="AJ2" s="3"/>
       <c r="AK2" s="25"/>
       <c r="AL2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="AM2" s="108" t="s">
+      <c r="AM2" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="AN2" s="108"/>
-      <c r="AO2" s="108"/>
-      <c r="AP2" s="108"/>
-      <c r="AQ2" s="108"/>
-      <c r="AR2" s="108"/>
-      <c r="AS2" s="108"/>
-      <c r="AT2" s="108"/>
-      <c r="AU2" s="109"/>
+      <c r="AN2" s="111"/>
+      <c r="AO2" s="111"/>
+      <c r="AP2" s="111"/>
+      <c r="AQ2" s="111"/>
+      <c r="AR2" s="111"/>
+      <c r="AS2" s="111"/>
+      <c r="AT2" s="111"/>
+      <c r="AU2" s="112"/>
     </row>
     <row r="3" spans="2:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="125"/>
-      <c r="C3" s="133" t="s">
+      <c r="B3" s="128"/>
+      <c r="C3" s="136" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="134"/>
-      <c r="E3" s="134"/>
-      <c r="F3" s="134"/>
-      <c r="G3" s="134"/>
-      <c r="H3" s="134"/>
-      <c r="I3" s="134"/>
-      <c r="J3" s="135"/>
-      <c r="K3" s="67"/>
-      <c r="N3" s="125"/>
-      <c r="O3" s="128" t="s">
+      <c r="D3" s="137"/>
+      <c r="E3" s="137"/>
+      <c r="F3" s="137"/>
+      <c r="G3" s="137"/>
+      <c r="H3" s="137"/>
+      <c r="I3" s="137"/>
+      <c r="J3" s="138"/>
+      <c r="K3" s="70"/>
+      <c r="N3" s="128"/>
+      <c r="O3" s="131" t="s">
         <v>0</v>
       </c>
-      <c r="P3" s="128"/>
-      <c r="Q3" s="128"/>
-      <c r="R3" s="128"/>
-      <c r="S3" s="128"/>
-      <c r="T3" s="128"/>
-      <c r="U3" s="128"/>
-      <c r="V3" s="128"/>
-      <c r="W3" s="67"/>
+      <c r="P3" s="131"/>
+      <c r="Q3" s="131"/>
+      <c r="R3" s="131"/>
+      <c r="S3" s="131"/>
+      <c r="T3" s="131"/>
+      <c r="U3" s="131"/>
+      <c r="V3" s="131"/>
+      <c r="W3" s="70"/>
       <c r="X3" s="3"/>
-      <c r="Z3" s="115" t="s">
+      <c r="Z3" s="118" t="s">
         <v>7</v>
       </c>
-      <c r="AA3" s="116"/>
+      <c r="AA3" s="119"/>
       <c r="AB3" s="9" t="s">
         <v>8</v>
       </c>
@@ -3405,90 +3405,90 @@
       <c r="AI3" s="8"/>
       <c r="AJ3" s="7"/>
       <c r="AK3" s="25"/>
-      <c r="AL3" s="86" t="s">
+      <c r="AL3" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="AM3" s="87"/>
-      <c r="AN3" s="87"/>
-      <c r="AO3" s="87"/>
-      <c r="AP3" s="87"/>
-      <c r="AQ3" s="87"/>
-      <c r="AR3" s="87"/>
-      <c r="AS3" s="87"/>
-      <c r="AT3" s="87"/>
-      <c r="AU3" s="88"/>
+      <c r="AM3" s="90"/>
+      <c r="AN3" s="90"/>
+      <c r="AO3" s="90"/>
+      <c r="AP3" s="90"/>
+      <c r="AQ3" s="90"/>
+      <c r="AR3" s="90"/>
+      <c r="AS3" s="90"/>
+      <c r="AT3" s="90"/>
+      <c r="AU3" s="91"/>
     </row>
     <row r="4" spans="2:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="125"/>
-      <c r="C4" s="136"/>
-      <c r="D4" s="128"/>
-      <c r="E4" s="128"/>
-      <c r="F4" s="128"/>
-      <c r="G4" s="128"/>
-      <c r="H4" s="128"/>
-      <c r="I4" s="128"/>
-      <c r="J4" s="137"/>
-      <c r="K4" s="67"/>
-      <c r="N4" s="125"/>
-      <c r="O4" s="128"/>
-      <c r="P4" s="128"/>
-      <c r="Q4" s="128"/>
-      <c r="R4" s="128"/>
-      <c r="S4" s="128"/>
-      <c r="T4" s="128"/>
-      <c r="U4" s="128"/>
-      <c r="V4" s="128"/>
-      <c r="W4" s="67"/>
+      <c r="B4" s="128"/>
+      <c r="C4" s="139"/>
+      <c r="D4" s="131"/>
+      <c r="E4" s="131"/>
+      <c r="F4" s="131"/>
+      <c r="G4" s="131"/>
+      <c r="H4" s="131"/>
+      <c r="I4" s="131"/>
+      <c r="J4" s="140"/>
+      <c r="K4" s="70"/>
+      <c r="N4" s="128"/>
+      <c r="O4" s="131"/>
+      <c r="P4" s="131"/>
+      <c r="Q4" s="131"/>
+      <c r="R4" s="131"/>
+      <c r="S4" s="131"/>
+      <c r="T4" s="131"/>
+      <c r="U4" s="131"/>
+      <c r="V4" s="131"/>
+      <c r="W4" s="70"/>
       <c r="X4" s="3"/>
-      <c r="Z4" s="117"/>
-      <c r="AA4" s="118"/>
-      <c r="AB4" s="104"/>
-      <c r="AC4" s="104"/>
-      <c r="AD4" s="104"/>
-      <c r="AE4" s="104"/>
-      <c r="AF4" s="104"/>
-      <c r="AG4" s="104"/>
-      <c r="AH4" s="104"/>
+      <c r="Z4" s="120"/>
+      <c r="AA4" s="121"/>
+      <c r="AB4" s="107"/>
+      <c r="AC4" s="107"/>
+      <c r="AD4" s="107"/>
+      <c r="AE4" s="107"/>
+      <c r="AF4" s="107"/>
+      <c r="AG4" s="107"/>
+      <c r="AH4" s="107"/>
       <c r="AI4" s="4"/>
       <c r="AJ4" s="1"/>
       <c r="AK4" s="25"/>
-      <c r="AL4" s="89"/>
-      <c r="AM4" s="90"/>
-      <c r="AN4" s="90"/>
-      <c r="AO4" s="90"/>
-      <c r="AP4" s="90"/>
-      <c r="AQ4" s="90"/>
-      <c r="AR4" s="90"/>
-      <c r="AS4" s="90"/>
-      <c r="AT4" s="90"/>
-      <c r="AU4" s="91"/>
+      <c r="AL4" s="92"/>
+      <c r="AM4" s="93"/>
+      <c r="AN4" s="93"/>
+      <c r="AO4" s="93"/>
+      <c r="AP4" s="93"/>
+      <c r="AQ4" s="93"/>
+      <c r="AR4" s="93"/>
+      <c r="AS4" s="93"/>
+      <c r="AT4" s="93"/>
+      <c r="AU4" s="94"/>
     </row>
     <row r="5" spans="2:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="125"/>
-      <c r="C5" s="136"/>
-      <c r="D5" s="128"/>
-      <c r="E5" s="128"/>
-      <c r="F5" s="128"/>
-      <c r="G5" s="128"/>
-      <c r="H5" s="128"/>
-      <c r="I5" s="128"/>
-      <c r="J5" s="137"/>
-      <c r="K5" s="67"/>
-      <c r="N5" s="125"/>
-      <c r="O5" s="128"/>
-      <c r="P5" s="128"/>
-      <c r="Q5" s="128"/>
-      <c r="R5" s="128"/>
-      <c r="S5" s="128"/>
-      <c r="T5" s="128"/>
-      <c r="U5" s="128"/>
-      <c r="V5" s="128"/>
-      <c r="W5" s="67"/>
+      <c r="B5" s="128"/>
+      <c r="C5" s="139"/>
+      <c r="D5" s="131"/>
+      <c r="E5" s="131"/>
+      <c r="F5" s="131"/>
+      <c r="G5" s="131"/>
+      <c r="H5" s="131"/>
+      <c r="I5" s="131"/>
+      <c r="J5" s="140"/>
+      <c r="K5" s="70"/>
+      <c r="N5" s="128"/>
+      <c r="O5" s="131"/>
+      <c r="P5" s="131"/>
+      <c r="Q5" s="131"/>
+      <c r="R5" s="131"/>
+      <c r="S5" s="131"/>
+      <c r="T5" s="131"/>
+      <c r="U5" s="131"/>
+      <c r="V5" s="131"/>
+      <c r="W5" s="70"/>
       <c r="X5" s="3"/>
-      <c r="Z5" s="115" t="s">
+      <c r="Z5" s="118" t="s">
         <v>7</v>
       </c>
-      <c r="AA5" s="116"/>
+      <c r="AA5" s="119"/>
       <c r="AB5" s="9" t="s">
         <v>8</v>
       </c>
@@ -3501,31 +3501,31 @@
       <c r="AI5" s="8"/>
       <c r="AJ5" s="7"/>
       <c r="AK5" s="25"/>
-      <c r="AL5" s="80" t="s">
+      <c r="AL5" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="AM5" s="81"/>
-      <c r="AN5" s="81"/>
-      <c r="AO5" s="81"/>
-      <c r="AP5" s="81"/>
-      <c r="AQ5" s="81"/>
-      <c r="AR5" s="81"/>
-      <c r="AS5" s="81"/>
-      <c r="AT5" s="81"/>
-      <c r="AU5" s="82"/>
+      <c r="AM5" s="84"/>
+      <c r="AN5" s="84"/>
+      <c r="AO5" s="84"/>
+      <c r="AP5" s="84"/>
+      <c r="AQ5" s="84"/>
+      <c r="AR5" s="84"/>
+      <c r="AS5" s="84"/>
+      <c r="AT5" s="84"/>
+      <c r="AU5" s="85"/>
     </row>
     <row r="6" spans="2:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="125"/>
-      <c r="C6" s="136"/>
-      <c r="D6" s="128"/>
-      <c r="E6" s="128"/>
-      <c r="F6" s="128"/>
-      <c r="G6" s="128"/>
-      <c r="H6" s="128"/>
-      <c r="I6" s="128"/>
-      <c r="J6" s="137"/>
-      <c r="K6" s="67"/>
-      <c r="N6" s="125"/>
+      <c r="B6" s="128"/>
+      <c r="C6" s="139"/>
+      <c r="D6" s="131"/>
+      <c r="E6" s="131"/>
+      <c r="F6" s="131"/>
+      <c r="G6" s="131"/>
+      <c r="H6" s="131"/>
+      <c r="I6" s="131"/>
+      <c r="J6" s="140"/>
+      <c r="K6" s="70"/>
+      <c r="N6" s="128"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
@@ -3534,10 +3534,10 @@
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
-      <c r="W6" s="67"/>
+      <c r="W6" s="70"/>
       <c r="X6" s="3"/>
-      <c r="Z6" s="117"/>
-      <c r="AA6" s="118"/>
+      <c r="Z6" s="120"/>
+      <c r="AA6" s="121"/>
       <c r="AB6" s="2"/>
       <c r="AC6" s="2"/>
       <c r="AD6" s="2"/>
@@ -3548,45 +3548,45 @@
       <c r="AI6" s="4"/>
       <c r="AJ6" s="1"/>
       <c r="AK6" s="25"/>
-      <c r="AL6" s="83"/>
-      <c r="AM6" s="84"/>
-      <c r="AN6" s="84"/>
-      <c r="AO6" s="84"/>
-      <c r="AP6" s="84"/>
-      <c r="AQ6" s="84"/>
-      <c r="AR6" s="84"/>
-      <c r="AS6" s="84"/>
-      <c r="AT6" s="84"/>
-      <c r="AU6" s="85"/>
+      <c r="AL6" s="86"/>
+      <c r="AM6" s="87"/>
+      <c r="AN6" s="87"/>
+      <c r="AO6" s="87"/>
+      <c r="AP6" s="87"/>
+      <c r="AQ6" s="87"/>
+      <c r="AR6" s="87"/>
+      <c r="AS6" s="87"/>
+      <c r="AT6" s="87"/>
+      <c r="AU6" s="88"/>
     </row>
     <row r="7" spans="2:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="125"/>
-      <c r="C7" s="136"/>
-      <c r="D7" s="128"/>
-      <c r="E7" s="128"/>
-      <c r="F7" s="128"/>
-      <c r="G7" s="128"/>
-      <c r="H7" s="128"/>
-      <c r="I7" s="128"/>
-      <c r="J7" s="137"/>
-      <c r="K7" s="67"/>
-      <c r="N7" s="125"/>
-      <c r="O7" s="141" t="s">
+      <c r="B7" s="128"/>
+      <c r="C7" s="139"/>
+      <c r="D7" s="131"/>
+      <c r="E7" s="131"/>
+      <c r="F7" s="131"/>
+      <c r="G7" s="131"/>
+      <c r="H7" s="131"/>
+      <c r="I7" s="131"/>
+      <c r="J7" s="140"/>
+      <c r="K7" s="70"/>
+      <c r="N7" s="128"/>
+      <c r="O7" s="144" t="s">
         <v>1</v>
       </c>
-      <c r="P7" s="141"/>
-      <c r="Q7" s="141"/>
-      <c r="R7" s="141"/>
-      <c r="S7" s="141"/>
-      <c r="T7" s="141"/>
-      <c r="U7" s="141"/>
-      <c r="V7" s="141"/>
-      <c r="W7" s="67"/>
+      <c r="P7" s="144"/>
+      <c r="Q7" s="144"/>
+      <c r="R7" s="144"/>
+      <c r="S7" s="144"/>
+      <c r="T7" s="144"/>
+      <c r="U7" s="144"/>
+      <c r="V7" s="144"/>
+      <c r="W7" s="70"/>
       <c r="X7" s="3"/>
-      <c r="Z7" s="115" t="s">
+      <c r="Z7" s="118" t="s">
         <v>7</v>
       </c>
-      <c r="AA7" s="116"/>
+      <c r="AA7" s="119"/>
       <c r="AB7" s="9" t="s">
         <v>8</v>
       </c>
@@ -3599,43 +3599,43 @@
       <c r="AI7" s="8"/>
       <c r="AJ7" s="7"/>
       <c r="AK7" s="25"/>
-      <c r="AL7" s="86" t="s">
+      <c r="AL7" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="AM7" s="87"/>
-      <c r="AN7" s="87"/>
-      <c r="AO7" s="87"/>
-      <c r="AP7" s="87"/>
-      <c r="AQ7" s="87"/>
-      <c r="AR7" s="87"/>
-      <c r="AS7" s="87"/>
-      <c r="AT7" s="87"/>
-      <c r="AU7" s="88"/>
+      <c r="AM7" s="90"/>
+      <c r="AN7" s="90"/>
+      <c r="AO7" s="90"/>
+      <c r="AP7" s="90"/>
+      <c r="AQ7" s="90"/>
+      <c r="AR7" s="90"/>
+      <c r="AS7" s="90"/>
+      <c r="AT7" s="90"/>
+      <c r="AU7" s="91"/>
     </row>
     <row r="8" spans="2:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="125"/>
-      <c r="C8" s="136"/>
-      <c r="D8" s="128"/>
-      <c r="E8" s="128"/>
-      <c r="F8" s="128"/>
-      <c r="G8" s="128"/>
-      <c r="H8" s="128"/>
-      <c r="I8" s="128"/>
-      <c r="J8" s="137"/>
-      <c r="K8" s="67"/>
-      <c r="N8" s="125"/>
-      <c r="O8" s="129"/>
-      <c r="P8" s="130"/>
-      <c r="Q8" s="130"/>
-      <c r="R8" s="130"/>
-      <c r="S8" s="130"/>
-      <c r="T8" s="130"/>
-      <c r="U8" s="130"/>
-      <c r="V8" s="131"/>
-      <c r="W8" s="67"/>
+      <c r="B8" s="128"/>
+      <c r="C8" s="139"/>
+      <c r="D8" s="131"/>
+      <c r="E8" s="131"/>
+      <c r="F8" s="131"/>
+      <c r="G8" s="131"/>
+      <c r="H8" s="131"/>
+      <c r="I8" s="131"/>
+      <c r="J8" s="140"/>
+      <c r="K8" s="70"/>
+      <c r="N8" s="128"/>
+      <c r="O8" s="132"/>
+      <c r="P8" s="133"/>
+      <c r="Q8" s="133"/>
+      <c r="R8" s="133"/>
+      <c r="S8" s="133"/>
+      <c r="T8" s="133"/>
+      <c r="U8" s="133"/>
+      <c r="V8" s="134"/>
+      <c r="W8" s="70"/>
       <c r="X8" s="3"/>
-      <c r="Z8" s="117"/>
-      <c r="AA8" s="118"/>
+      <c r="Z8" s="120"/>
+      <c r="AA8" s="121"/>
       <c r="AB8" s="2"/>
       <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
@@ -3646,29 +3646,29 @@
       <c r="AI8" s="4"/>
       <c r="AJ8" s="1"/>
       <c r="AK8" s="25"/>
-      <c r="AL8" s="89"/>
-      <c r="AM8" s="90"/>
-      <c r="AN8" s="90"/>
-      <c r="AO8" s="90"/>
-      <c r="AP8" s="90"/>
-      <c r="AQ8" s="90"/>
-      <c r="AR8" s="90"/>
-      <c r="AS8" s="90"/>
-      <c r="AT8" s="90"/>
-      <c r="AU8" s="91"/>
+      <c r="AL8" s="92"/>
+      <c r="AM8" s="93"/>
+      <c r="AN8" s="93"/>
+      <c r="AO8" s="93"/>
+      <c r="AP8" s="93"/>
+      <c r="AQ8" s="93"/>
+      <c r="AR8" s="93"/>
+      <c r="AS8" s="93"/>
+      <c r="AT8" s="93"/>
+      <c r="AU8" s="94"/>
     </row>
     <row r="9" spans="2:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="125"/>
-      <c r="C9" s="136"/>
-      <c r="D9" s="128"/>
-      <c r="E9" s="128"/>
-      <c r="F9" s="128"/>
-      <c r="G9" s="128"/>
-      <c r="H9" s="128"/>
-      <c r="I9" s="128"/>
-      <c r="J9" s="137"/>
-      <c r="K9" s="67"/>
-      <c r="N9" s="125"/>
+      <c r="B9" s="128"/>
+      <c r="C9" s="139"/>
+      <c r="D9" s="131"/>
+      <c r="E9" s="131"/>
+      <c r="F9" s="131"/>
+      <c r="G9" s="131"/>
+      <c r="H9" s="131"/>
+      <c r="I9" s="131"/>
+      <c r="J9" s="140"/>
+      <c r="K9" s="70"/>
+      <c r="N9" s="128"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
@@ -3677,12 +3677,12 @@
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
-      <c r="W9" s="67"/>
+      <c r="W9" s="70"/>
       <c r="X9" s="3"/>
-      <c r="Z9" s="115" t="s">
+      <c r="Z9" s="118" t="s">
         <v>7</v>
       </c>
-      <c r="AA9" s="116"/>
+      <c r="AA9" s="119"/>
       <c r="AB9" s="9" t="s">
         <v>8</v>
       </c>
@@ -3695,45 +3695,45 @@
       <c r="AI9" s="8"/>
       <c r="AJ9" s="7"/>
       <c r="AK9" s="25"/>
-      <c r="AL9" s="80" t="s">
+      <c r="AL9" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="AM9" s="81"/>
-      <c r="AN9" s="81"/>
-      <c r="AO9" s="81"/>
-      <c r="AP9" s="81"/>
-      <c r="AQ9" s="81"/>
-      <c r="AR9" s="81"/>
-      <c r="AS9" s="81"/>
-      <c r="AT9" s="81"/>
-      <c r="AU9" s="82"/>
+      <c r="AM9" s="84"/>
+      <c r="AN9" s="84"/>
+      <c r="AO9" s="84"/>
+      <c r="AP9" s="84"/>
+      <c r="AQ9" s="84"/>
+      <c r="AR9" s="84"/>
+      <c r="AS9" s="84"/>
+      <c r="AT9" s="84"/>
+      <c r="AU9" s="85"/>
     </row>
     <row r="10" spans="2:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="125"/>
-      <c r="C10" s="136"/>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
-      <c r="F10" s="128"/>
-      <c r="G10" s="128"/>
-      <c r="H10" s="128"/>
-      <c r="I10" s="128"/>
-      <c r="J10" s="137"/>
-      <c r="K10" s="67"/>
-      <c r="N10" s="125"/>
-      <c r="O10" s="141" t="s">
+      <c r="B10" s="128"/>
+      <c r="C10" s="139"/>
+      <c r="D10" s="131"/>
+      <c r="E10" s="131"/>
+      <c r="F10" s="131"/>
+      <c r="G10" s="131"/>
+      <c r="H10" s="131"/>
+      <c r="I10" s="131"/>
+      <c r="J10" s="140"/>
+      <c r="K10" s="70"/>
+      <c r="N10" s="128"/>
+      <c r="O10" s="144" t="s">
         <v>2</v>
       </c>
-      <c r="P10" s="141"/>
-      <c r="Q10" s="141"/>
-      <c r="R10" s="141"/>
-      <c r="S10" s="141"/>
-      <c r="T10" s="141"/>
-      <c r="U10" s="141"/>
-      <c r="V10" s="141"/>
-      <c r="W10" s="67"/>
+      <c r="P10" s="144"/>
+      <c r="Q10" s="144"/>
+      <c r="R10" s="144"/>
+      <c r="S10" s="144"/>
+      <c r="T10" s="144"/>
+      <c r="U10" s="144"/>
+      <c r="V10" s="144"/>
+      <c r="W10" s="70"/>
       <c r="X10" s="3"/>
-      <c r="Z10" s="117"/>
-      <c r="AA10" s="118"/>
+      <c r="Z10" s="120"/>
+      <c r="AA10" s="121"/>
       <c r="AB10" s="2"/>
       <c r="AC10" s="2"/>
       <c r="AD10" s="2"/>
@@ -3744,43 +3744,43 @@
       <c r="AI10" s="4"/>
       <c r="AJ10" s="1"/>
       <c r="AK10" s="25"/>
-      <c r="AL10" s="83"/>
-      <c r="AM10" s="84"/>
-      <c r="AN10" s="84"/>
-      <c r="AO10" s="84"/>
-      <c r="AP10" s="84"/>
-      <c r="AQ10" s="84"/>
-      <c r="AR10" s="84"/>
-      <c r="AS10" s="84"/>
-      <c r="AT10" s="84"/>
-      <c r="AU10" s="85"/>
+      <c r="AL10" s="86"/>
+      <c r="AM10" s="87"/>
+      <c r="AN10" s="87"/>
+      <c r="AO10" s="87"/>
+      <c r="AP10" s="87"/>
+      <c r="AQ10" s="87"/>
+      <c r="AR10" s="87"/>
+      <c r="AS10" s="87"/>
+      <c r="AT10" s="87"/>
+      <c r="AU10" s="88"/>
     </row>
     <row r="11" spans="2:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="125"/>
-      <c r="C11" s="136"/>
-      <c r="D11" s="128"/>
-      <c r="E11" s="128"/>
-      <c r="F11" s="128"/>
-      <c r="G11" s="128"/>
-      <c r="H11" s="128"/>
-      <c r="I11" s="128"/>
-      <c r="J11" s="137"/>
-      <c r="K11" s="67"/>
-      <c r="N11" s="125"/>
-      <c r="O11" s="129"/>
-      <c r="P11" s="130"/>
-      <c r="Q11" s="130"/>
-      <c r="R11" s="130"/>
-      <c r="S11" s="130"/>
-      <c r="T11" s="130"/>
-      <c r="U11" s="130"/>
-      <c r="V11" s="131"/>
-      <c r="W11" s="67"/>
+      <c r="B11" s="128"/>
+      <c r="C11" s="139"/>
+      <c r="D11" s="131"/>
+      <c r="E11" s="131"/>
+      <c r="F11" s="131"/>
+      <c r="G11" s="131"/>
+      <c r="H11" s="131"/>
+      <c r="I11" s="131"/>
+      <c r="J11" s="140"/>
+      <c r="K11" s="70"/>
+      <c r="N11" s="128"/>
+      <c r="O11" s="132"/>
+      <c r="P11" s="133"/>
+      <c r="Q11" s="133"/>
+      <c r="R11" s="133"/>
+      <c r="S11" s="133"/>
+      <c r="T11" s="133"/>
+      <c r="U11" s="133"/>
+      <c r="V11" s="134"/>
+      <c r="W11" s="70"/>
       <c r="X11" s="3"/>
-      <c r="Z11" s="115" t="s">
+      <c r="Z11" s="118" t="s">
         <v>7</v>
       </c>
-      <c r="AA11" s="116"/>
+      <c r="AA11" s="119"/>
       <c r="AB11" s="9" t="s">
         <v>8</v>
       </c>
@@ -3793,31 +3793,31 @@
       <c r="AI11" s="8"/>
       <c r="AJ11" s="7"/>
       <c r="AK11" s="25"/>
-      <c r="AL11" s="86" t="s">
+      <c r="AL11" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="AM11" s="87"/>
-      <c r="AN11" s="87"/>
-      <c r="AO11" s="87"/>
-      <c r="AP11" s="87"/>
-      <c r="AQ11" s="87"/>
-      <c r="AR11" s="87"/>
-      <c r="AS11" s="87"/>
-      <c r="AT11" s="87"/>
-      <c r="AU11" s="88"/>
+      <c r="AM11" s="90"/>
+      <c r="AN11" s="90"/>
+      <c r="AO11" s="90"/>
+      <c r="AP11" s="90"/>
+      <c r="AQ11" s="90"/>
+      <c r="AR11" s="90"/>
+      <c r="AS11" s="90"/>
+      <c r="AT11" s="90"/>
+      <c r="AU11" s="91"/>
     </row>
     <row r="12" spans="2:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="125"/>
-      <c r="C12" s="136"/>
-      <c r="D12" s="128"/>
-      <c r="E12" s="128"/>
-      <c r="F12" s="128"/>
-      <c r="G12" s="128"/>
-      <c r="H12" s="128"/>
-      <c r="I12" s="128"/>
-      <c r="J12" s="137"/>
-      <c r="K12" s="67"/>
-      <c r="N12" s="125"/>
+      <c r="B12" s="128"/>
+      <c r="C12" s="139"/>
+      <c r="D12" s="131"/>
+      <c r="E12" s="131"/>
+      <c r="F12" s="131"/>
+      <c r="G12" s="131"/>
+      <c r="H12" s="131"/>
+      <c r="I12" s="131"/>
+      <c r="J12" s="140"/>
+      <c r="K12" s="70"/>
+      <c r="N12" s="128"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
@@ -3826,10 +3826,10 @@
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
-      <c r="W12" s="67"/>
+      <c r="W12" s="70"/>
       <c r="X12" s="3"/>
-      <c r="Z12" s="117"/>
-      <c r="AA12" s="118"/>
+      <c r="Z12" s="120"/>
+      <c r="AA12" s="121"/>
       <c r="AB12" s="2"/>
       <c r="AC12" s="2"/>
       <c r="AD12" s="2"/>
@@ -3840,45 +3840,45 @@
       <c r="AI12" s="4"/>
       <c r="AJ12" s="1"/>
       <c r="AK12" s="25"/>
-      <c r="AL12" s="89"/>
-      <c r="AM12" s="90"/>
-      <c r="AN12" s="90"/>
-      <c r="AO12" s="90"/>
-      <c r="AP12" s="90"/>
-      <c r="AQ12" s="90"/>
-      <c r="AR12" s="90"/>
-      <c r="AS12" s="90"/>
-      <c r="AT12" s="90"/>
-      <c r="AU12" s="91"/>
+      <c r="AL12" s="92"/>
+      <c r="AM12" s="93"/>
+      <c r="AN12" s="93"/>
+      <c r="AO12" s="93"/>
+      <c r="AP12" s="93"/>
+      <c r="AQ12" s="93"/>
+      <c r="AR12" s="93"/>
+      <c r="AS12" s="93"/>
+      <c r="AT12" s="93"/>
+      <c r="AU12" s="94"/>
     </row>
     <row r="13" spans="2:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="125"/>
-      <c r="C13" s="136"/>
-      <c r="D13" s="128"/>
-      <c r="E13" s="128"/>
-      <c r="F13" s="128"/>
-      <c r="G13" s="128"/>
-      <c r="H13" s="128"/>
-      <c r="I13" s="128"/>
-      <c r="J13" s="137"/>
-      <c r="K13" s="67"/>
-      <c r="N13" s="125"/>
-      <c r="O13" s="56" t="s">
+      <c r="B13" s="128"/>
+      <c r="C13" s="139"/>
+      <c r="D13" s="131"/>
+      <c r="E13" s="131"/>
+      <c r="F13" s="131"/>
+      <c r="G13" s="131"/>
+      <c r="H13" s="131"/>
+      <c r="I13" s="131"/>
+      <c r="J13" s="140"/>
+      <c r="K13" s="70"/>
+      <c r="N13" s="128"/>
+      <c r="O13" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="P13" s="57"/>
-      <c r="Q13" s="57"/>
-      <c r="R13" s="57"/>
-      <c r="S13" s="57"/>
-      <c r="T13" s="57"/>
-      <c r="U13" s="57"/>
-      <c r="V13" s="58"/>
-      <c r="W13" s="67"/>
+      <c r="P13" s="60"/>
+      <c r="Q13" s="60"/>
+      <c r="R13" s="60"/>
+      <c r="S13" s="60"/>
+      <c r="T13" s="60"/>
+      <c r="U13" s="60"/>
+      <c r="V13" s="61"/>
+      <c r="W13" s="70"/>
       <c r="X13" s="3"/>
-      <c r="Z13" s="115" t="s">
+      <c r="Z13" s="118" t="s">
         <v>7</v>
       </c>
-      <c r="AA13" s="116"/>
+      <c r="AA13" s="119"/>
       <c r="AB13" s="9" t="s">
         <v>8</v>
       </c>
@@ -3891,43 +3891,43 @@
       <c r="AI13" s="8"/>
       <c r="AJ13" s="7"/>
       <c r="AK13" s="25"/>
-      <c r="AL13" s="80" t="s">
+      <c r="AL13" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="AM13" s="81"/>
-      <c r="AN13" s="81"/>
-      <c r="AO13" s="81"/>
-      <c r="AP13" s="81"/>
-      <c r="AQ13" s="81"/>
-      <c r="AR13" s="81"/>
-      <c r="AS13" s="81"/>
-      <c r="AT13" s="81"/>
-      <c r="AU13" s="82"/>
+      <c r="AM13" s="84"/>
+      <c r="AN13" s="84"/>
+      <c r="AO13" s="84"/>
+      <c r="AP13" s="84"/>
+      <c r="AQ13" s="84"/>
+      <c r="AR13" s="84"/>
+      <c r="AS13" s="84"/>
+      <c r="AT13" s="84"/>
+      <c r="AU13" s="85"/>
     </row>
     <row r="14" spans="2:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="125"/>
-      <c r="C14" s="136"/>
-      <c r="D14" s="128"/>
-      <c r="E14" s="128"/>
-      <c r="F14" s="128"/>
-      <c r="G14" s="128"/>
-      <c r="H14" s="128"/>
-      <c r="I14" s="128"/>
-      <c r="J14" s="137"/>
-      <c r="K14" s="67"/>
-      <c r="N14" s="125"/>
-      <c r="O14" s="62"/>
-      <c r="P14" s="63"/>
-      <c r="Q14" s="63"/>
-      <c r="R14" s="63"/>
-      <c r="S14" s="63"/>
-      <c r="T14" s="63"/>
-      <c r="U14" s="63"/>
-      <c r="V14" s="64"/>
-      <c r="W14" s="67"/>
+      <c r="B14" s="128"/>
+      <c r="C14" s="139"/>
+      <c r="D14" s="131"/>
+      <c r="E14" s="131"/>
+      <c r="F14" s="131"/>
+      <c r="G14" s="131"/>
+      <c r="H14" s="131"/>
+      <c r="I14" s="131"/>
+      <c r="J14" s="140"/>
+      <c r="K14" s="70"/>
+      <c r="N14" s="128"/>
+      <c r="O14" s="65"/>
+      <c r="P14" s="66"/>
+      <c r="Q14" s="66"/>
+      <c r="R14" s="66"/>
+      <c r="S14" s="66"/>
+      <c r="T14" s="66"/>
+      <c r="U14" s="66"/>
+      <c r="V14" s="67"/>
+      <c r="W14" s="70"/>
       <c r="X14" s="3"/>
-      <c r="Z14" s="117"/>
-      <c r="AA14" s="118"/>
+      <c r="Z14" s="120"/>
+      <c r="AA14" s="121"/>
       <c r="AB14" s="2"/>
       <c r="AC14" s="2"/>
       <c r="AD14" s="2"/>
@@ -3938,29 +3938,29 @@
       <c r="AI14" s="4"/>
       <c r="AJ14" s="1"/>
       <c r="AK14" s="25"/>
-      <c r="AL14" s="83"/>
-      <c r="AM14" s="84"/>
-      <c r="AN14" s="84"/>
-      <c r="AO14" s="84"/>
-      <c r="AP14" s="84"/>
-      <c r="AQ14" s="84"/>
-      <c r="AR14" s="84"/>
-      <c r="AS14" s="84"/>
-      <c r="AT14" s="84"/>
-      <c r="AU14" s="85"/>
+      <c r="AL14" s="86"/>
+      <c r="AM14" s="87"/>
+      <c r="AN14" s="87"/>
+      <c r="AO14" s="87"/>
+      <c r="AP14" s="87"/>
+      <c r="AQ14" s="87"/>
+      <c r="AR14" s="87"/>
+      <c r="AS14" s="87"/>
+      <c r="AT14" s="87"/>
+      <c r="AU14" s="88"/>
     </row>
     <row r="15" spans="2:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="125"/>
-      <c r="C15" s="136"/>
-      <c r="D15" s="128"/>
-      <c r="E15" s="128"/>
-      <c r="F15" s="128"/>
-      <c r="G15" s="128"/>
-      <c r="H15" s="128"/>
-      <c r="I15" s="128"/>
-      <c r="J15" s="137"/>
-      <c r="K15" s="67"/>
-      <c r="N15" s="125"/>
+      <c r="B15" s="128"/>
+      <c r="C15" s="139"/>
+      <c r="D15" s="131"/>
+      <c r="E15" s="131"/>
+      <c r="F15" s="131"/>
+      <c r="G15" s="131"/>
+      <c r="H15" s="131"/>
+      <c r="I15" s="131"/>
+      <c r="J15" s="140"/>
+      <c r="K15" s="70"/>
+      <c r="N15" s="128"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
@@ -3969,12 +3969,12 @@
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
-      <c r="W15" s="67"/>
+      <c r="W15" s="70"/>
       <c r="X15" s="3"/>
-      <c r="Z15" s="115" t="s">
+      <c r="Z15" s="118" t="s">
         <v>7</v>
       </c>
-      <c r="AA15" s="116"/>
+      <c r="AA15" s="119"/>
       <c r="AB15" s="9" t="s">
         <v>8</v>
       </c>
@@ -3987,31 +3987,31 @@
       <c r="AI15" s="8"/>
       <c r="AJ15" s="7"/>
       <c r="AK15" s="25"/>
-      <c r="AL15" s="86" t="s">
+      <c r="AL15" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="AM15" s="87"/>
-      <c r="AN15" s="87"/>
-      <c r="AO15" s="87"/>
-      <c r="AP15" s="87"/>
-      <c r="AQ15" s="87"/>
-      <c r="AR15" s="87"/>
-      <c r="AS15" s="87"/>
-      <c r="AT15" s="87"/>
-      <c r="AU15" s="88"/>
+      <c r="AM15" s="90"/>
+      <c r="AN15" s="90"/>
+      <c r="AO15" s="90"/>
+      <c r="AP15" s="90"/>
+      <c r="AQ15" s="90"/>
+      <c r="AR15" s="90"/>
+      <c r="AS15" s="90"/>
+      <c r="AT15" s="90"/>
+      <c r="AU15" s="91"/>
     </row>
     <row r="16" spans="2:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="125"/>
-      <c r="C16" s="136"/>
-      <c r="D16" s="128"/>
-      <c r="E16" s="128"/>
-      <c r="F16" s="128"/>
-      <c r="G16" s="128"/>
-      <c r="H16" s="128"/>
-      <c r="I16" s="128"/>
-      <c r="J16" s="137"/>
-      <c r="K16" s="67"/>
-      <c r="N16" s="125"/>
+      <c r="B16" s="128"/>
+      <c r="C16" s="139"/>
+      <c r="D16" s="131"/>
+      <c r="E16" s="131"/>
+      <c r="F16" s="131"/>
+      <c r="G16" s="131"/>
+      <c r="H16" s="131"/>
+      <c r="I16" s="131"/>
+      <c r="J16" s="140"/>
+      <c r="K16" s="70"/>
+      <c r="N16" s="128"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
@@ -4020,10 +4020,10 @@
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
-      <c r="W16" s="67"/>
+      <c r="W16" s="70"/>
       <c r="X16" s="3"/>
-      <c r="Z16" s="117"/>
-      <c r="AA16" s="118"/>
+      <c r="Z16" s="120"/>
+      <c r="AA16" s="121"/>
       <c r="AB16" s="2"/>
       <c r="AC16" s="2"/>
       <c r="AD16" s="2"/>
@@ -4034,45 +4034,45 @@
       <c r="AI16" s="4"/>
       <c r="AJ16" s="1"/>
       <c r="AK16" s="25"/>
-      <c r="AL16" s="89"/>
-      <c r="AM16" s="90"/>
-      <c r="AN16" s="90"/>
-      <c r="AO16" s="90"/>
-      <c r="AP16" s="90"/>
-      <c r="AQ16" s="90"/>
-      <c r="AR16" s="90"/>
-      <c r="AS16" s="90"/>
-      <c r="AT16" s="90"/>
-      <c r="AU16" s="91"/>
+      <c r="AL16" s="92"/>
+      <c r="AM16" s="93"/>
+      <c r="AN16" s="93"/>
+      <c r="AO16" s="93"/>
+      <c r="AP16" s="93"/>
+      <c r="AQ16" s="93"/>
+      <c r="AR16" s="93"/>
+      <c r="AS16" s="93"/>
+      <c r="AT16" s="93"/>
+      <c r="AU16" s="94"/>
     </row>
     <row r="17" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="125"/>
-      <c r="C17" s="136"/>
-      <c r="D17" s="128"/>
-      <c r="E17" s="128"/>
-      <c r="F17" s="128"/>
-      <c r="G17" s="128"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="128"/>
-      <c r="J17" s="137"/>
-      <c r="K17" s="67"/>
-      <c r="N17" s="125"/>
-      <c r="O17" s="56" t="s">
+      <c r="B17" s="128"/>
+      <c r="C17" s="139"/>
+      <c r="D17" s="131"/>
+      <c r="E17" s="131"/>
+      <c r="F17" s="131"/>
+      <c r="G17" s="131"/>
+      <c r="H17" s="131"/>
+      <c r="I17" s="131"/>
+      <c r="J17" s="140"/>
+      <c r="K17" s="70"/>
+      <c r="N17" s="128"/>
+      <c r="O17" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="P17" s="57"/>
-      <c r="Q17" s="57"/>
-      <c r="R17" s="57"/>
-      <c r="S17" s="57"/>
-      <c r="T17" s="57"/>
-      <c r="U17" s="57"/>
-      <c r="V17" s="58"/>
-      <c r="W17" s="67"/>
+      <c r="P17" s="60"/>
+      <c r="Q17" s="60"/>
+      <c r="R17" s="60"/>
+      <c r="S17" s="60"/>
+      <c r="T17" s="60"/>
+      <c r="U17" s="60"/>
+      <c r="V17" s="61"/>
+      <c r="W17" s="70"/>
       <c r="X17" s="3"/>
-      <c r="Z17" s="119" t="s">
+      <c r="Z17" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="AA17" s="120"/>
+      <c r="AA17" s="123"/>
       <c r="AB17" s="9" t="s">
         <v>8</v>
       </c>
@@ -4085,112 +4085,112 @@
       <c r="AI17" s="8"/>
       <c r="AJ17" s="7"/>
       <c r="AK17" s="25"/>
-      <c r="AL17" s="80" t="s">
+      <c r="AL17" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="AM17" s="81"/>
-      <c r="AN17" s="81"/>
-      <c r="AO17" s="81"/>
-      <c r="AP17" s="81"/>
-      <c r="AQ17" s="81"/>
-      <c r="AR17" s="81"/>
-      <c r="AS17" s="81"/>
-      <c r="AT17" s="81"/>
-      <c r="AU17" s="82"/>
+      <c r="AM17" s="84"/>
+      <c r="AN17" s="84"/>
+      <c r="AO17" s="84"/>
+      <c r="AP17" s="84"/>
+      <c r="AQ17" s="84"/>
+      <c r="AR17" s="84"/>
+      <c r="AS17" s="84"/>
+      <c r="AT17" s="84"/>
+      <c r="AU17" s="85"/>
     </row>
     <row r="18" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="125"/>
-      <c r="C18" s="138"/>
-      <c r="D18" s="139"/>
-      <c r="E18" s="139"/>
-      <c r="F18" s="139"/>
-      <c r="G18" s="139"/>
-      <c r="H18" s="139"/>
-      <c r="I18" s="139"/>
-      <c r="J18" s="140"/>
-      <c r="K18" s="67"/>
-      <c r="N18" s="125"/>
-      <c r="O18" s="62"/>
-      <c r="P18" s="63"/>
-      <c r="Q18" s="63"/>
-      <c r="R18" s="63"/>
-      <c r="S18" s="63"/>
-      <c r="T18" s="63"/>
-      <c r="U18" s="63"/>
-      <c r="V18" s="64"/>
-      <c r="W18" s="67"/>
+      <c r="B18" s="128"/>
+      <c r="C18" s="141"/>
+      <c r="D18" s="142"/>
+      <c r="E18" s="142"/>
+      <c r="F18" s="142"/>
+      <c r="G18" s="142"/>
+      <c r="H18" s="142"/>
+      <c r="I18" s="142"/>
+      <c r="J18" s="143"/>
+      <c r="K18" s="70"/>
+      <c r="N18" s="128"/>
+      <c r="O18" s="65"/>
+      <c r="P18" s="66"/>
+      <c r="Q18" s="66"/>
+      <c r="R18" s="66"/>
+      <c r="S18" s="66"/>
+      <c r="T18" s="66"/>
+      <c r="U18" s="66"/>
+      <c r="V18" s="67"/>
+      <c r="W18" s="70"/>
       <c r="X18" s="3"/>
-      <c r="Z18" s="113" t="s">
+      <c r="Z18" s="116" t="s">
         <v>6</v>
       </c>
-      <c r="AA18" s="57"/>
-      <c r="AB18" s="57"/>
-      <c r="AC18" s="57"/>
-      <c r="AD18" s="57"/>
-      <c r="AE18" s="57"/>
-      <c r="AF18" s="57"/>
-      <c r="AG18" s="57"/>
-      <c r="AH18" s="57"/>
-      <c r="AI18" s="114"/>
+      <c r="AA18" s="60"/>
+      <c r="AB18" s="60"/>
+      <c r="AC18" s="60"/>
+      <c r="AD18" s="60"/>
+      <c r="AE18" s="60"/>
+      <c r="AF18" s="60"/>
+      <c r="AG18" s="60"/>
+      <c r="AH18" s="60"/>
+      <c r="AI18" s="117"/>
       <c r="AJ18" s="7"/>
       <c r="AK18" s="25"/>
-      <c r="AL18" s="121"/>
-      <c r="AM18" s="122"/>
-      <c r="AN18" s="122"/>
-      <c r="AO18" s="122"/>
-      <c r="AP18" s="122"/>
-      <c r="AQ18" s="122"/>
-      <c r="AR18" s="122"/>
-      <c r="AS18" s="122"/>
-      <c r="AT18" s="122"/>
-      <c r="AU18" s="123"/>
+      <c r="AL18" s="124"/>
+      <c r="AM18" s="125"/>
+      <c r="AN18" s="125"/>
+      <c r="AO18" s="125"/>
+      <c r="AP18" s="125"/>
+      <c r="AQ18" s="125"/>
+      <c r="AR18" s="125"/>
+      <c r="AS18" s="125"/>
+      <c r="AT18" s="125"/>
+      <c r="AU18" s="126"/>
     </row>
     <row r="19" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="126"/>
-      <c r="C19" s="132"/>
-      <c r="D19" s="132"/>
-      <c r="E19" s="132"/>
-      <c r="F19" s="132"/>
-      <c r="G19" s="132"/>
-      <c r="H19" s="132"/>
-      <c r="I19" s="132"/>
-      <c r="J19" s="132"/>
-      <c r="K19" s="68"/>
-      <c r="N19" s="126"/>
-      <c r="O19" s="106"/>
-      <c r="P19" s="106"/>
-      <c r="Q19" s="106"/>
-      <c r="R19" s="106"/>
-      <c r="S19" s="106"/>
-      <c r="T19" s="106"/>
-      <c r="U19" s="106"/>
-      <c r="V19" s="106"/>
-      <c r="W19" s="68"/>
+      <c r="B19" s="129"/>
+      <c r="C19" s="135"/>
+      <c r="D19" s="135"/>
+      <c r="E19" s="135"/>
+      <c r="F19" s="135"/>
+      <c r="G19" s="135"/>
+      <c r="H19" s="135"/>
+      <c r="I19" s="135"/>
+      <c r="J19" s="135"/>
+      <c r="K19" s="71"/>
+      <c r="N19" s="129"/>
+      <c r="O19" s="109"/>
+      <c r="P19" s="109"/>
+      <c r="Q19" s="109"/>
+      <c r="R19" s="109"/>
+      <c r="S19" s="109"/>
+      <c r="T19" s="109"/>
+      <c r="U19" s="109"/>
+      <c r="V19" s="109"/>
+      <c r="W19" s="71"/>
       <c r="X19" s="3"/>
-      <c r="Z19" s="77"/>
-      <c r="AA19" s="78"/>
-      <c r="AB19" s="78"/>
-      <c r="AC19" s="78"/>
-      <c r="AD19" s="78"/>
-      <c r="AE19" s="78"/>
-      <c r="AF19" s="78"/>
-      <c r="AG19" s="78"/>
-      <c r="AH19" s="78"/>
-      <c r="AI19" s="79"/>
+      <c r="Z19" s="80"/>
+      <c r="AA19" s="81"/>
+      <c r="AB19" s="81"/>
+      <c r="AC19" s="81"/>
+      <c r="AD19" s="81"/>
+      <c r="AE19" s="81"/>
+      <c r="AF19" s="81"/>
+      <c r="AG19" s="81"/>
+      <c r="AH19" s="81"/>
+      <c r="AI19" s="82"/>
       <c r="AJ19" s="7"/>
       <c r="AK19" s="25"/>
-      <c r="AL19" s="105" t="s">
+      <c r="AL19" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="AM19" s="106"/>
-      <c r="AN19" s="106"/>
-      <c r="AO19" s="106"/>
-      <c r="AP19" s="106"/>
-      <c r="AQ19" s="106"/>
-      <c r="AR19" s="106"/>
-      <c r="AS19" s="106"/>
-      <c r="AT19" s="106"/>
-      <c r="AU19" s="107"/>
+      <c r="AM19" s="109"/>
+      <c r="AN19" s="109"/>
+      <c r="AO19" s="109"/>
+      <c r="AP19" s="109"/>
+      <c r="AQ19" s="109"/>
+      <c r="AR19" s="109"/>
+      <c r="AS19" s="109"/>
+      <c r="AT19" s="109"/>
+      <c r="AU19" s="110"/>
     </row>
     <row r="20" spans="1:49" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="25"/>
@@ -4293,30 +4293,30 @@
       <c r="AW21" s="24"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="B22" s="92" t="s">
+      <c r="B22" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="93"/>
-      <c r="D22" s="93"/>
-      <c r="E22" s="93"/>
-      <c r="F22" s="93"/>
-      <c r="G22" s="93"/>
-      <c r="H22" s="93"/>
-      <c r="I22" s="93"/>
-      <c r="J22" s="93"/>
-      <c r="K22" s="94"/>
-      <c r="N22" s="92" t="s">
+      <c r="C22" s="96"/>
+      <c r="D22" s="96"/>
+      <c r="E22" s="96"/>
+      <c r="F22" s="96"/>
+      <c r="G22" s="96"/>
+      <c r="H22" s="96"/>
+      <c r="I22" s="96"/>
+      <c r="J22" s="96"/>
+      <c r="K22" s="97"/>
+      <c r="N22" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="O22" s="93"/>
-      <c r="P22" s="93"/>
-      <c r="Q22" s="93"/>
-      <c r="R22" s="93"/>
-      <c r="S22" s="93"/>
-      <c r="T22" s="93"/>
-      <c r="U22" s="93"/>
-      <c r="V22" s="93"/>
-      <c r="W22" s="94"/>
+      <c r="O22" s="96"/>
+      <c r="P22" s="96"/>
+      <c r="Q22" s="96"/>
+      <c r="R22" s="96"/>
+      <c r="S22" s="96"/>
+      <c r="T22" s="96"/>
+      <c r="U22" s="96"/>
+      <c r="V22" s="96"/>
+      <c r="W22" s="97"/>
       <c r="X22" s="27"/>
       <c r="Z22" s="5"/>
       <c r="AA22" s="5"/>
@@ -4348,13 +4348,13 @@
       <c r="C23" s="18"/>
       <c r="D23" s="18"/>
       <c r="E23" s="21"/>
-      <c r="F23" s="69" t="s">
+      <c r="F23" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="G23" s="70"/>
-      <c r="H23" s="70"/>
-      <c r="I23" s="70"/>
-      <c r="J23" s="70"/>
+      <c r="G23" s="73"/>
+      <c r="H23" s="73"/>
+      <c r="I23" s="73"/>
+      <c r="J23" s="73"/>
       <c r="K23" s="14"/>
       <c r="N23" s="13"/>
       <c r="O23" s="5"/>
@@ -4399,48 +4399,48 @@
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="22"/>
-      <c r="F24" s="71" t="s">
+      <c r="F24" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="G24" s="65"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="68"/>
+      <c r="I24" s="68"/>
+      <c r="J24" s="68"/>
       <c r="K24" s="14"/>
       <c r="N24" s="13"/>
-      <c r="O24" s="56" t="s">
+      <c r="O24" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="P24" s="57"/>
-      <c r="Q24" s="57"/>
-      <c r="R24" s="57"/>
-      <c r="S24" s="57"/>
-      <c r="T24" s="57"/>
-      <c r="U24" s="57"/>
-      <c r="V24" s="58"/>
+      <c r="P24" s="60"/>
+      <c r="Q24" s="60"/>
+      <c r="R24" s="60"/>
+      <c r="S24" s="60"/>
+      <c r="T24" s="60"/>
+      <c r="U24" s="60"/>
+      <c r="V24" s="61"/>
       <c r="W24" s="14"/>
       <c r="X24" s="5"/>
       <c r="Z24" s="5"/>
-      <c r="AA24" s="72" t="s">
+      <c r="AA24" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="AB24" s="73"/>
-      <c r="AC24" s="73"/>
-      <c r="AD24" s="73"/>
-      <c r="AE24" s="73"/>
-      <c r="AF24" s="73"/>
-      <c r="AG24" s="73"/>
-      <c r="AH24" s="73"/>
-      <c r="AI24" s="73"/>
-      <c r="AJ24" s="73"/>
-      <c r="AK24" s="73"/>
-      <c r="AL24" s="73"/>
-      <c r="AM24" s="73"/>
-      <c r="AN24" s="73"/>
-      <c r="AO24" s="73"/>
-      <c r="AP24" s="73"/>
-      <c r="AQ24" s="73"/>
-      <c r="AR24" s="74"/>
+      <c r="AB24" s="76"/>
+      <c r="AC24" s="76"/>
+      <c r="AD24" s="76"/>
+      <c r="AE24" s="76"/>
+      <c r="AF24" s="76"/>
+      <c r="AG24" s="76"/>
+      <c r="AH24" s="76"/>
+      <c r="AI24" s="76"/>
+      <c r="AJ24" s="76"/>
+      <c r="AK24" s="76"/>
+      <c r="AL24" s="76"/>
+      <c r="AM24" s="76"/>
+      <c r="AN24" s="76"/>
+      <c r="AO24" s="76"/>
+      <c r="AP24" s="76"/>
+      <c r="AQ24" s="76"/>
+      <c r="AR24" s="77"/>
       <c r="AS24" s="6"/>
       <c r="AT24" s="5"/>
       <c r="AU24" s="5"/>
@@ -4452,44 +4452,44 @@
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="22"/>
-      <c r="F25" s="71" t="s">
+      <c r="F25" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="G25" s="65"/>
-      <c r="H25" s="65"/>
-      <c r="I25" s="65"/>
-      <c r="J25" s="65"/>
+      <c r="G25" s="68"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="68"/>
+      <c r="J25" s="68"/>
       <c r="K25" s="14"/>
       <c r="N25" s="13"/>
-      <c r="O25" s="59"/>
-      <c r="P25" s="60"/>
-      <c r="Q25" s="60"/>
-      <c r="R25" s="60"/>
-      <c r="S25" s="60"/>
-      <c r="T25" s="60"/>
-      <c r="U25" s="60"/>
-      <c r="V25" s="61"/>
+      <c r="O25" s="62"/>
+      <c r="P25" s="63"/>
+      <c r="Q25" s="63"/>
+      <c r="R25" s="63"/>
+      <c r="S25" s="63"/>
+      <c r="T25" s="63"/>
+      <c r="U25" s="63"/>
+      <c r="V25" s="64"/>
       <c r="W25" s="14"/>
       <c r="X25" s="5"/>
       <c r="Z25" s="5"/>
-      <c r="AA25" s="75"/>
-      <c r="AB25" s="60"/>
-      <c r="AC25" s="60"/>
-      <c r="AD25" s="60"/>
-      <c r="AE25" s="60"/>
-      <c r="AF25" s="60"/>
-      <c r="AG25" s="60"/>
-      <c r="AH25" s="60"/>
-      <c r="AI25" s="60"/>
-      <c r="AJ25" s="60"/>
-      <c r="AK25" s="60"/>
-      <c r="AL25" s="60"/>
-      <c r="AM25" s="60"/>
-      <c r="AN25" s="60"/>
-      <c r="AO25" s="60"/>
-      <c r="AP25" s="60"/>
-      <c r="AQ25" s="60"/>
-      <c r="AR25" s="76"/>
+      <c r="AA25" s="78"/>
+      <c r="AB25" s="63"/>
+      <c r="AC25" s="63"/>
+      <c r="AD25" s="63"/>
+      <c r="AE25" s="63"/>
+      <c r="AF25" s="63"/>
+      <c r="AG25" s="63"/>
+      <c r="AH25" s="63"/>
+      <c r="AI25" s="63"/>
+      <c r="AJ25" s="63"/>
+      <c r="AK25" s="63"/>
+      <c r="AL25" s="63"/>
+      <c r="AM25" s="63"/>
+      <c r="AN25" s="63"/>
+      <c r="AO25" s="63"/>
+      <c r="AP25" s="63"/>
+      <c r="AQ25" s="63"/>
+      <c r="AR25" s="79"/>
       <c r="AS25" s="6"/>
       <c r="AT25" s="5"/>
       <c r="AU25" s="5"/>
@@ -4508,35 +4508,35 @@
       <c r="J26" s="5"/>
       <c r="K26" s="14"/>
       <c r="N26" s="13"/>
-      <c r="O26" s="59"/>
-      <c r="P26" s="60"/>
-      <c r="Q26" s="60"/>
-      <c r="R26" s="60"/>
-      <c r="S26" s="60"/>
-      <c r="T26" s="60"/>
-      <c r="U26" s="60"/>
-      <c r="V26" s="61"/>
+      <c r="O26" s="62"/>
+      <c r="P26" s="63"/>
+      <c r="Q26" s="63"/>
+      <c r="R26" s="63"/>
+      <c r="S26" s="63"/>
+      <c r="T26" s="63"/>
+      <c r="U26" s="63"/>
+      <c r="V26" s="64"/>
       <c r="W26" s="14"/>
       <c r="X26" s="5"/>
       <c r="Z26" s="5"/>
-      <c r="AA26" s="75"/>
-      <c r="AB26" s="60"/>
-      <c r="AC26" s="60"/>
-      <c r="AD26" s="60"/>
-      <c r="AE26" s="60"/>
-      <c r="AF26" s="60"/>
-      <c r="AG26" s="60"/>
-      <c r="AH26" s="60"/>
-      <c r="AI26" s="60"/>
-      <c r="AJ26" s="60"/>
-      <c r="AK26" s="60"/>
-      <c r="AL26" s="60"/>
-      <c r="AM26" s="60"/>
-      <c r="AN26" s="60"/>
-      <c r="AO26" s="60"/>
-      <c r="AP26" s="60"/>
-      <c r="AQ26" s="60"/>
-      <c r="AR26" s="76"/>
+      <c r="AA26" s="78"/>
+      <c r="AB26" s="63"/>
+      <c r="AC26" s="63"/>
+      <c r="AD26" s="63"/>
+      <c r="AE26" s="63"/>
+      <c r="AF26" s="63"/>
+      <c r="AG26" s="63"/>
+      <c r="AH26" s="63"/>
+      <c r="AI26" s="63"/>
+      <c r="AJ26" s="63"/>
+      <c r="AK26" s="63"/>
+      <c r="AL26" s="63"/>
+      <c r="AM26" s="63"/>
+      <c r="AN26" s="63"/>
+      <c r="AO26" s="63"/>
+      <c r="AP26" s="63"/>
+      <c r="AQ26" s="63"/>
+      <c r="AR26" s="79"/>
       <c r="AS26" s="6"/>
       <c r="AT26" s="5"/>
       <c r="AU26" s="5"/>
@@ -4555,35 +4555,35 @@
       <c r="J27" s="5"/>
       <c r="K27" s="14"/>
       <c r="N27" s="13"/>
-      <c r="O27" s="59"/>
-      <c r="P27" s="60"/>
-      <c r="Q27" s="60"/>
-      <c r="R27" s="60"/>
-      <c r="S27" s="60"/>
-      <c r="T27" s="60"/>
-      <c r="U27" s="60"/>
-      <c r="V27" s="61"/>
+      <c r="O27" s="62"/>
+      <c r="P27" s="63"/>
+      <c r="Q27" s="63"/>
+      <c r="R27" s="63"/>
+      <c r="S27" s="63"/>
+      <c r="T27" s="63"/>
+      <c r="U27" s="63"/>
+      <c r="V27" s="64"/>
       <c r="W27" s="14"/>
       <c r="X27" s="5"/>
       <c r="Z27" s="5"/>
-      <c r="AA27" s="75"/>
-      <c r="AB27" s="60"/>
-      <c r="AC27" s="60"/>
-      <c r="AD27" s="60"/>
-      <c r="AE27" s="60"/>
-      <c r="AF27" s="60"/>
-      <c r="AG27" s="60"/>
-      <c r="AH27" s="60"/>
-      <c r="AI27" s="60"/>
-      <c r="AJ27" s="60"/>
-      <c r="AK27" s="60"/>
-      <c r="AL27" s="60"/>
-      <c r="AM27" s="60"/>
-      <c r="AN27" s="60"/>
-      <c r="AO27" s="60"/>
-      <c r="AP27" s="60"/>
-      <c r="AQ27" s="60"/>
-      <c r="AR27" s="76"/>
+      <c r="AA27" s="78"/>
+      <c r="AB27" s="63"/>
+      <c r="AC27" s="63"/>
+      <c r="AD27" s="63"/>
+      <c r="AE27" s="63"/>
+      <c r="AF27" s="63"/>
+      <c r="AG27" s="63"/>
+      <c r="AH27" s="63"/>
+      <c r="AI27" s="63"/>
+      <c r="AJ27" s="63"/>
+      <c r="AK27" s="63"/>
+      <c r="AL27" s="63"/>
+      <c r="AM27" s="63"/>
+      <c r="AN27" s="63"/>
+      <c r="AO27" s="63"/>
+      <c r="AP27" s="63"/>
+      <c r="AQ27" s="63"/>
+      <c r="AR27" s="79"/>
       <c r="AS27" s="6"/>
       <c r="AT27" s="5"/>
       <c r="AU27" s="5"/>
@@ -4592,49 +4592,49 @@
     </row>
     <row r="28" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="13"/>
-      <c r="C28" s="95" t="s">
+      <c r="C28" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="D28" s="96"/>
-      <c r="E28" s="97"/>
+      <c r="D28" s="99"/>
+      <c r="E28" s="100"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
-      <c r="H28" s="95" t="s">
+      <c r="H28" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="I28" s="96"/>
-      <c r="J28" s="97"/>
+      <c r="I28" s="99"/>
+      <c r="J28" s="100"/>
       <c r="K28" s="14"/>
       <c r="N28" s="13"/>
-      <c r="O28" s="59"/>
-      <c r="P28" s="60"/>
-      <c r="Q28" s="60"/>
-      <c r="R28" s="60"/>
-      <c r="S28" s="60"/>
-      <c r="T28" s="60"/>
-      <c r="U28" s="60"/>
-      <c r="V28" s="61"/>
+      <c r="O28" s="62"/>
+      <c r="P28" s="63"/>
+      <c r="Q28" s="63"/>
+      <c r="R28" s="63"/>
+      <c r="S28" s="63"/>
+      <c r="T28" s="63"/>
+      <c r="U28" s="63"/>
+      <c r="V28" s="64"/>
       <c r="W28" s="14"/>
       <c r="X28" s="5"/>
       <c r="Z28" s="5"/>
-      <c r="AA28" s="75"/>
-      <c r="AB28" s="60"/>
-      <c r="AC28" s="60"/>
-      <c r="AD28" s="60"/>
-      <c r="AE28" s="60"/>
-      <c r="AF28" s="60"/>
-      <c r="AG28" s="60"/>
-      <c r="AH28" s="60"/>
-      <c r="AI28" s="60"/>
-      <c r="AJ28" s="60"/>
-      <c r="AK28" s="60"/>
-      <c r="AL28" s="60"/>
-      <c r="AM28" s="60"/>
-      <c r="AN28" s="60"/>
-      <c r="AO28" s="60"/>
-      <c r="AP28" s="60"/>
-      <c r="AQ28" s="60"/>
-      <c r="AR28" s="76"/>
+      <c r="AA28" s="78"/>
+      <c r="AB28" s="63"/>
+      <c r="AC28" s="63"/>
+      <c r="AD28" s="63"/>
+      <c r="AE28" s="63"/>
+      <c r="AF28" s="63"/>
+      <c r="AG28" s="63"/>
+      <c r="AH28" s="63"/>
+      <c r="AI28" s="63"/>
+      <c r="AJ28" s="63"/>
+      <c r="AK28" s="63"/>
+      <c r="AL28" s="63"/>
+      <c r="AM28" s="63"/>
+      <c r="AN28" s="63"/>
+      <c r="AO28" s="63"/>
+      <c r="AP28" s="63"/>
+      <c r="AQ28" s="63"/>
+      <c r="AR28" s="79"/>
       <c r="AS28" s="6"/>
       <c r="AT28" s="5"/>
       <c r="AU28" s="5"/>
@@ -4643,45 +4643,45 @@
     </row>
     <row r="29" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="13"/>
-      <c r="C29" s="98"/>
-      <c r="D29" s="99"/>
-      <c r="E29" s="100"/>
+      <c r="C29" s="101"/>
+      <c r="D29" s="102"/>
+      <c r="E29" s="103"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
-      <c r="H29" s="98"/>
-      <c r="I29" s="99"/>
-      <c r="J29" s="100"/>
+      <c r="H29" s="101"/>
+      <c r="I29" s="102"/>
+      <c r="J29" s="103"/>
       <c r="K29" s="14"/>
       <c r="N29" s="13"/>
-      <c r="O29" s="59"/>
-      <c r="P29" s="60"/>
-      <c r="Q29" s="60"/>
-      <c r="R29" s="60"/>
-      <c r="S29" s="60"/>
-      <c r="T29" s="60"/>
-      <c r="U29" s="60"/>
-      <c r="V29" s="61"/>
+      <c r="O29" s="62"/>
+      <c r="P29" s="63"/>
+      <c r="Q29" s="63"/>
+      <c r="R29" s="63"/>
+      <c r="S29" s="63"/>
+      <c r="T29" s="63"/>
+      <c r="U29" s="63"/>
+      <c r="V29" s="64"/>
       <c r="W29" s="14"/>
       <c r="X29" s="5"/>
       <c r="Z29" s="5"/>
-      <c r="AA29" s="75"/>
-      <c r="AB29" s="60"/>
-      <c r="AC29" s="60"/>
-      <c r="AD29" s="60"/>
-      <c r="AE29" s="60"/>
-      <c r="AF29" s="60"/>
-      <c r="AG29" s="60"/>
-      <c r="AH29" s="60"/>
-      <c r="AI29" s="60"/>
-      <c r="AJ29" s="60"/>
-      <c r="AK29" s="60"/>
-      <c r="AL29" s="60"/>
-      <c r="AM29" s="60"/>
-      <c r="AN29" s="60"/>
-      <c r="AO29" s="60"/>
-      <c r="AP29" s="60"/>
-      <c r="AQ29" s="60"/>
-      <c r="AR29" s="76"/>
+      <c r="AA29" s="78"/>
+      <c r="AB29" s="63"/>
+      <c r="AC29" s="63"/>
+      <c r="AD29" s="63"/>
+      <c r="AE29" s="63"/>
+      <c r="AF29" s="63"/>
+      <c r="AG29" s="63"/>
+      <c r="AH29" s="63"/>
+      <c r="AI29" s="63"/>
+      <c r="AJ29" s="63"/>
+      <c r="AK29" s="63"/>
+      <c r="AL29" s="63"/>
+      <c r="AM29" s="63"/>
+      <c r="AN29" s="63"/>
+      <c r="AO29" s="63"/>
+      <c r="AP29" s="63"/>
+      <c r="AQ29" s="63"/>
+      <c r="AR29" s="79"/>
       <c r="AS29" s="6"/>
       <c r="AT29" s="5"/>
       <c r="AU29" s="5"/>
@@ -4690,45 +4690,45 @@
     </row>
     <row r="30" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="13"/>
-      <c r="C30" s="101"/>
-      <c r="D30" s="102"/>
-      <c r="E30" s="103"/>
+      <c r="C30" s="104"/>
+      <c r="D30" s="105"/>
+      <c r="E30" s="106"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
-      <c r="H30" s="101"/>
-      <c r="I30" s="102"/>
-      <c r="J30" s="103"/>
+      <c r="H30" s="104"/>
+      <c r="I30" s="105"/>
+      <c r="J30" s="106"/>
       <c r="K30" s="14"/>
       <c r="N30" s="13"/>
-      <c r="O30" s="59"/>
-      <c r="P30" s="60"/>
-      <c r="Q30" s="60"/>
-      <c r="R30" s="60"/>
-      <c r="S30" s="60"/>
-      <c r="T30" s="60"/>
-      <c r="U30" s="60"/>
-      <c r="V30" s="61"/>
+      <c r="O30" s="62"/>
+      <c r="P30" s="63"/>
+      <c r="Q30" s="63"/>
+      <c r="R30" s="63"/>
+      <c r="S30" s="63"/>
+      <c r="T30" s="63"/>
+      <c r="U30" s="63"/>
+      <c r="V30" s="64"/>
       <c r="W30" s="14"/>
       <c r="X30" s="5"/>
       <c r="Z30" s="5"/>
-      <c r="AA30" s="75"/>
-      <c r="AB30" s="60"/>
-      <c r="AC30" s="60"/>
-      <c r="AD30" s="60"/>
-      <c r="AE30" s="60"/>
-      <c r="AF30" s="60"/>
-      <c r="AG30" s="60"/>
-      <c r="AH30" s="60"/>
-      <c r="AI30" s="60"/>
-      <c r="AJ30" s="60"/>
-      <c r="AK30" s="60"/>
-      <c r="AL30" s="60"/>
-      <c r="AM30" s="60"/>
-      <c r="AN30" s="60"/>
-      <c r="AO30" s="60"/>
-      <c r="AP30" s="60"/>
-      <c r="AQ30" s="60"/>
-      <c r="AR30" s="76"/>
+      <c r="AA30" s="78"/>
+      <c r="AB30" s="63"/>
+      <c r="AC30" s="63"/>
+      <c r="AD30" s="63"/>
+      <c r="AE30" s="63"/>
+      <c r="AF30" s="63"/>
+      <c r="AG30" s="63"/>
+      <c r="AH30" s="63"/>
+      <c r="AI30" s="63"/>
+      <c r="AJ30" s="63"/>
+      <c r="AK30" s="63"/>
+      <c r="AL30" s="63"/>
+      <c r="AM30" s="63"/>
+      <c r="AN30" s="63"/>
+      <c r="AO30" s="63"/>
+      <c r="AP30" s="63"/>
+      <c r="AQ30" s="63"/>
+      <c r="AR30" s="79"/>
       <c r="AS30" s="6"/>
       <c r="AT30" s="5"/>
       <c r="AU30" s="5"/>
@@ -4747,35 +4747,35 @@
       <c r="J31" s="5"/>
       <c r="K31" s="14"/>
       <c r="N31" s="13"/>
-      <c r="O31" s="62"/>
-      <c r="P31" s="63"/>
-      <c r="Q31" s="63"/>
-      <c r="R31" s="63"/>
-      <c r="S31" s="63"/>
-      <c r="T31" s="63"/>
-      <c r="U31" s="63"/>
-      <c r="V31" s="64"/>
+      <c r="O31" s="65"/>
+      <c r="P31" s="66"/>
+      <c r="Q31" s="66"/>
+      <c r="R31" s="66"/>
+      <c r="S31" s="66"/>
+      <c r="T31" s="66"/>
+      <c r="U31" s="66"/>
+      <c r="V31" s="67"/>
       <c r="W31" s="14"/>
       <c r="X31" s="5"/>
       <c r="Z31" s="5"/>
-      <c r="AA31" s="75"/>
-      <c r="AB31" s="60"/>
-      <c r="AC31" s="60"/>
-      <c r="AD31" s="60"/>
-      <c r="AE31" s="60"/>
-      <c r="AF31" s="60"/>
-      <c r="AG31" s="60"/>
-      <c r="AH31" s="60"/>
-      <c r="AI31" s="60"/>
-      <c r="AJ31" s="60"/>
-      <c r="AK31" s="60"/>
-      <c r="AL31" s="60"/>
-      <c r="AM31" s="60"/>
-      <c r="AN31" s="60"/>
-      <c r="AO31" s="60"/>
-      <c r="AP31" s="60"/>
-      <c r="AQ31" s="60"/>
-      <c r="AR31" s="76"/>
+      <c r="AA31" s="78"/>
+      <c r="AB31" s="63"/>
+      <c r="AC31" s="63"/>
+      <c r="AD31" s="63"/>
+      <c r="AE31" s="63"/>
+      <c r="AF31" s="63"/>
+      <c r="AG31" s="63"/>
+      <c r="AH31" s="63"/>
+      <c r="AI31" s="63"/>
+      <c r="AJ31" s="63"/>
+      <c r="AK31" s="63"/>
+      <c r="AL31" s="63"/>
+      <c r="AM31" s="63"/>
+      <c r="AN31" s="63"/>
+      <c r="AO31" s="63"/>
+      <c r="AP31" s="63"/>
+      <c r="AQ31" s="63"/>
+      <c r="AR31" s="79"/>
       <c r="AS31" s="6"/>
       <c r="AT31" s="5"/>
       <c r="AU31" s="5"/>
@@ -4805,24 +4805,24 @@
       <c r="W32" s="14"/>
       <c r="X32" s="5"/>
       <c r="Z32" s="5"/>
-      <c r="AA32" s="75"/>
-      <c r="AB32" s="60"/>
-      <c r="AC32" s="60"/>
-      <c r="AD32" s="60"/>
-      <c r="AE32" s="60"/>
-      <c r="AF32" s="60"/>
-      <c r="AG32" s="60"/>
-      <c r="AH32" s="60"/>
-      <c r="AI32" s="60"/>
-      <c r="AJ32" s="60"/>
-      <c r="AK32" s="60"/>
-      <c r="AL32" s="60"/>
-      <c r="AM32" s="60"/>
-      <c r="AN32" s="60"/>
-      <c r="AO32" s="60"/>
-      <c r="AP32" s="60"/>
-      <c r="AQ32" s="60"/>
-      <c r="AR32" s="76"/>
+      <c r="AA32" s="78"/>
+      <c r="AB32" s="63"/>
+      <c r="AC32" s="63"/>
+      <c r="AD32" s="63"/>
+      <c r="AE32" s="63"/>
+      <c r="AF32" s="63"/>
+      <c r="AG32" s="63"/>
+      <c r="AH32" s="63"/>
+      <c r="AI32" s="63"/>
+      <c r="AJ32" s="63"/>
+      <c r="AK32" s="63"/>
+      <c r="AL32" s="63"/>
+      <c r="AM32" s="63"/>
+      <c r="AN32" s="63"/>
+      <c r="AO32" s="63"/>
+      <c r="AP32" s="63"/>
+      <c r="AQ32" s="63"/>
+      <c r="AR32" s="79"/>
       <c r="AS32" s="6"/>
       <c r="AT32" s="5"/>
       <c r="AU32" s="5"/>
@@ -4831,51 +4831,51 @@
     </row>
     <row r="33" spans="2:49" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="13"/>
-      <c r="C33" s="95" t="s">
+      <c r="C33" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="D33" s="96"/>
-      <c r="E33" s="97"/>
+      <c r="D33" s="99"/>
+      <c r="E33" s="100"/>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
-      <c r="H33" s="95" t="s">
+      <c r="H33" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="I33" s="96"/>
-      <c r="J33" s="97"/>
+      <c r="I33" s="99"/>
+      <c r="J33" s="100"/>
       <c r="K33" s="14"/>
       <c r="N33" s="13"/>
-      <c r="O33" s="65" t="s">
+      <c r="O33" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="P33" s="65"/>
-      <c r="Q33" s="65"/>
-      <c r="R33" s="65"/>
-      <c r="S33" s="65"/>
-      <c r="T33" s="65"/>
-      <c r="U33" s="65"/>
-      <c r="V33" s="65"/>
+      <c r="P33" s="68"/>
+      <c r="Q33" s="68"/>
+      <c r="R33" s="68"/>
+      <c r="S33" s="68"/>
+      <c r="T33" s="68"/>
+      <c r="U33" s="68"/>
+      <c r="V33" s="68"/>
       <c r="W33" s="14"/>
       <c r="X33" s="5"/>
       <c r="Z33" s="5"/>
-      <c r="AA33" s="77"/>
-      <c r="AB33" s="78"/>
-      <c r="AC33" s="78"/>
-      <c r="AD33" s="78"/>
-      <c r="AE33" s="78"/>
-      <c r="AF33" s="78"/>
-      <c r="AG33" s="78"/>
-      <c r="AH33" s="78"/>
-      <c r="AI33" s="78"/>
-      <c r="AJ33" s="78"/>
-      <c r="AK33" s="78"/>
-      <c r="AL33" s="78"/>
-      <c r="AM33" s="78"/>
-      <c r="AN33" s="78"/>
-      <c r="AO33" s="78"/>
-      <c r="AP33" s="78"/>
-      <c r="AQ33" s="78"/>
-      <c r="AR33" s="79"/>
+      <c r="AA33" s="80"/>
+      <c r="AB33" s="81"/>
+      <c r="AC33" s="81"/>
+      <c r="AD33" s="81"/>
+      <c r="AE33" s="81"/>
+      <c r="AF33" s="81"/>
+      <c r="AG33" s="81"/>
+      <c r="AH33" s="81"/>
+      <c r="AI33" s="81"/>
+      <c r="AJ33" s="81"/>
+      <c r="AK33" s="81"/>
+      <c r="AL33" s="81"/>
+      <c r="AM33" s="81"/>
+      <c r="AN33" s="81"/>
+      <c r="AO33" s="81"/>
+      <c r="AP33" s="81"/>
+      <c r="AQ33" s="81"/>
+      <c r="AR33" s="82"/>
       <c r="AS33" s="6"/>
       <c r="AT33" s="5"/>
       <c r="AU33" s="5"/>
@@ -4884,26 +4884,26 @@
     </row>
     <row r="34" spans="2:49" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="13"/>
-      <c r="C34" s="98"/>
-      <c r="D34" s="99"/>
-      <c r="E34" s="100"/>
+      <c r="C34" s="101"/>
+      <c r="D34" s="102"/>
+      <c r="E34" s="103"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
-      <c r="H34" s="98"/>
-      <c r="I34" s="99"/>
-      <c r="J34" s="100"/>
+      <c r="H34" s="101"/>
+      <c r="I34" s="102"/>
+      <c r="J34" s="103"/>
       <c r="K34" s="14"/>
       <c r="N34" s="13"/>
-      <c r="O34" s="65" t="s">
+      <c r="O34" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="P34" s="65"/>
-      <c r="Q34" s="65"/>
-      <c r="R34" s="65"/>
-      <c r="S34" s="65"/>
-      <c r="T34" s="65"/>
-      <c r="U34" s="65"/>
-      <c r="V34" s="65"/>
+      <c r="P34" s="68"/>
+      <c r="Q34" s="68"/>
+      <c r="R34" s="68"/>
+      <c r="S34" s="68"/>
+      <c r="T34" s="68"/>
+      <c r="U34" s="68"/>
+      <c r="V34" s="68"/>
       <c r="W34" s="14"/>
       <c r="X34" s="5"/>
       <c r="Z34" s="5"/>
@@ -4933,26 +4933,26 @@
     </row>
     <row r="35" spans="2:49" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="13"/>
-      <c r="C35" s="101"/>
-      <c r="D35" s="102"/>
-      <c r="E35" s="103"/>
+      <c r="C35" s="104"/>
+      <c r="D35" s="105"/>
+      <c r="E35" s="106"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
-      <c r="H35" s="101"/>
-      <c r="I35" s="102"/>
-      <c r="J35" s="103"/>
+      <c r="H35" s="104"/>
+      <c r="I35" s="105"/>
+      <c r="J35" s="106"/>
       <c r="K35" s="14"/>
       <c r="N35" s="13"/>
-      <c r="O35" s="65" t="s">
+      <c r="O35" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="P35" s="65"/>
-      <c r="Q35" s="65"/>
-      <c r="R35" s="65"/>
-      <c r="S35" s="65"/>
-      <c r="T35" s="65"/>
-      <c r="U35" s="65"/>
-      <c r="V35" s="65"/>
+      <c r="P35" s="68"/>
+      <c r="Q35" s="68"/>
+      <c r="R35" s="68"/>
+      <c r="S35" s="68"/>
+      <c r="T35" s="68"/>
+      <c r="U35" s="68"/>
+      <c r="V35" s="68"/>
       <c r="W35" s="14"/>
       <c r="X35" s="5"/>
       <c r="Z35" s="5"/>
@@ -5307,7 +5307,7 @@
   <dimension ref="A1:CJ35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="BC1" sqref="BC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -5317,41 +5317,66 @@
     <col min="89" max="16384" width="9.140625" style="25" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:87" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:87" x14ac:dyDescent="0.25">
       <c r="B1" s="25">
         <v>1</v>
       </c>
-      <c r="C1" s="173" t="s">
+      <c r="C1" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="174">
+      <c r="D1" s="58">
         <v>23</v>
       </c>
+      <c r="F1" s="175">
+        <f>4*D1</f>
+        <v>92</v>
+      </c>
+      <c r="G1" s="175"/>
+      <c r="M1" s="175">
+        <f>15*D1</f>
+        <v>345</v>
+      </c>
+      <c r="N1" s="175"/>
+      <c r="P1" s="175">
+        <f>17*D1+28</f>
+        <v>419</v>
+      </c>
+      <c r="Q1" s="175"/>
       <c r="U1" s="175">
-        <f>(COUNTBLANK(C2:AQ2)/B1)*D1</f>
-        <v>943</v>
+        <f>F1+M1+AC1</f>
+        <v>897</v>
       </c>
       <c r="V1" s="175"/>
       <c r="W1" s="175"/>
-      <c r="AC1" s="25">
-        <f>350/15</f>
-        <v>23.333333333333332</v>
-      </c>
+      <c r="AC1" s="175">
+        <f>20*D1</f>
+        <v>460</v>
+      </c>
+      <c r="AD1" s="175"/>
+      <c r="AX1" s="175">
+        <f>12*D1</f>
+        <v>276</v>
+      </c>
+      <c r="AY1" s="175"/>
     </row>
-    <row r="2" spans="2:87" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="172"/>
+    <row r="2" spans="1:87" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="56"/>
     </row>
-    <row r="3" spans="2:87" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="A3" s="25">
+        <f>3*D1</f>
+        <v>69</v>
+      </c>
       <c r="C3" s="28"/>
       <c r="D3" s="31"/>
       <c r="E3" s="32"/>
       <c r="F3" s="32"/>
       <c r="G3" s="33"/>
-      <c r="H3" s="72" t="s">
+      <c r="H3" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="73"/>
-      <c r="J3" s="142"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="145"/>
       <c r="K3" s="32"/>
       <c r="L3" s="32"/>
       <c r="M3" s="32"/>
@@ -5364,28 +5389,28 @@
       <c r="T3" s="32"/>
       <c r="U3" s="32"/>
       <c r="V3" s="33"/>
-      <c r="W3" s="169" t="s">
+      <c r="W3" s="172" t="s">
         <v>25</v>
       </c>
-      <c r="X3" s="170"/>
-      <c r="Y3" s="170"/>
-      <c r="Z3" s="170"/>
-      <c r="AA3" s="170"/>
-      <c r="AB3" s="170"/>
-      <c r="AC3" s="170"/>
-      <c r="AD3" s="170"/>
-      <c r="AE3" s="170"/>
-      <c r="AF3" s="170"/>
-      <c r="AG3" s="170"/>
-      <c r="AH3" s="170"/>
-      <c r="AI3" s="170"/>
-      <c r="AJ3" s="170"/>
-      <c r="AK3" s="170"/>
-      <c r="AL3" s="170"/>
-      <c r="AM3" s="170"/>
-      <c r="AN3" s="170"/>
-      <c r="AO3" s="170"/>
-      <c r="AP3" s="171"/>
+      <c r="X3" s="173"/>
+      <c r="Y3" s="173"/>
+      <c r="Z3" s="173"/>
+      <c r="AA3" s="173"/>
+      <c r="AB3" s="173"/>
+      <c r="AC3" s="173"/>
+      <c r="AD3" s="173"/>
+      <c r="AE3" s="173"/>
+      <c r="AF3" s="173"/>
+      <c r="AG3" s="173"/>
+      <c r="AH3" s="173"/>
+      <c r="AI3" s="173"/>
+      <c r="AJ3" s="173"/>
+      <c r="AK3" s="173"/>
+      <c r="AL3" s="173"/>
+      <c r="AM3" s="173"/>
+      <c r="AN3" s="173"/>
+      <c r="AO3" s="173"/>
+      <c r="AP3" s="174"/>
       <c r="AQ3" s="44"/>
       <c r="AU3" s="49"/>
       <c r="AV3" s="50"/>
@@ -5409,11 +5434,11 @@
       <c r="BN3" s="51"/>
       <c r="BO3" s="44"/>
       <c r="BS3" s="41"/>
-      <c r="BT3" s="72" t="s">
+      <c r="BT3" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="BU3" s="73"/>
-      <c r="BV3" s="142"/>
+      <c r="BU3" s="76"/>
+      <c r="BV3" s="145"/>
       <c r="BW3" s="32"/>
       <c r="BX3" s="32"/>
       <c r="BY3" s="32"/>
@@ -5428,15 +5453,19 @@
       <c r="CH3" s="33"/>
       <c r="CI3" s="44"/>
     </row>
-    <row r="4" spans="2:87" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="A4" s="25">
+        <f>15*D1-10</f>
+        <v>335</v>
+      </c>
       <c r="C4" s="29"/>
       <c r="D4" s="34"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="58"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="61"/>
       <c r="G4" s="35"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="61"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="64"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1" t="s">
         <v>30</v>
@@ -5451,26 +5480,26 @@
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="35"/>
-      <c r="W4" s="162"/>
-      <c r="X4" s="163"/>
-      <c r="Y4" s="163"/>
-      <c r="Z4" s="163"/>
-      <c r="AA4" s="163"/>
-      <c r="AB4" s="163"/>
-      <c r="AC4" s="163"/>
-      <c r="AD4" s="163"/>
-      <c r="AE4" s="163"/>
-      <c r="AF4" s="163"/>
-      <c r="AG4" s="163"/>
-      <c r="AH4" s="163"/>
-      <c r="AI4" s="163"/>
-      <c r="AJ4" s="163"/>
-      <c r="AK4" s="163"/>
-      <c r="AL4" s="163"/>
-      <c r="AM4" s="163"/>
-      <c r="AN4" s="163"/>
-      <c r="AO4" s="163"/>
-      <c r="AP4" s="164"/>
+      <c r="W4" s="165"/>
+      <c r="X4" s="166"/>
+      <c r="Y4" s="166"/>
+      <c r="Z4" s="166"/>
+      <c r="AA4" s="166"/>
+      <c r="AB4" s="166"/>
+      <c r="AC4" s="166"/>
+      <c r="AD4" s="166"/>
+      <c r="AE4" s="166"/>
+      <c r="AF4" s="166"/>
+      <c r="AG4" s="166"/>
+      <c r="AH4" s="166"/>
+      <c r="AI4" s="166"/>
+      <c r="AJ4" s="166"/>
+      <c r="AK4" s="166"/>
+      <c r="AL4" s="166"/>
+      <c r="AM4" s="166"/>
+      <c r="AN4" s="166"/>
+      <c r="AO4" s="166"/>
+      <c r="AP4" s="167"/>
       <c r="AQ4" s="39"/>
       <c r="AU4" s="47"/>
       <c r="AV4" s="6"/>
@@ -5494,9 +5523,9 @@
       <c r="BN4" s="48"/>
       <c r="BO4" s="39"/>
       <c r="BS4" s="42"/>
-      <c r="BT4" s="75"/>
-      <c r="BU4" s="60"/>
-      <c r="BV4" s="61"/>
+      <c r="BT4" s="78"/>
+      <c r="BU4" s="63"/>
+      <c r="BV4" s="64"/>
       <c r="BW4" s="1"/>
       <c r="BX4" s="1" t="s">
         <v>30</v>
@@ -5513,15 +5542,15 @@
       <c r="CH4" s="35"/>
       <c r="CI4" s="39"/>
     </row>
-    <row r="5" spans="2:87" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:87" x14ac:dyDescent="0.25">
       <c r="C5" s="29"/>
       <c r="D5" s="34"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="64"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="67"/>
       <c r="G5" s="35"/>
-      <c r="H5" s="143"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="64"/>
+      <c r="H5" s="146"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="67"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
@@ -5534,43 +5563,43 @@
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
       <c r="V5" s="4"/>
-      <c r="W5" s="165"/>
-      <c r="X5" s="166"/>
-      <c r="Y5" s="166"/>
-      <c r="Z5" s="166"/>
-      <c r="AA5" s="166"/>
-      <c r="AB5" s="166"/>
-      <c r="AC5" s="166"/>
-      <c r="AD5" s="166"/>
-      <c r="AE5" s="166"/>
-      <c r="AF5" s="166"/>
-      <c r="AG5" s="166"/>
-      <c r="AH5" s="166"/>
-      <c r="AI5" s="166"/>
-      <c r="AJ5" s="166"/>
-      <c r="AK5" s="166"/>
-      <c r="AL5" s="166"/>
-      <c r="AM5" s="166"/>
-      <c r="AN5" s="166"/>
-      <c r="AO5" s="166"/>
-      <c r="AP5" s="167"/>
+      <c r="W5" s="168"/>
+      <c r="X5" s="169"/>
+      <c r="Y5" s="169"/>
+      <c r="Z5" s="169"/>
+      <c r="AA5" s="169"/>
+      <c r="AB5" s="169"/>
+      <c r="AC5" s="169"/>
+      <c r="AD5" s="169"/>
+      <c r="AE5" s="169"/>
+      <c r="AF5" s="169"/>
+      <c r="AG5" s="169"/>
+      <c r="AH5" s="169"/>
+      <c r="AI5" s="169"/>
+      <c r="AJ5" s="169"/>
+      <c r="AK5" s="169"/>
+      <c r="AL5" s="169"/>
+      <c r="AM5" s="169"/>
+      <c r="AN5" s="169"/>
+      <c r="AO5" s="169"/>
+      <c r="AP5" s="170"/>
       <c r="AQ5" s="39"/>
       <c r="AU5" s="47"/>
       <c r="AV5" s="6"/>
-      <c r="AW5" s="95" t="s">
+      <c r="AW5" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="AX5" s="96"/>
-      <c r="AY5" s="96"/>
-      <c r="AZ5" s="96"/>
-      <c r="BA5" s="96"/>
-      <c r="BB5" s="96"/>
-      <c r="BC5" s="96"/>
-      <c r="BD5" s="96"/>
-      <c r="BE5" s="96"/>
-      <c r="BF5" s="96"/>
-      <c r="BG5" s="96"/>
-      <c r="BH5" s="97"/>
+      <c r="AX5" s="99"/>
+      <c r="AY5" s="99"/>
+      <c r="AZ5" s="99"/>
+      <c r="BA5" s="99"/>
+      <c r="BB5" s="99"/>
+      <c r="BC5" s="99"/>
+      <c r="BD5" s="99"/>
+      <c r="BE5" s="99"/>
+      <c r="BF5" s="99"/>
+      <c r="BG5" s="99"/>
+      <c r="BH5" s="100"/>
       <c r="BI5" s="6"/>
       <c r="BJ5" s="6"/>
       <c r="BK5" s="6"/>
@@ -5579,9 +5608,9 @@
       <c r="BN5" s="48"/>
       <c r="BO5" s="39"/>
       <c r="BS5" s="42"/>
-      <c r="BT5" s="143"/>
-      <c r="BU5" s="63"/>
-      <c r="BV5" s="64"/>
+      <c r="BT5" s="146"/>
+      <c r="BU5" s="66"/>
+      <c r="BV5" s="67"/>
       <c r="BW5" s="2"/>
       <c r="BX5" s="2"/>
       <c r="BY5" s="2"/>
@@ -5596,18 +5625,18 @@
       <c r="CH5" s="4"/>
       <c r="CI5" s="39"/>
     </row>
-    <row r="6" spans="2:87" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:87" x14ac:dyDescent="0.25">
       <c r="C6" s="29"/>
       <c r="D6" s="34"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="35"/>
-      <c r="H6" s="113" t="s">
+      <c r="H6" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="58"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="61"/>
       <c r="L6" s="43"/>
       <c r="M6" s="43"/>
       <c r="N6" s="43"/>
@@ -5618,44 +5647,44 @@
       <c r="S6" s="43"/>
       <c r="T6" s="43"/>
       <c r="U6" s="44"/>
-      <c r="V6" s="144"/>
-      <c r="W6" s="150" t="s">
+      <c r="V6" s="147"/>
+      <c r="W6" s="153" t="s">
         <v>24</v>
       </c>
-      <c r="X6" s="151"/>
-      <c r="Y6" s="151"/>
-      <c r="Z6" s="151"/>
-      <c r="AA6" s="151"/>
-      <c r="AB6" s="151"/>
-      <c r="AC6" s="151"/>
-      <c r="AD6" s="151"/>
-      <c r="AE6" s="151"/>
-      <c r="AF6" s="151"/>
-      <c r="AG6" s="151"/>
-      <c r="AH6" s="151"/>
-      <c r="AI6" s="151"/>
-      <c r="AJ6" s="151"/>
-      <c r="AK6" s="151"/>
-      <c r="AL6" s="151"/>
-      <c r="AM6" s="151"/>
-      <c r="AN6" s="151"/>
-      <c r="AO6" s="151"/>
-      <c r="AP6" s="152"/>
+      <c r="X6" s="154"/>
+      <c r="Y6" s="154"/>
+      <c r="Z6" s="154"/>
+      <c r="AA6" s="154"/>
+      <c r="AB6" s="154"/>
+      <c r="AC6" s="154"/>
+      <c r="AD6" s="154"/>
+      <c r="AE6" s="154"/>
+      <c r="AF6" s="154"/>
+      <c r="AG6" s="154"/>
+      <c r="AH6" s="154"/>
+      <c r="AI6" s="154"/>
+      <c r="AJ6" s="154"/>
+      <c r="AK6" s="154"/>
+      <c r="AL6" s="154"/>
+      <c r="AM6" s="154"/>
+      <c r="AN6" s="154"/>
+      <c r="AO6" s="154"/>
+      <c r="AP6" s="155"/>
       <c r="AQ6" s="39"/>
       <c r="AU6" s="47"/>
       <c r="AV6" s="6"/>
-      <c r="AW6" s="98"/>
-      <c r="AX6" s="99"/>
-      <c r="AY6" s="99"/>
-      <c r="AZ6" s="99"/>
-      <c r="BA6" s="99"/>
-      <c r="BB6" s="99"/>
-      <c r="BC6" s="99"/>
-      <c r="BD6" s="99"/>
-      <c r="BE6" s="99"/>
-      <c r="BF6" s="99"/>
-      <c r="BG6" s="99"/>
-      <c r="BH6" s="100"/>
+      <c r="AW6" s="101"/>
+      <c r="AX6" s="102"/>
+      <c r="AY6" s="102"/>
+      <c r="AZ6" s="102"/>
+      <c r="BA6" s="102"/>
+      <c r="BB6" s="102"/>
+      <c r="BC6" s="102"/>
+      <c r="BD6" s="102"/>
+      <c r="BE6" s="102"/>
+      <c r="BF6" s="102"/>
+      <c r="BG6" s="102"/>
+      <c r="BH6" s="103"/>
       <c r="BI6" s="6"/>
       <c r="BJ6" s="6"/>
       <c r="BK6" s="6"/>
@@ -5664,12 +5693,12 @@
       <c r="BN6" s="48"/>
       <c r="BO6" s="39"/>
       <c r="BS6" s="42"/>
-      <c r="BT6" s="113" t="s">
+      <c r="BT6" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="BU6" s="57"/>
-      <c r="BV6" s="57"/>
-      <c r="BW6" s="58"/>
+      <c r="BU6" s="60"/>
+      <c r="BV6" s="60"/>
+      <c r="BW6" s="61"/>
       <c r="BX6" s="43"/>
       <c r="BY6" s="43"/>
       <c r="BZ6" s="43"/>
@@ -5680,19 +5709,19 @@
       <c r="CE6" s="43"/>
       <c r="CF6" s="43"/>
       <c r="CG6" s="44"/>
-      <c r="CH6" s="144"/>
+      <c r="CH6" s="147"/>
       <c r="CI6" s="39"/>
     </row>
-    <row r="7" spans="2:87" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:87" x14ac:dyDescent="0.25">
       <c r="C7" s="29"/>
       <c r="D7" s="34"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="58"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="61"/>
       <c r="G7" s="35"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="61"/>
+      <c r="H7" s="78"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="64"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1" t="s">
         <v>8</v>
@@ -5705,42 +5734,42 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
       <c r="U7" s="39"/>
-      <c r="V7" s="145"/>
-      <c r="W7" s="153"/>
-      <c r="X7" s="154"/>
-      <c r="Y7" s="154"/>
-      <c r="Z7" s="154"/>
-      <c r="AA7" s="154"/>
-      <c r="AB7" s="154"/>
-      <c r="AC7" s="154"/>
-      <c r="AD7" s="154"/>
-      <c r="AE7" s="154"/>
-      <c r="AF7" s="154"/>
-      <c r="AG7" s="154"/>
-      <c r="AH7" s="154"/>
-      <c r="AI7" s="154"/>
-      <c r="AJ7" s="154"/>
-      <c r="AK7" s="154"/>
-      <c r="AL7" s="154"/>
-      <c r="AM7" s="154"/>
-      <c r="AN7" s="154"/>
-      <c r="AO7" s="154"/>
-      <c r="AP7" s="155"/>
+      <c r="V7" s="148"/>
+      <c r="W7" s="156"/>
+      <c r="X7" s="157"/>
+      <c r="Y7" s="157"/>
+      <c r="Z7" s="157"/>
+      <c r="AA7" s="157"/>
+      <c r="AB7" s="157"/>
+      <c r="AC7" s="157"/>
+      <c r="AD7" s="157"/>
+      <c r="AE7" s="157"/>
+      <c r="AF7" s="157"/>
+      <c r="AG7" s="157"/>
+      <c r="AH7" s="157"/>
+      <c r="AI7" s="157"/>
+      <c r="AJ7" s="157"/>
+      <c r="AK7" s="157"/>
+      <c r="AL7" s="157"/>
+      <c r="AM7" s="157"/>
+      <c r="AN7" s="157"/>
+      <c r="AO7" s="157"/>
+      <c r="AP7" s="158"/>
       <c r="AQ7" s="39"/>
       <c r="AU7" s="47"/>
       <c r="AV7" s="6"/>
-      <c r="AW7" s="98"/>
-      <c r="AX7" s="99"/>
-      <c r="AY7" s="99"/>
-      <c r="AZ7" s="99"/>
-      <c r="BA7" s="99"/>
-      <c r="BB7" s="99"/>
-      <c r="BC7" s="99"/>
-      <c r="BD7" s="99"/>
-      <c r="BE7" s="99"/>
-      <c r="BF7" s="99"/>
-      <c r="BG7" s="99"/>
-      <c r="BH7" s="100"/>
+      <c r="AW7" s="101"/>
+      <c r="AX7" s="102"/>
+      <c r="AY7" s="102"/>
+      <c r="AZ7" s="102"/>
+      <c r="BA7" s="102"/>
+      <c r="BB7" s="102"/>
+      <c r="BC7" s="102"/>
+      <c r="BD7" s="102"/>
+      <c r="BE7" s="102"/>
+      <c r="BF7" s="102"/>
+      <c r="BG7" s="102"/>
+      <c r="BH7" s="103"/>
       <c r="BI7" s="6"/>
       <c r="BJ7" s="6"/>
       <c r="BK7" s="6"/>
@@ -5749,10 +5778,10 @@
       <c r="BN7" s="48"/>
       <c r="BO7" s="39"/>
       <c r="BS7" s="42"/>
-      <c r="BT7" s="75"/>
-      <c r="BU7" s="60"/>
-      <c r="BV7" s="60"/>
-      <c r="BW7" s="61"/>
+      <c r="BT7" s="78"/>
+      <c r="BU7" s="63"/>
+      <c r="BV7" s="63"/>
+      <c r="BW7" s="64"/>
       <c r="BX7" s="1"/>
       <c r="BY7" s="1" t="s">
         <v>8</v>
@@ -5765,19 +5794,19 @@
       <c r="CE7" s="1"/>
       <c r="CF7" s="1"/>
       <c r="CG7" s="39"/>
-      <c r="CH7" s="145"/>
+      <c r="CH7" s="148"/>
       <c r="CI7" s="39"/>
     </row>
-    <row r="8" spans="2:87" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:87" x14ac:dyDescent="0.25">
       <c r="C8" s="29"/>
       <c r="D8" s="34"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="64"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="67"/>
       <c r="G8" s="35"/>
-      <c r="H8" s="75"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="61"/>
+      <c r="H8" s="78"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="64"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -5788,42 +5817,42 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
       <c r="U8" s="39"/>
-      <c r="V8" s="145"/>
-      <c r="W8" s="156"/>
-      <c r="X8" s="157"/>
-      <c r="Y8" s="157"/>
-      <c r="Z8" s="157"/>
-      <c r="AA8" s="157"/>
-      <c r="AB8" s="157"/>
-      <c r="AC8" s="157"/>
-      <c r="AD8" s="157"/>
-      <c r="AE8" s="157"/>
-      <c r="AF8" s="157"/>
-      <c r="AG8" s="157"/>
-      <c r="AH8" s="157"/>
-      <c r="AI8" s="157"/>
-      <c r="AJ8" s="157"/>
-      <c r="AK8" s="157"/>
-      <c r="AL8" s="157"/>
-      <c r="AM8" s="157"/>
-      <c r="AN8" s="157"/>
-      <c r="AO8" s="157"/>
-      <c r="AP8" s="158"/>
+      <c r="V8" s="148"/>
+      <c r="W8" s="159"/>
+      <c r="X8" s="160"/>
+      <c r="Y8" s="160"/>
+      <c r="Z8" s="160"/>
+      <c r="AA8" s="160"/>
+      <c r="AB8" s="160"/>
+      <c r="AC8" s="160"/>
+      <c r="AD8" s="160"/>
+      <c r="AE8" s="160"/>
+      <c r="AF8" s="160"/>
+      <c r="AG8" s="160"/>
+      <c r="AH8" s="160"/>
+      <c r="AI8" s="160"/>
+      <c r="AJ8" s="160"/>
+      <c r="AK8" s="160"/>
+      <c r="AL8" s="160"/>
+      <c r="AM8" s="160"/>
+      <c r="AN8" s="160"/>
+      <c r="AO8" s="160"/>
+      <c r="AP8" s="161"/>
       <c r="AQ8" s="39"/>
       <c r="AU8" s="47"/>
       <c r="AV8" s="6"/>
-      <c r="AW8" s="98"/>
-      <c r="AX8" s="99"/>
-      <c r="AY8" s="99"/>
-      <c r="AZ8" s="99"/>
-      <c r="BA8" s="99"/>
-      <c r="BB8" s="99"/>
-      <c r="BC8" s="99"/>
-      <c r="BD8" s="99"/>
-      <c r="BE8" s="99"/>
-      <c r="BF8" s="99"/>
-      <c r="BG8" s="99"/>
-      <c r="BH8" s="100"/>
+      <c r="AW8" s="101"/>
+      <c r="AX8" s="102"/>
+      <c r="AY8" s="102"/>
+      <c r="AZ8" s="102"/>
+      <c r="BA8" s="102"/>
+      <c r="BB8" s="102"/>
+      <c r="BC8" s="102"/>
+      <c r="BD8" s="102"/>
+      <c r="BE8" s="102"/>
+      <c r="BF8" s="102"/>
+      <c r="BG8" s="102"/>
+      <c r="BH8" s="103"/>
       <c r="BI8" s="6"/>
       <c r="BJ8" s="6"/>
       <c r="BK8" s="6"/>
@@ -5832,10 +5861,10 @@
       <c r="BN8" s="48"/>
       <c r="BO8" s="39"/>
       <c r="BS8" s="42"/>
-      <c r="BT8" s="75"/>
-      <c r="BU8" s="60"/>
-      <c r="BV8" s="60"/>
-      <c r="BW8" s="61"/>
+      <c r="BT8" s="78"/>
+      <c r="BU8" s="63"/>
+      <c r="BV8" s="63"/>
+      <c r="BW8" s="64"/>
       <c r="BX8" s="1"/>
       <c r="BY8" s="1"/>
       <c r="BZ8" s="1"/>
@@ -5846,19 +5875,19 @@
       <c r="CE8" s="1"/>
       <c r="CF8" s="1"/>
       <c r="CG8" s="39"/>
-      <c r="CH8" s="145"/>
+      <c r="CH8" s="148"/>
       <c r="CI8" s="39"/>
     </row>
-    <row r="9" spans="2:87" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:87" x14ac:dyDescent="0.25">
       <c r="C9" s="29"/>
       <c r="D9" s="34"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="35"/>
-      <c r="H9" s="143"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="63"/>
-      <c r="K9" s="64"/>
+      <c r="H9" s="146"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="67"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -5869,44 +5898,44 @@
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
       <c r="U9" s="40"/>
-      <c r="V9" s="145"/>
-      <c r="W9" s="159" t="s">
+      <c r="V9" s="148"/>
+      <c r="W9" s="162" t="s">
         <v>25</v>
       </c>
-      <c r="X9" s="160"/>
-      <c r="Y9" s="160"/>
-      <c r="Z9" s="160"/>
-      <c r="AA9" s="160"/>
-      <c r="AB9" s="160"/>
-      <c r="AC9" s="160"/>
-      <c r="AD9" s="160"/>
-      <c r="AE9" s="160"/>
-      <c r="AF9" s="160"/>
-      <c r="AG9" s="160"/>
-      <c r="AH9" s="160"/>
-      <c r="AI9" s="160"/>
-      <c r="AJ9" s="160"/>
-      <c r="AK9" s="160"/>
-      <c r="AL9" s="160"/>
-      <c r="AM9" s="160"/>
-      <c r="AN9" s="160"/>
-      <c r="AO9" s="160"/>
-      <c r="AP9" s="161"/>
+      <c r="X9" s="163"/>
+      <c r="Y9" s="163"/>
+      <c r="Z9" s="163"/>
+      <c r="AA9" s="163"/>
+      <c r="AB9" s="163"/>
+      <c r="AC9" s="163"/>
+      <c r="AD9" s="163"/>
+      <c r="AE9" s="163"/>
+      <c r="AF9" s="163"/>
+      <c r="AG9" s="163"/>
+      <c r="AH9" s="163"/>
+      <c r="AI9" s="163"/>
+      <c r="AJ9" s="163"/>
+      <c r="AK9" s="163"/>
+      <c r="AL9" s="163"/>
+      <c r="AM9" s="163"/>
+      <c r="AN9" s="163"/>
+      <c r="AO9" s="163"/>
+      <c r="AP9" s="164"/>
       <c r="AQ9" s="39"/>
       <c r="AU9" s="47"/>
       <c r="AV9" s="6"/>
-      <c r="AW9" s="98"/>
-      <c r="AX9" s="99"/>
-      <c r="AY9" s="99"/>
-      <c r="AZ9" s="99"/>
-      <c r="BA9" s="99"/>
-      <c r="BB9" s="99"/>
-      <c r="BC9" s="99"/>
-      <c r="BD9" s="99"/>
-      <c r="BE9" s="99"/>
-      <c r="BF9" s="99"/>
-      <c r="BG9" s="99"/>
-      <c r="BH9" s="100"/>
+      <c r="AW9" s="101"/>
+      <c r="AX9" s="102"/>
+      <c r="AY9" s="102"/>
+      <c r="AZ9" s="102"/>
+      <c r="BA9" s="102"/>
+      <c r="BB9" s="102"/>
+      <c r="BC9" s="102"/>
+      <c r="BD9" s="102"/>
+      <c r="BE9" s="102"/>
+      <c r="BF9" s="102"/>
+      <c r="BG9" s="102"/>
+      <c r="BH9" s="103"/>
       <c r="BI9" s="6"/>
       <c r="BJ9" s="6"/>
       <c r="BK9" s="6"/>
@@ -5915,10 +5944,10 @@
       <c r="BN9" s="48"/>
       <c r="BO9" s="39"/>
       <c r="BS9" s="42"/>
-      <c r="BT9" s="143"/>
-      <c r="BU9" s="63"/>
-      <c r="BV9" s="63"/>
-      <c r="BW9" s="64"/>
+      <c r="BT9" s="146"/>
+      <c r="BU9" s="66"/>
+      <c r="BV9" s="66"/>
+      <c r="BW9" s="67"/>
       <c r="BX9" s="2"/>
       <c r="BY9" s="2"/>
       <c r="BZ9" s="2"/>
@@ -5929,21 +5958,21 @@
       <c r="CE9" s="2"/>
       <c r="CF9" s="2"/>
       <c r="CG9" s="40"/>
-      <c r="CH9" s="145"/>
+      <c r="CH9" s="148"/>
       <c r="CI9" s="39"/>
     </row>
-    <row r="10" spans="2:87" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:87" x14ac:dyDescent="0.25">
       <c r="C10" s="29"/>
       <c r="D10" s="34"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="35"/>
-      <c r="H10" s="113" t="s">
+      <c r="H10" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="57"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="58"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="61"/>
       <c r="L10" s="43"/>
       <c r="M10" s="43"/>
       <c r="N10" s="43"/>
@@ -5954,42 +5983,42 @@
       <c r="S10" s="43"/>
       <c r="T10" s="43"/>
       <c r="U10" s="44"/>
-      <c r="V10" s="145"/>
-      <c r="W10" s="162"/>
-      <c r="X10" s="163"/>
-      <c r="Y10" s="163"/>
-      <c r="Z10" s="163"/>
-      <c r="AA10" s="163"/>
-      <c r="AB10" s="163"/>
-      <c r="AC10" s="163"/>
-      <c r="AD10" s="163"/>
-      <c r="AE10" s="163"/>
-      <c r="AF10" s="163"/>
-      <c r="AG10" s="163"/>
-      <c r="AH10" s="163"/>
-      <c r="AI10" s="163"/>
-      <c r="AJ10" s="163"/>
-      <c r="AK10" s="163"/>
-      <c r="AL10" s="163"/>
-      <c r="AM10" s="163"/>
-      <c r="AN10" s="163"/>
-      <c r="AO10" s="163"/>
-      <c r="AP10" s="164"/>
+      <c r="V10" s="148"/>
+      <c r="W10" s="165"/>
+      <c r="X10" s="166"/>
+      <c r="Y10" s="166"/>
+      <c r="Z10" s="166"/>
+      <c r="AA10" s="166"/>
+      <c r="AB10" s="166"/>
+      <c r="AC10" s="166"/>
+      <c r="AD10" s="166"/>
+      <c r="AE10" s="166"/>
+      <c r="AF10" s="166"/>
+      <c r="AG10" s="166"/>
+      <c r="AH10" s="166"/>
+      <c r="AI10" s="166"/>
+      <c r="AJ10" s="166"/>
+      <c r="AK10" s="166"/>
+      <c r="AL10" s="166"/>
+      <c r="AM10" s="166"/>
+      <c r="AN10" s="166"/>
+      <c r="AO10" s="166"/>
+      <c r="AP10" s="167"/>
       <c r="AQ10" s="39"/>
       <c r="AU10" s="47"/>
       <c r="AV10" s="6"/>
-      <c r="AW10" s="98"/>
-      <c r="AX10" s="99"/>
-      <c r="AY10" s="99"/>
-      <c r="AZ10" s="99"/>
-      <c r="BA10" s="99"/>
-      <c r="BB10" s="99"/>
-      <c r="BC10" s="99"/>
-      <c r="BD10" s="99"/>
-      <c r="BE10" s="99"/>
-      <c r="BF10" s="99"/>
-      <c r="BG10" s="99"/>
-      <c r="BH10" s="100"/>
+      <c r="AW10" s="101"/>
+      <c r="AX10" s="102"/>
+      <c r="AY10" s="102"/>
+      <c r="AZ10" s="102"/>
+      <c r="BA10" s="102"/>
+      <c r="BB10" s="102"/>
+      <c r="BC10" s="102"/>
+      <c r="BD10" s="102"/>
+      <c r="BE10" s="102"/>
+      <c r="BF10" s="102"/>
+      <c r="BG10" s="102"/>
+      <c r="BH10" s="103"/>
       <c r="BI10" s="6"/>
       <c r="BJ10" s="6"/>
       <c r="BK10" s="6"/>
@@ -5998,12 +6027,12 @@
       <c r="BN10" s="48"/>
       <c r="BO10" s="39"/>
       <c r="BS10" s="42"/>
-      <c r="BT10" s="113" t="s">
+      <c r="BT10" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="BU10" s="57"/>
-      <c r="BV10" s="57"/>
-      <c r="BW10" s="58"/>
+      <c r="BU10" s="60"/>
+      <c r="BV10" s="60"/>
+      <c r="BW10" s="61"/>
       <c r="BX10" s="43"/>
       <c r="BY10" s="43"/>
       <c r="BZ10" s="43"/>
@@ -6014,19 +6043,19 @@
       <c r="CE10" s="43"/>
       <c r="CF10" s="43"/>
       <c r="CG10" s="44"/>
-      <c r="CH10" s="145"/>
+      <c r="CH10" s="148"/>
       <c r="CI10" s="39"/>
     </row>
-    <row r="11" spans="2:87" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:87" x14ac:dyDescent="0.25">
       <c r="C11" s="29"/>
       <c r="D11" s="34"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="35"/>
-      <c r="H11" s="75"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="60"/>
-      <c r="K11" s="61"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="64"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1" t="s">
         <v>8</v>
@@ -6039,42 +6068,42 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
       <c r="U11" s="39"/>
-      <c r="V11" s="145"/>
-      <c r="W11" s="165"/>
-      <c r="X11" s="166"/>
-      <c r="Y11" s="166"/>
-      <c r="Z11" s="166"/>
-      <c r="AA11" s="166"/>
-      <c r="AB11" s="166"/>
-      <c r="AC11" s="166"/>
-      <c r="AD11" s="166"/>
-      <c r="AE11" s="166"/>
-      <c r="AF11" s="166"/>
-      <c r="AG11" s="166"/>
-      <c r="AH11" s="166"/>
-      <c r="AI11" s="166"/>
-      <c r="AJ11" s="166"/>
-      <c r="AK11" s="166"/>
-      <c r="AL11" s="166"/>
-      <c r="AM11" s="166"/>
-      <c r="AN11" s="166"/>
-      <c r="AO11" s="166"/>
-      <c r="AP11" s="167"/>
+      <c r="V11" s="148"/>
+      <c r="W11" s="168"/>
+      <c r="X11" s="169"/>
+      <c r="Y11" s="169"/>
+      <c r="Z11" s="169"/>
+      <c r="AA11" s="169"/>
+      <c r="AB11" s="169"/>
+      <c r="AC11" s="169"/>
+      <c r="AD11" s="169"/>
+      <c r="AE11" s="169"/>
+      <c r="AF11" s="169"/>
+      <c r="AG11" s="169"/>
+      <c r="AH11" s="169"/>
+      <c r="AI11" s="169"/>
+      <c r="AJ11" s="169"/>
+      <c r="AK11" s="169"/>
+      <c r="AL11" s="169"/>
+      <c r="AM11" s="169"/>
+      <c r="AN11" s="169"/>
+      <c r="AO11" s="169"/>
+      <c r="AP11" s="170"/>
       <c r="AQ11" s="39"/>
       <c r="AU11" s="47"/>
       <c r="AV11" s="6"/>
-      <c r="AW11" s="98"/>
-      <c r="AX11" s="99"/>
-      <c r="AY11" s="99"/>
-      <c r="AZ11" s="99"/>
-      <c r="BA11" s="99"/>
-      <c r="BB11" s="99"/>
-      <c r="BC11" s="99"/>
-      <c r="BD11" s="99"/>
-      <c r="BE11" s="99"/>
-      <c r="BF11" s="99"/>
-      <c r="BG11" s="99"/>
-      <c r="BH11" s="100"/>
+      <c r="AW11" s="101"/>
+      <c r="AX11" s="102"/>
+      <c r="AY11" s="102"/>
+      <c r="AZ11" s="102"/>
+      <c r="BA11" s="102"/>
+      <c r="BB11" s="102"/>
+      <c r="BC11" s="102"/>
+      <c r="BD11" s="102"/>
+      <c r="BE11" s="102"/>
+      <c r="BF11" s="102"/>
+      <c r="BG11" s="102"/>
+      <c r="BH11" s="103"/>
       <c r="BI11" s="6"/>
       <c r="BJ11" s="6"/>
       <c r="BK11" s="6"/>
@@ -6083,10 +6112,10 @@
       <c r="BN11" s="48"/>
       <c r="BO11" s="39"/>
       <c r="BS11" s="42"/>
-      <c r="BT11" s="75"/>
-      <c r="BU11" s="60"/>
-      <c r="BV11" s="60"/>
-      <c r="BW11" s="61"/>
+      <c r="BT11" s="78"/>
+      <c r="BU11" s="63"/>
+      <c r="BV11" s="63"/>
+      <c r="BW11" s="64"/>
       <c r="BX11" s="1"/>
       <c r="BY11" s="1" t="s">
         <v>8</v>
@@ -6099,19 +6128,19 @@
       <c r="CE11" s="1"/>
       <c r="CF11" s="1"/>
       <c r="CG11" s="39"/>
-      <c r="CH11" s="145"/>
+      <c r="CH11" s="148"/>
       <c r="CI11" s="39"/>
     </row>
-    <row r="12" spans="2:87" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:87" x14ac:dyDescent="0.25">
       <c r="C12" s="29"/>
       <c r="D12" s="34"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="35"/>
-      <c r="H12" s="75"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="61"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="64"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -6122,44 +6151,44 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
       <c r="U12" s="39"/>
-      <c r="V12" s="145"/>
-      <c r="W12" s="150" t="s">
+      <c r="V12" s="148"/>
+      <c r="W12" s="153" t="s">
         <v>24</v>
       </c>
-      <c r="X12" s="151"/>
-      <c r="Y12" s="151"/>
-      <c r="Z12" s="151"/>
-      <c r="AA12" s="151"/>
-      <c r="AB12" s="151"/>
-      <c r="AC12" s="151"/>
-      <c r="AD12" s="151"/>
-      <c r="AE12" s="151"/>
-      <c r="AF12" s="151"/>
-      <c r="AG12" s="151"/>
-      <c r="AH12" s="151"/>
-      <c r="AI12" s="151"/>
-      <c r="AJ12" s="151"/>
-      <c r="AK12" s="151"/>
-      <c r="AL12" s="151"/>
-      <c r="AM12" s="151"/>
-      <c r="AN12" s="151"/>
-      <c r="AO12" s="151"/>
-      <c r="AP12" s="152"/>
+      <c r="X12" s="154"/>
+      <c r="Y12" s="154"/>
+      <c r="Z12" s="154"/>
+      <c r="AA12" s="154"/>
+      <c r="AB12" s="154"/>
+      <c r="AC12" s="154"/>
+      <c r="AD12" s="154"/>
+      <c r="AE12" s="154"/>
+      <c r="AF12" s="154"/>
+      <c r="AG12" s="154"/>
+      <c r="AH12" s="154"/>
+      <c r="AI12" s="154"/>
+      <c r="AJ12" s="154"/>
+      <c r="AK12" s="154"/>
+      <c r="AL12" s="154"/>
+      <c r="AM12" s="154"/>
+      <c r="AN12" s="154"/>
+      <c r="AO12" s="154"/>
+      <c r="AP12" s="155"/>
       <c r="AQ12" s="39"/>
       <c r="AU12" s="47"/>
       <c r="AV12" s="6"/>
-      <c r="AW12" s="98"/>
-      <c r="AX12" s="99"/>
-      <c r="AY12" s="99"/>
-      <c r="AZ12" s="99"/>
-      <c r="BA12" s="99"/>
-      <c r="BB12" s="99"/>
-      <c r="BC12" s="99"/>
-      <c r="BD12" s="99"/>
-      <c r="BE12" s="99"/>
-      <c r="BF12" s="99"/>
-      <c r="BG12" s="99"/>
-      <c r="BH12" s="100"/>
+      <c r="AW12" s="101"/>
+      <c r="AX12" s="102"/>
+      <c r="AY12" s="102"/>
+      <c r="AZ12" s="102"/>
+      <c r="BA12" s="102"/>
+      <c r="BB12" s="102"/>
+      <c r="BC12" s="102"/>
+      <c r="BD12" s="102"/>
+      <c r="BE12" s="102"/>
+      <c r="BF12" s="102"/>
+      <c r="BG12" s="102"/>
+      <c r="BH12" s="103"/>
       <c r="BI12" s="6"/>
       <c r="BJ12" s="6"/>
       <c r="BK12" s="6"/>
@@ -6168,10 +6197,10 @@
       <c r="BN12" s="48"/>
       <c r="BO12" s="39"/>
       <c r="BS12" s="42"/>
-      <c r="BT12" s="75"/>
-      <c r="BU12" s="60"/>
-      <c r="BV12" s="60"/>
-      <c r="BW12" s="61"/>
+      <c r="BT12" s="78"/>
+      <c r="BU12" s="63"/>
+      <c r="BV12" s="63"/>
+      <c r="BW12" s="64"/>
       <c r="BX12" s="1"/>
       <c r="BY12" s="1"/>
       <c r="BZ12" s="1"/>
@@ -6182,19 +6211,19 @@
       <c r="CE12" s="1"/>
       <c r="CF12" s="1"/>
       <c r="CG12" s="39"/>
-      <c r="CH12" s="145"/>
+      <c r="CH12" s="148"/>
       <c r="CI12" s="39"/>
     </row>
-    <row r="13" spans="2:87" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:87" x14ac:dyDescent="0.25">
       <c r="C13" s="29"/>
       <c r="D13" s="34"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="35"/>
-      <c r="H13" s="143"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="64"/>
+      <c r="H13" s="146"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="67"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -6205,42 +6234,42 @@
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
       <c r="U13" s="40"/>
-      <c r="V13" s="145"/>
-      <c r="W13" s="153"/>
-      <c r="X13" s="154"/>
-      <c r="Y13" s="154"/>
-      <c r="Z13" s="154"/>
-      <c r="AA13" s="154"/>
-      <c r="AB13" s="154"/>
-      <c r="AC13" s="154"/>
-      <c r="AD13" s="154"/>
-      <c r="AE13" s="154"/>
-      <c r="AF13" s="154"/>
-      <c r="AG13" s="154"/>
-      <c r="AH13" s="154"/>
-      <c r="AI13" s="154"/>
-      <c r="AJ13" s="154"/>
-      <c r="AK13" s="154"/>
-      <c r="AL13" s="154"/>
-      <c r="AM13" s="154"/>
-      <c r="AN13" s="154"/>
-      <c r="AO13" s="154"/>
-      <c r="AP13" s="155"/>
+      <c r="V13" s="148"/>
+      <c r="W13" s="156"/>
+      <c r="X13" s="157"/>
+      <c r="Y13" s="157"/>
+      <c r="Z13" s="157"/>
+      <c r="AA13" s="157"/>
+      <c r="AB13" s="157"/>
+      <c r="AC13" s="157"/>
+      <c r="AD13" s="157"/>
+      <c r="AE13" s="157"/>
+      <c r="AF13" s="157"/>
+      <c r="AG13" s="157"/>
+      <c r="AH13" s="157"/>
+      <c r="AI13" s="157"/>
+      <c r="AJ13" s="157"/>
+      <c r="AK13" s="157"/>
+      <c r="AL13" s="157"/>
+      <c r="AM13" s="157"/>
+      <c r="AN13" s="157"/>
+      <c r="AO13" s="157"/>
+      <c r="AP13" s="158"/>
       <c r="AQ13" s="39"/>
       <c r="AU13" s="47"/>
       <c r="AV13" s="6"/>
-      <c r="AW13" s="98"/>
-      <c r="AX13" s="99"/>
-      <c r="AY13" s="99"/>
-      <c r="AZ13" s="99"/>
-      <c r="BA13" s="99"/>
-      <c r="BB13" s="99"/>
-      <c r="BC13" s="99"/>
-      <c r="BD13" s="99"/>
-      <c r="BE13" s="99"/>
-      <c r="BF13" s="99"/>
-      <c r="BG13" s="99"/>
-      <c r="BH13" s="100"/>
+      <c r="AW13" s="101"/>
+      <c r="AX13" s="102"/>
+      <c r="AY13" s="102"/>
+      <c r="AZ13" s="102"/>
+      <c r="BA13" s="102"/>
+      <c r="BB13" s="102"/>
+      <c r="BC13" s="102"/>
+      <c r="BD13" s="102"/>
+      <c r="BE13" s="102"/>
+      <c r="BF13" s="102"/>
+      <c r="BG13" s="102"/>
+      <c r="BH13" s="103"/>
       <c r="BI13" s="6"/>
       <c r="BJ13" s="6"/>
       <c r="BK13" s="6"/>
@@ -6249,10 +6278,10 @@
       <c r="BN13" s="48"/>
       <c r="BO13" s="39"/>
       <c r="BS13" s="42"/>
-      <c r="BT13" s="143"/>
-      <c r="BU13" s="63"/>
-      <c r="BV13" s="63"/>
-      <c r="BW13" s="64"/>
+      <c r="BT13" s="146"/>
+      <c r="BU13" s="66"/>
+      <c r="BV13" s="66"/>
+      <c r="BW13" s="67"/>
       <c r="BX13" s="2"/>
       <c r="BY13" s="2"/>
       <c r="BZ13" s="2"/>
@@ -6263,21 +6292,21 @@
       <c r="CE13" s="2"/>
       <c r="CF13" s="2"/>
       <c r="CG13" s="40"/>
-      <c r="CH13" s="145"/>
+      <c r="CH13" s="148"/>
       <c r="CI13" s="39"/>
     </row>
-    <row r="14" spans="2:87" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:87" x14ac:dyDescent="0.25">
       <c r="C14" s="29"/>
       <c r="D14" s="34"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="35"/>
-      <c r="H14" s="113" t="s">
+      <c r="H14" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="58"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="61"/>
       <c r="L14" s="43"/>
       <c r="M14" s="43"/>
       <c r="N14" s="43"/>
@@ -6288,42 +6317,42 @@
       <c r="S14" s="43"/>
       <c r="T14" s="43"/>
       <c r="U14" s="44"/>
-      <c r="V14" s="145"/>
-      <c r="W14" s="156"/>
-      <c r="X14" s="157"/>
-      <c r="Y14" s="157"/>
-      <c r="Z14" s="157"/>
-      <c r="AA14" s="157"/>
-      <c r="AB14" s="157"/>
-      <c r="AC14" s="157"/>
-      <c r="AD14" s="157"/>
-      <c r="AE14" s="157"/>
-      <c r="AF14" s="157"/>
-      <c r="AG14" s="157"/>
-      <c r="AH14" s="157"/>
-      <c r="AI14" s="157"/>
-      <c r="AJ14" s="157"/>
-      <c r="AK14" s="157"/>
-      <c r="AL14" s="157"/>
-      <c r="AM14" s="157"/>
-      <c r="AN14" s="157"/>
-      <c r="AO14" s="157"/>
-      <c r="AP14" s="158"/>
+      <c r="V14" s="148"/>
+      <c r="W14" s="159"/>
+      <c r="X14" s="160"/>
+      <c r="Y14" s="160"/>
+      <c r="Z14" s="160"/>
+      <c r="AA14" s="160"/>
+      <c r="AB14" s="160"/>
+      <c r="AC14" s="160"/>
+      <c r="AD14" s="160"/>
+      <c r="AE14" s="160"/>
+      <c r="AF14" s="160"/>
+      <c r="AG14" s="160"/>
+      <c r="AH14" s="160"/>
+      <c r="AI14" s="160"/>
+      <c r="AJ14" s="160"/>
+      <c r="AK14" s="160"/>
+      <c r="AL14" s="160"/>
+      <c r="AM14" s="160"/>
+      <c r="AN14" s="160"/>
+      <c r="AO14" s="160"/>
+      <c r="AP14" s="161"/>
       <c r="AQ14" s="39"/>
       <c r="AU14" s="47"/>
       <c r="AV14" s="6"/>
-      <c r="AW14" s="98"/>
-      <c r="AX14" s="99"/>
-      <c r="AY14" s="99"/>
-      <c r="AZ14" s="99"/>
-      <c r="BA14" s="99"/>
-      <c r="BB14" s="99"/>
-      <c r="BC14" s="99"/>
-      <c r="BD14" s="99"/>
-      <c r="BE14" s="99"/>
-      <c r="BF14" s="99"/>
-      <c r="BG14" s="99"/>
-      <c r="BH14" s="100"/>
+      <c r="AW14" s="101"/>
+      <c r="AX14" s="102"/>
+      <c r="AY14" s="102"/>
+      <c r="AZ14" s="102"/>
+      <c r="BA14" s="102"/>
+      <c r="BB14" s="102"/>
+      <c r="BC14" s="102"/>
+      <c r="BD14" s="102"/>
+      <c r="BE14" s="102"/>
+      <c r="BF14" s="102"/>
+      <c r="BG14" s="102"/>
+      <c r="BH14" s="103"/>
       <c r="BI14" s="6"/>
       <c r="BJ14" s="6"/>
       <c r="BK14" s="6"/>
@@ -6332,12 +6361,12 @@
       <c r="BN14" s="48"/>
       <c r="BO14" s="39"/>
       <c r="BS14" s="42"/>
-      <c r="BT14" s="113" t="s">
+      <c r="BT14" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="BU14" s="57"/>
-      <c r="BV14" s="57"/>
-      <c r="BW14" s="58"/>
+      <c r="BU14" s="60"/>
+      <c r="BV14" s="60"/>
+      <c r="BW14" s="61"/>
       <c r="BX14" s="43"/>
       <c r="BY14" s="43"/>
       <c r="BZ14" s="43"/>
@@ -6348,19 +6377,19 @@
       <c r="CE14" s="43"/>
       <c r="CF14" s="43"/>
       <c r="CG14" s="44"/>
-      <c r="CH14" s="145"/>
+      <c r="CH14" s="148"/>
       <c r="CI14" s="39"/>
     </row>
-    <row r="15" spans="2:87" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:87" x14ac:dyDescent="0.25">
       <c r="C15" s="29"/>
       <c r="D15" s="34"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="35"/>
-      <c r="H15" s="75"/>
-      <c r="I15" s="60"/>
-      <c r="J15" s="60"/>
-      <c r="K15" s="61"/>
+      <c r="H15" s="78"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="64"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1" t="s">
         <v>8</v>
@@ -6373,44 +6402,44 @@
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
       <c r="U15" s="39"/>
-      <c r="V15" s="145"/>
-      <c r="W15" s="159" t="s">
+      <c r="V15" s="148"/>
+      <c r="W15" s="162" t="s">
         <v>25</v>
       </c>
-      <c r="X15" s="160"/>
-      <c r="Y15" s="160"/>
-      <c r="Z15" s="160"/>
-      <c r="AA15" s="160"/>
-      <c r="AB15" s="160"/>
-      <c r="AC15" s="160"/>
-      <c r="AD15" s="160"/>
-      <c r="AE15" s="160"/>
-      <c r="AF15" s="160"/>
-      <c r="AG15" s="160"/>
-      <c r="AH15" s="160"/>
-      <c r="AI15" s="160"/>
-      <c r="AJ15" s="160"/>
-      <c r="AK15" s="160"/>
-      <c r="AL15" s="160"/>
-      <c r="AM15" s="160"/>
-      <c r="AN15" s="160"/>
-      <c r="AO15" s="160"/>
-      <c r="AP15" s="161"/>
+      <c r="X15" s="163"/>
+      <c r="Y15" s="163"/>
+      <c r="Z15" s="163"/>
+      <c r="AA15" s="163"/>
+      <c r="AB15" s="163"/>
+      <c r="AC15" s="163"/>
+      <c r="AD15" s="163"/>
+      <c r="AE15" s="163"/>
+      <c r="AF15" s="163"/>
+      <c r="AG15" s="163"/>
+      <c r="AH15" s="163"/>
+      <c r="AI15" s="163"/>
+      <c r="AJ15" s="163"/>
+      <c r="AK15" s="163"/>
+      <c r="AL15" s="163"/>
+      <c r="AM15" s="163"/>
+      <c r="AN15" s="163"/>
+      <c r="AO15" s="163"/>
+      <c r="AP15" s="164"/>
       <c r="AQ15" s="39"/>
       <c r="AU15" s="47"/>
       <c r="AV15" s="6"/>
-      <c r="AW15" s="98"/>
-      <c r="AX15" s="99"/>
-      <c r="AY15" s="99"/>
-      <c r="AZ15" s="99"/>
-      <c r="BA15" s="99"/>
-      <c r="BB15" s="99"/>
-      <c r="BC15" s="99"/>
-      <c r="BD15" s="99"/>
-      <c r="BE15" s="99"/>
-      <c r="BF15" s="99"/>
-      <c r="BG15" s="99"/>
-      <c r="BH15" s="100"/>
+      <c r="AW15" s="101"/>
+      <c r="AX15" s="102"/>
+      <c r="AY15" s="102"/>
+      <c r="AZ15" s="102"/>
+      <c r="BA15" s="102"/>
+      <c r="BB15" s="102"/>
+      <c r="BC15" s="102"/>
+      <c r="BD15" s="102"/>
+      <c r="BE15" s="102"/>
+      <c r="BF15" s="102"/>
+      <c r="BG15" s="102"/>
+      <c r="BH15" s="103"/>
       <c r="BI15" s="6"/>
       <c r="BJ15" s="6"/>
       <c r="BK15" s="6"/>
@@ -6419,10 +6448,10 @@
       <c r="BN15" s="48"/>
       <c r="BO15" s="39"/>
       <c r="BS15" s="42"/>
-      <c r="BT15" s="75"/>
-      <c r="BU15" s="60"/>
-      <c r="BV15" s="60"/>
-      <c r="BW15" s="61"/>
+      <c r="BT15" s="78"/>
+      <c r="BU15" s="63"/>
+      <c r="BV15" s="63"/>
+      <c r="BW15" s="64"/>
       <c r="BX15" s="1"/>
       <c r="BY15" s="1" t="s">
         <v>8</v>
@@ -6435,19 +6464,19 @@
       <c r="CE15" s="1"/>
       <c r="CF15" s="1"/>
       <c r="CG15" s="39"/>
-      <c r="CH15" s="145"/>
+      <c r="CH15" s="148"/>
       <c r="CI15" s="39"/>
     </row>
-    <row r="16" spans="2:87" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:87" x14ac:dyDescent="0.25">
       <c r="C16" s="29"/>
       <c r="D16" s="34"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="58"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="61"/>
       <c r="G16" s="35"/>
-      <c r="H16" s="75"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="61"/>
+      <c r="H16" s="78"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="64"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
@@ -6458,42 +6487,42 @@
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
       <c r="U16" s="39"/>
-      <c r="V16" s="145"/>
-      <c r="W16" s="162"/>
-      <c r="X16" s="163"/>
-      <c r="Y16" s="163"/>
-      <c r="Z16" s="163"/>
-      <c r="AA16" s="163"/>
-      <c r="AB16" s="163"/>
-      <c r="AC16" s="163"/>
-      <c r="AD16" s="163"/>
-      <c r="AE16" s="163"/>
-      <c r="AF16" s="163"/>
-      <c r="AG16" s="163"/>
-      <c r="AH16" s="163"/>
-      <c r="AI16" s="163"/>
-      <c r="AJ16" s="163"/>
-      <c r="AK16" s="163"/>
-      <c r="AL16" s="163"/>
-      <c r="AM16" s="163"/>
-      <c r="AN16" s="163"/>
-      <c r="AO16" s="163"/>
-      <c r="AP16" s="164"/>
+      <c r="V16" s="148"/>
+      <c r="W16" s="165"/>
+      <c r="X16" s="166"/>
+      <c r="Y16" s="166"/>
+      <c r="Z16" s="166"/>
+      <c r="AA16" s="166"/>
+      <c r="AB16" s="166"/>
+      <c r="AC16" s="166"/>
+      <c r="AD16" s="166"/>
+      <c r="AE16" s="166"/>
+      <c r="AF16" s="166"/>
+      <c r="AG16" s="166"/>
+      <c r="AH16" s="166"/>
+      <c r="AI16" s="166"/>
+      <c r="AJ16" s="166"/>
+      <c r="AK16" s="166"/>
+      <c r="AL16" s="166"/>
+      <c r="AM16" s="166"/>
+      <c r="AN16" s="166"/>
+      <c r="AO16" s="166"/>
+      <c r="AP16" s="167"/>
       <c r="AQ16" s="39"/>
       <c r="AU16" s="47"/>
       <c r="AV16" s="6"/>
-      <c r="AW16" s="101"/>
-      <c r="AX16" s="102"/>
-      <c r="AY16" s="102"/>
-      <c r="AZ16" s="102"/>
-      <c r="BA16" s="102"/>
-      <c r="BB16" s="102"/>
-      <c r="BC16" s="102"/>
-      <c r="BD16" s="102"/>
-      <c r="BE16" s="102"/>
-      <c r="BF16" s="102"/>
-      <c r="BG16" s="102"/>
-      <c r="BH16" s="103"/>
+      <c r="AW16" s="104"/>
+      <c r="AX16" s="105"/>
+      <c r="AY16" s="105"/>
+      <c r="AZ16" s="105"/>
+      <c r="BA16" s="105"/>
+      <c r="BB16" s="105"/>
+      <c r="BC16" s="105"/>
+      <c r="BD16" s="105"/>
+      <c r="BE16" s="105"/>
+      <c r="BF16" s="105"/>
+      <c r="BG16" s="105"/>
+      <c r="BH16" s="106"/>
       <c r="BI16" s="6"/>
       <c r="BJ16" s="6"/>
       <c r="BK16" s="6"/>
@@ -6502,10 +6531,10 @@
       <c r="BN16" s="48"/>
       <c r="BO16" s="39"/>
       <c r="BS16" s="42"/>
-      <c r="BT16" s="75"/>
-      <c r="BU16" s="60"/>
-      <c r="BV16" s="60"/>
-      <c r="BW16" s="61"/>
+      <c r="BT16" s="78"/>
+      <c r="BU16" s="63"/>
+      <c r="BV16" s="63"/>
+      <c r="BW16" s="64"/>
       <c r="BX16" s="1"/>
       <c r="BY16" s="1"/>
       <c r="BZ16" s="1"/>
@@ -6516,19 +6545,19 @@
       <c r="CE16" s="1"/>
       <c r="CF16" s="1"/>
       <c r="CG16" s="39"/>
-      <c r="CH16" s="145"/>
+      <c r="CH16" s="148"/>
       <c r="CI16" s="39"/>
     </row>
     <row r="17" spans="1:88" x14ac:dyDescent="0.25">
       <c r="C17" s="29"/>
       <c r="D17" s="34"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="64"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="67"/>
       <c r="G17" s="35"/>
-      <c r="H17" s="143"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="64"/>
+      <c r="H17" s="146"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="67"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -6539,27 +6568,27 @@
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
       <c r="U17" s="40"/>
-      <c r="V17" s="145"/>
-      <c r="W17" s="165"/>
-      <c r="X17" s="166"/>
-      <c r="Y17" s="166"/>
-      <c r="Z17" s="166"/>
-      <c r="AA17" s="166"/>
-      <c r="AB17" s="166"/>
-      <c r="AC17" s="166"/>
-      <c r="AD17" s="166"/>
-      <c r="AE17" s="166"/>
-      <c r="AF17" s="166"/>
-      <c r="AG17" s="166"/>
-      <c r="AH17" s="166"/>
-      <c r="AI17" s="166"/>
-      <c r="AJ17" s="166"/>
-      <c r="AK17" s="166"/>
-      <c r="AL17" s="166"/>
-      <c r="AM17" s="166"/>
-      <c r="AN17" s="166"/>
-      <c r="AO17" s="166"/>
-      <c r="AP17" s="167"/>
+      <c r="V17" s="148"/>
+      <c r="W17" s="168"/>
+      <c r="X17" s="169"/>
+      <c r="Y17" s="169"/>
+      <c r="Z17" s="169"/>
+      <c r="AA17" s="169"/>
+      <c r="AB17" s="169"/>
+      <c r="AC17" s="169"/>
+      <c r="AD17" s="169"/>
+      <c r="AE17" s="169"/>
+      <c r="AF17" s="169"/>
+      <c r="AG17" s="169"/>
+      <c r="AH17" s="169"/>
+      <c r="AI17" s="169"/>
+      <c r="AJ17" s="169"/>
+      <c r="AK17" s="169"/>
+      <c r="AL17" s="169"/>
+      <c r="AM17" s="169"/>
+      <c r="AN17" s="169"/>
+      <c r="AO17" s="169"/>
+      <c r="AP17" s="170"/>
       <c r="AQ17" s="39"/>
       <c r="AU17" s="47"/>
       <c r="AV17" s="6"/>
@@ -6583,10 +6612,10 @@
       <c r="BN17" s="48"/>
       <c r="BO17" s="39"/>
       <c r="BS17" s="42"/>
-      <c r="BT17" s="143"/>
-      <c r="BU17" s="63"/>
-      <c r="BV17" s="63"/>
-      <c r="BW17" s="64"/>
+      <c r="BT17" s="146"/>
+      <c r="BU17" s="66"/>
+      <c r="BV17" s="66"/>
+      <c r="BW17" s="67"/>
       <c r="BX17" s="2"/>
       <c r="BY17" s="2"/>
       <c r="BZ17" s="2"/>
@@ -6597,7 +6626,7 @@
       <c r="CE17" s="2"/>
       <c r="CF17" s="2"/>
       <c r="CG17" s="40"/>
-      <c r="CH17" s="145"/>
+      <c r="CH17" s="148"/>
       <c r="CI17" s="39"/>
     </row>
     <row r="18" spans="1:88" x14ac:dyDescent="0.25">
@@ -6611,12 +6640,12 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="35"/>
-      <c r="H18" s="113" t="s">
+      <c r="H18" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="I18" s="57"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="58"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="61"/>
       <c r="L18" s="43"/>
       <c r="M18" s="43"/>
       <c r="N18" s="43"/>
@@ -6627,29 +6656,29 @@
       <c r="S18" s="43"/>
       <c r="T18" s="43"/>
       <c r="U18" s="44"/>
-      <c r="V18" s="145"/>
-      <c r="W18" s="150" t="s">
+      <c r="V18" s="148"/>
+      <c r="W18" s="153" t="s">
         <v>24</v>
       </c>
-      <c r="X18" s="151"/>
-      <c r="Y18" s="151"/>
-      <c r="Z18" s="151"/>
-      <c r="AA18" s="151"/>
-      <c r="AB18" s="151"/>
-      <c r="AC18" s="151"/>
-      <c r="AD18" s="151"/>
-      <c r="AE18" s="151"/>
-      <c r="AF18" s="151"/>
-      <c r="AG18" s="151"/>
-      <c r="AH18" s="151"/>
-      <c r="AI18" s="151"/>
-      <c r="AJ18" s="151"/>
-      <c r="AK18" s="151"/>
-      <c r="AL18" s="151"/>
-      <c r="AM18" s="151"/>
-      <c r="AN18" s="151"/>
-      <c r="AO18" s="151"/>
-      <c r="AP18" s="152"/>
+      <c r="X18" s="154"/>
+      <c r="Y18" s="154"/>
+      <c r="Z18" s="154"/>
+      <c r="AA18" s="154"/>
+      <c r="AB18" s="154"/>
+      <c r="AC18" s="154"/>
+      <c r="AD18" s="154"/>
+      <c r="AE18" s="154"/>
+      <c r="AF18" s="154"/>
+      <c r="AG18" s="154"/>
+      <c r="AH18" s="154"/>
+      <c r="AI18" s="154"/>
+      <c r="AJ18" s="154"/>
+      <c r="AK18" s="154"/>
+      <c r="AL18" s="154"/>
+      <c r="AM18" s="154"/>
+      <c r="AN18" s="154"/>
+      <c r="AO18" s="154"/>
+      <c r="AP18" s="155"/>
       <c r="AQ18" s="39"/>
       <c r="AR18" s="30"/>
       <c r="AU18" s="47"/>
@@ -6678,12 +6707,12 @@
       <c r="BP18" s="30"/>
       <c r="BR18" s="40"/>
       <c r="BS18" s="42"/>
-      <c r="BT18" s="113" t="s">
+      <c r="BT18" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="BU18" s="57"/>
-      <c r="BV18" s="57"/>
-      <c r="BW18" s="58"/>
+      <c r="BU18" s="60"/>
+      <c r="BV18" s="60"/>
+      <c r="BW18" s="61"/>
       <c r="BX18" s="43"/>
       <c r="BY18" s="43"/>
       <c r="BZ18" s="43"/>
@@ -6694,20 +6723,20 @@
       <c r="CE18" s="43"/>
       <c r="CF18" s="43"/>
       <c r="CG18" s="44"/>
-      <c r="CH18" s="145"/>
+      <c r="CH18" s="148"/>
       <c r="CI18" s="39"/>
       <c r="CJ18" s="30"/>
     </row>
     <row r="19" spans="1:88" x14ac:dyDescent="0.25">
       <c r="C19" s="29"/>
       <c r="D19" s="34"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="58"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="61"/>
       <c r="G19" s="35"/>
-      <c r="H19" s="75"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="60"/>
-      <c r="K19" s="61"/>
+      <c r="H19" s="78"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="64"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1" t="s">
         <v>8</v>
@@ -6720,27 +6749,27 @@
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
       <c r="U19" s="39"/>
-      <c r="V19" s="145"/>
-      <c r="W19" s="153"/>
-      <c r="X19" s="154"/>
-      <c r="Y19" s="154"/>
-      <c r="Z19" s="154"/>
-      <c r="AA19" s="154"/>
-      <c r="AB19" s="154"/>
-      <c r="AC19" s="154"/>
-      <c r="AD19" s="154"/>
-      <c r="AE19" s="154"/>
-      <c r="AF19" s="154"/>
-      <c r="AG19" s="154"/>
-      <c r="AH19" s="154"/>
-      <c r="AI19" s="154"/>
-      <c r="AJ19" s="154"/>
-      <c r="AK19" s="154"/>
-      <c r="AL19" s="154"/>
-      <c r="AM19" s="154"/>
-      <c r="AN19" s="154"/>
-      <c r="AO19" s="154"/>
-      <c r="AP19" s="155"/>
+      <c r="V19" s="148"/>
+      <c r="W19" s="156"/>
+      <c r="X19" s="157"/>
+      <c r="Y19" s="157"/>
+      <c r="Z19" s="157"/>
+      <c r="AA19" s="157"/>
+      <c r="AB19" s="157"/>
+      <c r="AC19" s="157"/>
+      <c r="AD19" s="157"/>
+      <c r="AE19" s="157"/>
+      <c r="AF19" s="157"/>
+      <c r="AG19" s="157"/>
+      <c r="AH19" s="157"/>
+      <c r="AI19" s="157"/>
+      <c r="AJ19" s="157"/>
+      <c r="AK19" s="157"/>
+      <c r="AL19" s="157"/>
+      <c r="AM19" s="157"/>
+      <c r="AN19" s="157"/>
+      <c r="AO19" s="157"/>
+      <c r="AP19" s="158"/>
       <c r="AQ19" s="39"/>
       <c r="AU19" s="47"/>
       <c r="AV19" s="6"/>
@@ -6764,10 +6793,10 @@
       <c r="BN19" s="48"/>
       <c r="BO19" s="39"/>
       <c r="BS19" s="42"/>
-      <c r="BT19" s="75"/>
-      <c r="BU19" s="60"/>
-      <c r="BV19" s="60"/>
-      <c r="BW19" s="61"/>
+      <c r="BT19" s="78"/>
+      <c r="BU19" s="63"/>
+      <c r="BV19" s="63"/>
+      <c r="BW19" s="64"/>
       <c r="BX19" s="1"/>
       <c r="BY19" s="1" t="s">
         <v>8</v>
@@ -6780,19 +6809,19 @@
       <c r="CE19" s="1"/>
       <c r="CF19" s="1"/>
       <c r="CG19" s="39"/>
-      <c r="CH19" s="145"/>
+      <c r="CH19" s="148"/>
       <c r="CI19" s="39"/>
     </row>
     <row r="20" spans="1:88" x14ac:dyDescent="0.25">
       <c r="C20" s="29"/>
       <c r="D20" s="34"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="64"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="67"/>
       <c r="G20" s="35"/>
-      <c r="H20" s="75"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="61"/>
+      <c r="H20" s="78"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="63"/>
+      <c r="K20" s="64"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
@@ -6803,27 +6832,27 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
       <c r="U20" s="39"/>
-      <c r="V20" s="145"/>
-      <c r="W20" s="156"/>
-      <c r="X20" s="157"/>
-      <c r="Y20" s="157"/>
-      <c r="Z20" s="157"/>
-      <c r="AA20" s="157"/>
-      <c r="AB20" s="157"/>
-      <c r="AC20" s="157"/>
-      <c r="AD20" s="157"/>
-      <c r="AE20" s="157"/>
-      <c r="AF20" s="157"/>
-      <c r="AG20" s="157"/>
-      <c r="AH20" s="157"/>
-      <c r="AI20" s="157"/>
-      <c r="AJ20" s="157"/>
-      <c r="AK20" s="157"/>
-      <c r="AL20" s="157"/>
-      <c r="AM20" s="157"/>
-      <c r="AN20" s="157"/>
-      <c r="AO20" s="157"/>
-      <c r="AP20" s="158"/>
+      <c r="V20" s="148"/>
+      <c r="W20" s="159"/>
+      <c r="X20" s="160"/>
+      <c r="Y20" s="160"/>
+      <c r="Z20" s="160"/>
+      <c r="AA20" s="160"/>
+      <c r="AB20" s="160"/>
+      <c r="AC20" s="160"/>
+      <c r="AD20" s="160"/>
+      <c r="AE20" s="160"/>
+      <c r="AF20" s="160"/>
+      <c r="AG20" s="160"/>
+      <c r="AH20" s="160"/>
+      <c r="AI20" s="160"/>
+      <c r="AJ20" s="160"/>
+      <c r="AK20" s="160"/>
+      <c r="AL20" s="160"/>
+      <c r="AM20" s="160"/>
+      <c r="AN20" s="160"/>
+      <c r="AO20" s="160"/>
+      <c r="AP20" s="161"/>
       <c r="AQ20" s="39"/>
       <c r="AU20" s="47"/>
       <c r="AV20" s="6"/>
@@ -6849,10 +6878,10 @@
       <c r="BN20" s="48"/>
       <c r="BO20" s="39"/>
       <c r="BS20" s="42"/>
-      <c r="BT20" s="75"/>
-      <c r="BU20" s="60"/>
-      <c r="BV20" s="60"/>
-      <c r="BW20" s="61"/>
+      <c r="BT20" s="78"/>
+      <c r="BU20" s="63"/>
+      <c r="BV20" s="63"/>
+      <c r="BW20" s="64"/>
       <c r="BX20" s="1"/>
       <c r="BY20" s="1"/>
       <c r="BZ20" s="1"/>
@@ -6863,7 +6892,7 @@
       <c r="CE20" s="1"/>
       <c r="CF20" s="1"/>
       <c r="CG20" s="39"/>
-      <c r="CH20" s="145"/>
+      <c r="CH20" s="148"/>
       <c r="CI20" s="39"/>
     </row>
     <row r="21" spans="1:88" x14ac:dyDescent="0.25">
@@ -6872,10 +6901,10 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="35"/>
-      <c r="H21" s="143"/>
-      <c r="I21" s="63"/>
-      <c r="J21" s="63"/>
-      <c r="K21" s="64"/>
+      <c r="H21" s="146"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="66"/>
+      <c r="K21" s="67"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -6886,29 +6915,29 @@
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
       <c r="U21" s="40"/>
-      <c r="V21" s="145"/>
-      <c r="W21" s="159" t="s">
+      <c r="V21" s="148"/>
+      <c r="W21" s="162" t="s">
         <v>25</v>
       </c>
-      <c r="X21" s="160"/>
-      <c r="Y21" s="160"/>
-      <c r="Z21" s="160"/>
-      <c r="AA21" s="160"/>
-      <c r="AB21" s="160"/>
-      <c r="AC21" s="160"/>
-      <c r="AD21" s="160"/>
-      <c r="AE21" s="160"/>
-      <c r="AF21" s="160"/>
-      <c r="AG21" s="160"/>
-      <c r="AH21" s="160"/>
-      <c r="AI21" s="160"/>
-      <c r="AJ21" s="160"/>
-      <c r="AK21" s="160"/>
-      <c r="AL21" s="160"/>
-      <c r="AM21" s="160"/>
-      <c r="AN21" s="160"/>
-      <c r="AO21" s="160"/>
-      <c r="AP21" s="161"/>
+      <c r="X21" s="163"/>
+      <c r="Y21" s="163"/>
+      <c r="Z21" s="163"/>
+      <c r="AA21" s="163"/>
+      <c r="AB21" s="163"/>
+      <c r="AC21" s="163"/>
+      <c r="AD21" s="163"/>
+      <c r="AE21" s="163"/>
+      <c r="AF21" s="163"/>
+      <c r="AG21" s="163"/>
+      <c r="AH21" s="163"/>
+      <c r="AI21" s="163"/>
+      <c r="AJ21" s="163"/>
+      <c r="AK21" s="163"/>
+      <c r="AL21" s="163"/>
+      <c r="AM21" s="163"/>
+      <c r="AN21" s="163"/>
+      <c r="AO21" s="163"/>
+      <c r="AP21" s="164"/>
       <c r="AQ21" s="39"/>
       <c r="AU21" s="47"/>
       <c r="AV21" s="6"/>
@@ -6932,10 +6961,10 @@
       <c r="BN21" s="48"/>
       <c r="BO21" s="39"/>
       <c r="BS21" s="42"/>
-      <c r="BT21" s="143"/>
-      <c r="BU21" s="63"/>
-      <c r="BV21" s="63"/>
-      <c r="BW21" s="64"/>
+      <c r="BT21" s="146"/>
+      <c r="BU21" s="66"/>
+      <c r="BV21" s="66"/>
+      <c r="BW21" s="67"/>
       <c r="BX21" s="2"/>
       <c r="BY21" s="2"/>
       <c r="BZ21" s="2"/>
@@ -6946,7 +6975,7 @@
       <c r="CE21" s="2"/>
       <c r="CF21" s="2"/>
       <c r="CG21" s="40"/>
-      <c r="CH21" s="145"/>
+      <c r="CH21" s="148"/>
       <c r="CI21" s="39"/>
     </row>
     <row r="22" spans="1:88" x14ac:dyDescent="0.25">
@@ -6955,12 +6984,12 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="35"/>
-      <c r="H22" s="113" t="s">
+      <c r="H22" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="I22" s="57"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="58"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="60"/>
+      <c r="K22" s="61"/>
       <c r="L22" s="43"/>
       <c r="M22" s="43"/>
       <c r="N22" s="43"/>
@@ -6971,27 +7000,27 @@
       <c r="S22" s="43"/>
       <c r="T22" s="43"/>
       <c r="U22" s="44"/>
-      <c r="V22" s="145"/>
-      <c r="W22" s="162"/>
-      <c r="X22" s="163"/>
-      <c r="Y22" s="163"/>
-      <c r="Z22" s="163"/>
-      <c r="AA22" s="163"/>
-      <c r="AB22" s="163"/>
-      <c r="AC22" s="163"/>
-      <c r="AD22" s="163"/>
-      <c r="AE22" s="163"/>
-      <c r="AF22" s="163"/>
-      <c r="AG22" s="163"/>
-      <c r="AH22" s="163"/>
-      <c r="AI22" s="163"/>
-      <c r="AJ22" s="163"/>
-      <c r="AK22" s="163"/>
-      <c r="AL22" s="163"/>
-      <c r="AM22" s="163"/>
-      <c r="AN22" s="163"/>
-      <c r="AO22" s="163"/>
-      <c r="AP22" s="164"/>
+      <c r="V22" s="148"/>
+      <c r="W22" s="165"/>
+      <c r="X22" s="166"/>
+      <c r="Y22" s="166"/>
+      <c r="Z22" s="166"/>
+      <c r="AA22" s="166"/>
+      <c r="AB22" s="166"/>
+      <c r="AC22" s="166"/>
+      <c r="AD22" s="166"/>
+      <c r="AE22" s="166"/>
+      <c r="AF22" s="166"/>
+      <c r="AG22" s="166"/>
+      <c r="AH22" s="166"/>
+      <c r="AI22" s="166"/>
+      <c r="AJ22" s="166"/>
+      <c r="AK22" s="166"/>
+      <c r="AL22" s="166"/>
+      <c r="AM22" s="166"/>
+      <c r="AN22" s="166"/>
+      <c r="AO22" s="166"/>
+      <c r="AP22" s="167"/>
       <c r="AQ22" s="39"/>
       <c r="AU22" s="47"/>
       <c r="AV22" s="6"/>
@@ -7017,12 +7046,12 @@
       <c r="BN22" s="48"/>
       <c r="BO22" s="39"/>
       <c r="BS22" s="42"/>
-      <c r="BT22" s="113" t="s">
+      <c r="BT22" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="BU22" s="57"/>
-      <c r="BV22" s="57"/>
-      <c r="BW22" s="58"/>
+      <c r="BU22" s="60"/>
+      <c r="BV22" s="60"/>
+      <c r="BW22" s="61"/>
       <c r="BX22" s="43"/>
       <c r="BY22" s="43"/>
       <c r="BZ22" s="43"/>
@@ -7033,7 +7062,7 @@
       <c r="CE22" s="43"/>
       <c r="CF22" s="43"/>
       <c r="CG22" s="44"/>
-      <c r="CH22" s="145"/>
+      <c r="CH22" s="148"/>
       <c r="CI22" s="39"/>
     </row>
     <row r="23" spans="1:88" x14ac:dyDescent="0.25">
@@ -7042,10 +7071,10 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="35"/>
-      <c r="H23" s="75"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="60"/>
-      <c r="K23" s="61"/>
+      <c r="H23" s="78"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="63"/>
+      <c r="K23" s="64"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1" t="s">
         <v>8</v>
@@ -7058,27 +7087,27 @@
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
       <c r="U23" s="39"/>
-      <c r="V23" s="145"/>
-      <c r="W23" s="165"/>
-      <c r="X23" s="166"/>
-      <c r="Y23" s="166"/>
-      <c r="Z23" s="166"/>
-      <c r="AA23" s="166"/>
-      <c r="AB23" s="166"/>
-      <c r="AC23" s="166"/>
-      <c r="AD23" s="166"/>
-      <c r="AE23" s="166"/>
-      <c r="AF23" s="166"/>
-      <c r="AG23" s="166"/>
-      <c r="AH23" s="166"/>
-      <c r="AI23" s="166"/>
-      <c r="AJ23" s="166"/>
-      <c r="AK23" s="166"/>
-      <c r="AL23" s="166"/>
-      <c r="AM23" s="166"/>
-      <c r="AN23" s="166"/>
-      <c r="AO23" s="166"/>
-      <c r="AP23" s="167"/>
+      <c r="V23" s="148"/>
+      <c r="W23" s="168"/>
+      <c r="X23" s="169"/>
+      <c r="Y23" s="169"/>
+      <c r="Z23" s="169"/>
+      <c r="AA23" s="169"/>
+      <c r="AB23" s="169"/>
+      <c r="AC23" s="169"/>
+      <c r="AD23" s="169"/>
+      <c r="AE23" s="169"/>
+      <c r="AF23" s="169"/>
+      <c r="AG23" s="169"/>
+      <c r="AH23" s="169"/>
+      <c r="AI23" s="169"/>
+      <c r="AJ23" s="169"/>
+      <c r="AK23" s="169"/>
+      <c r="AL23" s="169"/>
+      <c r="AM23" s="169"/>
+      <c r="AN23" s="169"/>
+      <c r="AO23" s="169"/>
+      <c r="AP23" s="170"/>
       <c r="AQ23" s="39"/>
       <c r="AU23" s="47"/>
       <c r="AV23" s="6"/>
@@ -7102,10 +7131,10 @@
       <c r="BN23" s="48"/>
       <c r="BO23" s="39"/>
       <c r="BS23" s="42"/>
-      <c r="BT23" s="75"/>
-      <c r="BU23" s="60"/>
-      <c r="BV23" s="60"/>
-      <c r="BW23" s="61"/>
+      <c r="BT23" s="78"/>
+      <c r="BU23" s="63"/>
+      <c r="BV23" s="63"/>
+      <c r="BW23" s="64"/>
       <c r="BX23" s="1"/>
       <c r="BY23" s="1" t="s">
         <v>8</v>
@@ -7118,7 +7147,7 @@
       <c r="CE23" s="1"/>
       <c r="CF23" s="1"/>
       <c r="CG23" s="39"/>
-      <c r="CH23" s="145"/>
+      <c r="CH23" s="148"/>
       <c r="CI23" s="39"/>
     </row>
     <row r="24" spans="1:88" x14ac:dyDescent="0.25">
@@ -7127,10 +7156,10 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="35"/>
-      <c r="H24" s="75"/>
-      <c r="I24" s="60"/>
-      <c r="J24" s="60"/>
-      <c r="K24" s="61"/>
+      <c r="H24" s="78"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="63"/>
+      <c r="K24" s="64"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
@@ -7141,29 +7170,29 @@
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
       <c r="U24" s="39"/>
-      <c r="V24" s="145"/>
-      <c r="W24" s="150" t="s">
+      <c r="V24" s="148"/>
+      <c r="W24" s="153" t="s">
         <v>24</v>
       </c>
-      <c r="X24" s="151"/>
-      <c r="Y24" s="151"/>
-      <c r="Z24" s="151"/>
-      <c r="AA24" s="151"/>
-      <c r="AB24" s="151"/>
-      <c r="AC24" s="151"/>
-      <c r="AD24" s="151"/>
-      <c r="AE24" s="151"/>
-      <c r="AF24" s="151"/>
-      <c r="AG24" s="151"/>
-      <c r="AH24" s="151"/>
-      <c r="AI24" s="151"/>
-      <c r="AJ24" s="151"/>
-      <c r="AK24" s="151"/>
-      <c r="AL24" s="151"/>
-      <c r="AM24" s="151"/>
-      <c r="AN24" s="151"/>
-      <c r="AO24" s="151"/>
-      <c r="AP24" s="152"/>
+      <c r="X24" s="154"/>
+      <c r="Y24" s="154"/>
+      <c r="Z24" s="154"/>
+      <c r="AA24" s="154"/>
+      <c r="AB24" s="154"/>
+      <c r="AC24" s="154"/>
+      <c r="AD24" s="154"/>
+      <c r="AE24" s="154"/>
+      <c r="AF24" s="154"/>
+      <c r="AG24" s="154"/>
+      <c r="AH24" s="154"/>
+      <c r="AI24" s="154"/>
+      <c r="AJ24" s="154"/>
+      <c r="AK24" s="154"/>
+      <c r="AL24" s="154"/>
+      <c r="AM24" s="154"/>
+      <c r="AN24" s="154"/>
+      <c r="AO24" s="154"/>
+      <c r="AP24" s="155"/>
       <c r="AQ24" s="39"/>
       <c r="AU24" s="47"/>
       <c r="AV24" s="6"/>
@@ -7187,10 +7216,10 @@
       <c r="BN24" s="48"/>
       <c r="BO24" s="39"/>
       <c r="BS24" s="42"/>
-      <c r="BT24" s="75"/>
-      <c r="BU24" s="60"/>
-      <c r="BV24" s="60"/>
-      <c r="BW24" s="61"/>
+      <c r="BT24" s="78"/>
+      <c r="BU24" s="63"/>
+      <c r="BV24" s="63"/>
+      <c r="BW24" s="64"/>
       <c r="BX24" s="1"/>
       <c r="BY24" s="1"/>
       <c r="BZ24" s="1"/>
@@ -7201,7 +7230,7 @@
       <c r="CE24" s="1"/>
       <c r="CF24" s="1"/>
       <c r="CG24" s="39"/>
-      <c r="CH24" s="145"/>
+      <c r="CH24" s="148"/>
       <c r="CI24" s="39"/>
     </row>
     <row r="25" spans="1:88" x14ac:dyDescent="0.25">
@@ -7210,10 +7239,10 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="35"/>
-      <c r="H25" s="143"/>
-      <c r="I25" s="63"/>
-      <c r="J25" s="63"/>
-      <c r="K25" s="64"/>
+      <c r="H25" s="146"/>
+      <c r="I25" s="66"/>
+      <c r="J25" s="66"/>
+      <c r="K25" s="67"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -7224,27 +7253,27 @@
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
       <c r="U25" s="40"/>
-      <c r="V25" s="145"/>
-      <c r="W25" s="153"/>
-      <c r="X25" s="154"/>
-      <c r="Y25" s="154"/>
-      <c r="Z25" s="154"/>
-      <c r="AA25" s="154"/>
-      <c r="AB25" s="154"/>
-      <c r="AC25" s="154"/>
-      <c r="AD25" s="154"/>
-      <c r="AE25" s="154"/>
-      <c r="AF25" s="154"/>
-      <c r="AG25" s="154"/>
-      <c r="AH25" s="154"/>
-      <c r="AI25" s="154"/>
-      <c r="AJ25" s="154"/>
-      <c r="AK25" s="154"/>
-      <c r="AL25" s="154"/>
-      <c r="AM25" s="154"/>
-      <c r="AN25" s="154"/>
-      <c r="AO25" s="154"/>
-      <c r="AP25" s="155"/>
+      <c r="V25" s="148"/>
+      <c r="W25" s="156"/>
+      <c r="X25" s="157"/>
+      <c r="Y25" s="157"/>
+      <c r="Z25" s="157"/>
+      <c r="AA25" s="157"/>
+      <c r="AB25" s="157"/>
+      <c r="AC25" s="157"/>
+      <c r="AD25" s="157"/>
+      <c r="AE25" s="157"/>
+      <c r="AF25" s="157"/>
+      <c r="AG25" s="157"/>
+      <c r="AH25" s="157"/>
+      <c r="AI25" s="157"/>
+      <c r="AJ25" s="157"/>
+      <c r="AK25" s="157"/>
+      <c r="AL25" s="157"/>
+      <c r="AM25" s="157"/>
+      <c r="AN25" s="157"/>
+      <c r="AO25" s="157"/>
+      <c r="AP25" s="158"/>
       <c r="AQ25" s="39"/>
       <c r="AU25" s="47"/>
       <c r="AV25" s="6"/>
@@ -7268,10 +7297,10 @@
       <c r="BN25" s="48"/>
       <c r="BO25" s="39"/>
       <c r="BS25" s="42"/>
-      <c r="BT25" s="143"/>
-      <c r="BU25" s="63"/>
-      <c r="BV25" s="63"/>
-      <c r="BW25" s="64"/>
+      <c r="BT25" s="146"/>
+      <c r="BU25" s="66"/>
+      <c r="BV25" s="66"/>
+      <c r="BW25" s="67"/>
       <c r="BX25" s="2"/>
       <c r="BY25" s="2"/>
       <c r="BZ25" s="2"/>
@@ -7282,21 +7311,21 @@
       <c r="CE25" s="2"/>
       <c r="CF25" s="2"/>
       <c r="CG25" s="40"/>
-      <c r="CH25" s="145"/>
+      <c r="CH25" s="148"/>
       <c r="CI25" s="39"/>
     </row>
     <row r="26" spans="1:88" x14ac:dyDescent="0.25">
       <c r="C26" s="29"/>
       <c r="D26" s="34"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="58"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="61"/>
       <c r="G26" s="35"/>
-      <c r="H26" s="113" t="s">
+      <c r="H26" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="I26" s="57"/>
-      <c r="J26" s="57"/>
-      <c r="K26" s="58"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="60"/>
+      <c r="K26" s="61"/>
       <c r="L26" s="43"/>
       <c r="M26" s="43"/>
       <c r="N26" s="43"/>
@@ -7307,27 +7336,27 @@
       <c r="S26" s="43"/>
       <c r="T26" s="43"/>
       <c r="U26" s="44"/>
-      <c r="V26" s="145"/>
-      <c r="W26" s="156"/>
-      <c r="X26" s="157"/>
-      <c r="Y26" s="157"/>
-      <c r="Z26" s="157"/>
-      <c r="AA26" s="157"/>
-      <c r="AB26" s="157"/>
-      <c r="AC26" s="157"/>
-      <c r="AD26" s="157"/>
-      <c r="AE26" s="157"/>
-      <c r="AF26" s="157"/>
-      <c r="AG26" s="157"/>
-      <c r="AH26" s="157"/>
-      <c r="AI26" s="157"/>
-      <c r="AJ26" s="157"/>
-      <c r="AK26" s="157"/>
-      <c r="AL26" s="157"/>
-      <c r="AM26" s="157"/>
-      <c r="AN26" s="157"/>
-      <c r="AO26" s="157"/>
-      <c r="AP26" s="158"/>
+      <c r="V26" s="148"/>
+      <c r="W26" s="159"/>
+      <c r="X26" s="160"/>
+      <c r="Y26" s="160"/>
+      <c r="Z26" s="160"/>
+      <c r="AA26" s="160"/>
+      <c r="AB26" s="160"/>
+      <c r="AC26" s="160"/>
+      <c r="AD26" s="160"/>
+      <c r="AE26" s="160"/>
+      <c r="AF26" s="160"/>
+      <c r="AG26" s="160"/>
+      <c r="AH26" s="160"/>
+      <c r="AI26" s="160"/>
+      <c r="AJ26" s="160"/>
+      <c r="AK26" s="160"/>
+      <c r="AL26" s="160"/>
+      <c r="AM26" s="160"/>
+      <c r="AN26" s="160"/>
+      <c r="AO26" s="160"/>
+      <c r="AP26" s="161"/>
       <c r="AQ26" s="39"/>
       <c r="AU26" s="47"/>
       <c r="AV26" s="6"/>
@@ -7351,12 +7380,12 @@
       <c r="BN26" s="48"/>
       <c r="BO26" s="39"/>
       <c r="BS26" s="42"/>
-      <c r="BT26" s="113" t="s">
+      <c r="BT26" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="BU26" s="57"/>
-      <c r="BV26" s="57"/>
-      <c r="BW26" s="58"/>
+      <c r="BU26" s="60"/>
+      <c r="BV26" s="60"/>
+      <c r="BW26" s="61"/>
       <c r="BX26" s="43"/>
       <c r="BY26" s="43"/>
       <c r="BZ26" s="43"/>
@@ -7367,19 +7396,19 @@
       <c r="CE26" s="43"/>
       <c r="CF26" s="43"/>
       <c r="CG26" s="44"/>
-      <c r="CH26" s="145"/>
+      <c r="CH26" s="148"/>
       <c r="CI26" s="39"/>
     </row>
     <row r="27" spans="1:88" x14ac:dyDescent="0.25">
       <c r="C27" s="29"/>
       <c r="D27" s="34"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="64"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="67"/>
       <c r="G27" s="35"/>
-      <c r="H27" s="75"/>
-      <c r="I27" s="60"/>
-      <c r="J27" s="60"/>
-      <c r="K27" s="61"/>
+      <c r="H27" s="78"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="63"/>
+      <c r="K27" s="64"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1" t="s">
         <v>8</v>
@@ -7392,29 +7421,29 @@
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
       <c r="U27" s="39"/>
-      <c r="V27" s="145"/>
-      <c r="W27" s="159" t="s">
+      <c r="V27" s="148"/>
+      <c r="W27" s="162" t="s">
         <v>25</v>
       </c>
-      <c r="X27" s="160"/>
-      <c r="Y27" s="160"/>
-      <c r="Z27" s="160"/>
-      <c r="AA27" s="160"/>
-      <c r="AB27" s="160"/>
-      <c r="AC27" s="160"/>
-      <c r="AD27" s="160"/>
-      <c r="AE27" s="160"/>
-      <c r="AF27" s="160"/>
-      <c r="AG27" s="160"/>
-      <c r="AH27" s="160"/>
-      <c r="AI27" s="160"/>
-      <c r="AJ27" s="160"/>
-      <c r="AK27" s="160"/>
-      <c r="AL27" s="160"/>
-      <c r="AM27" s="160"/>
-      <c r="AN27" s="160"/>
-      <c r="AO27" s="160"/>
-      <c r="AP27" s="161"/>
+      <c r="X27" s="163"/>
+      <c r="Y27" s="163"/>
+      <c r="Z27" s="163"/>
+      <c r="AA27" s="163"/>
+      <c r="AB27" s="163"/>
+      <c r="AC27" s="163"/>
+      <c r="AD27" s="163"/>
+      <c r="AE27" s="163"/>
+      <c r="AF27" s="163"/>
+      <c r="AG27" s="163"/>
+      <c r="AH27" s="163"/>
+      <c r="AI27" s="163"/>
+      <c r="AJ27" s="163"/>
+      <c r="AK27" s="163"/>
+      <c r="AL27" s="163"/>
+      <c r="AM27" s="163"/>
+      <c r="AN27" s="163"/>
+      <c r="AO27" s="163"/>
+      <c r="AP27" s="164"/>
       <c r="AQ27" s="39"/>
       <c r="AU27" s="47"/>
       <c r="AV27" s="6"/>
@@ -7438,10 +7467,10 @@
       <c r="BN27" s="48"/>
       <c r="BO27" s="39"/>
       <c r="BS27" s="42"/>
-      <c r="BT27" s="75"/>
-      <c r="BU27" s="60"/>
-      <c r="BV27" s="60"/>
-      <c r="BW27" s="61"/>
+      <c r="BT27" s="78"/>
+      <c r="BU27" s="63"/>
+      <c r="BV27" s="63"/>
+      <c r="BW27" s="64"/>
       <c r="BX27" s="1"/>
       <c r="BY27" s="1" t="s">
         <v>8</v>
@@ -7454,7 +7483,7 @@
       <c r="CE27" s="1"/>
       <c r="CF27" s="1"/>
       <c r="CG27" s="39"/>
-      <c r="CH27" s="145"/>
+      <c r="CH27" s="148"/>
       <c r="CI27" s="39"/>
     </row>
     <row r="28" spans="1:88" x14ac:dyDescent="0.25">
@@ -7463,10 +7492,10 @@
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="35"/>
-      <c r="H28" s="75"/>
-      <c r="I28" s="60"/>
-      <c r="J28" s="60"/>
-      <c r="K28" s="61"/>
+      <c r="H28" s="78"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="63"/>
+      <c r="K28" s="64"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
@@ -7477,27 +7506,27 @@
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
       <c r="U28" s="39"/>
-      <c r="V28" s="145"/>
-      <c r="W28" s="162"/>
-      <c r="X28" s="163"/>
-      <c r="Y28" s="163"/>
-      <c r="Z28" s="163"/>
-      <c r="AA28" s="163"/>
-      <c r="AB28" s="163"/>
-      <c r="AC28" s="163"/>
-      <c r="AD28" s="163"/>
-      <c r="AE28" s="163"/>
-      <c r="AF28" s="163"/>
-      <c r="AG28" s="163"/>
-      <c r="AH28" s="163"/>
-      <c r="AI28" s="163"/>
-      <c r="AJ28" s="163"/>
-      <c r="AK28" s="163"/>
-      <c r="AL28" s="163"/>
-      <c r="AM28" s="163"/>
-      <c r="AN28" s="163"/>
-      <c r="AO28" s="163"/>
-      <c r="AP28" s="164"/>
+      <c r="V28" s="148"/>
+      <c r="W28" s="165"/>
+      <c r="X28" s="166"/>
+      <c r="Y28" s="166"/>
+      <c r="Z28" s="166"/>
+      <c r="AA28" s="166"/>
+      <c r="AB28" s="166"/>
+      <c r="AC28" s="166"/>
+      <c r="AD28" s="166"/>
+      <c r="AE28" s="166"/>
+      <c r="AF28" s="166"/>
+      <c r="AG28" s="166"/>
+      <c r="AH28" s="166"/>
+      <c r="AI28" s="166"/>
+      <c r="AJ28" s="166"/>
+      <c r="AK28" s="166"/>
+      <c r="AL28" s="166"/>
+      <c r="AM28" s="166"/>
+      <c r="AN28" s="166"/>
+      <c r="AO28" s="166"/>
+      <c r="AP28" s="167"/>
       <c r="AQ28" s="39"/>
       <c r="AU28" s="47"/>
       <c r="AV28" s="6"/>
@@ -7521,10 +7550,10 @@
       <c r="BN28" s="48"/>
       <c r="BO28" s="39"/>
       <c r="BS28" s="42"/>
-      <c r="BT28" s="75"/>
-      <c r="BU28" s="60"/>
-      <c r="BV28" s="60"/>
-      <c r="BW28" s="61"/>
+      <c r="BT28" s="78"/>
+      <c r="BU28" s="63"/>
+      <c r="BV28" s="63"/>
+      <c r="BW28" s="64"/>
       <c r="BX28" s="1"/>
       <c r="BY28" s="1"/>
       <c r="BZ28" s="1"/>
@@ -7535,19 +7564,19 @@
       <c r="CE28" s="1"/>
       <c r="CF28" s="1"/>
       <c r="CG28" s="39"/>
-      <c r="CH28" s="145"/>
+      <c r="CH28" s="148"/>
       <c r="CI28" s="39"/>
     </row>
     <row r="29" spans="1:88" x14ac:dyDescent="0.25">
       <c r="C29" s="29"/>
       <c r="D29" s="34"/>
-      <c r="E29" s="56"/>
-      <c r="F29" s="58"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="61"/>
       <c r="G29" s="35"/>
-      <c r="H29" s="143"/>
-      <c r="I29" s="63"/>
-      <c r="J29" s="63"/>
-      <c r="K29" s="64"/>
+      <c r="H29" s="146"/>
+      <c r="I29" s="66"/>
+      <c r="J29" s="66"/>
+      <c r="K29" s="67"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -7558,27 +7587,27 @@
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>
       <c r="U29" s="40"/>
-      <c r="V29" s="145"/>
-      <c r="W29" s="165"/>
-      <c r="X29" s="166"/>
-      <c r="Y29" s="166"/>
-      <c r="Z29" s="166"/>
-      <c r="AA29" s="166"/>
-      <c r="AB29" s="166"/>
-      <c r="AC29" s="166"/>
-      <c r="AD29" s="166"/>
-      <c r="AE29" s="166"/>
-      <c r="AF29" s="166"/>
-      <c r="AG29" s="166"/>
-      <c r="AH29" s="166"/>
-      <c r="AI29" s="166"/>
-      <c r="AJ29" s="166"/>
-      <c r="AK29" s="166"/>
-      <c r="AL29" s="166"/>
-      <c r="AM29" s="166"/>
-      <c r="AN29" s="166"/>
-      <c r="AO29" s="166"/>
-      <c r="AP29" s="167"/>
+      <c r="V29" s="148"/>
+      <c r="W29" s="168"/>
+      <c r="X29" s="169"/>
+      <c r="Y29" s="169"/>
+      <c r="Z29" s="169"/>
+      <c r="AA29" s="169"/>
+      <c r="AB29" s="169"/>
+      <c r="AC29" s="169"/>
+      <c r="AD29" s="169"/>
+      <c r="AE29" s="169"/>
+      <c r="AF29" s="169"/>
+      <c r="AG29" s="169"/>
+      <c r="AH29" s="169"/>
+      <c r="AI29" s="169"/>
+      <c r="AJ29" s="169"/>
+      <c r="AK29" s="169"/>
+      <c r="AL29" s="169"/>
+      <c r="AM29" s="169"/>
+      <c r="AN29" s="169"/>
+      <c r="AO29" s="169"/>
+      <c r="AP29" s="170"/>
       <c r="AQ29" s="39"/>
       <c r="AU29" s="47"/>
       <c r="AV29" s="6"/>
@@ -7602,10 +7631,10 @@
       <c r="BN29" s="48"/>
       <c r="BO29" s="39"/>
       <c r="BS29" s="42"/>
-      <c r="BT29" s="143"/>
-      <c r="BU29" s="63"/>
-      <c r="BV29" s="63"/>
-      <c r="BW29" s="64"/>
+      <c r="BT29" s="146"/>
+      <c r="BU29" s="66"/>
+      <c r="BV29" s="66"/>
+      <c r="BW29" s="67"/>
       <c r="BX29" s="2"/>
       <c r="BY29" s="2"/>
       <c r="BZ29" s="2"/>
@@ -7616,21 +7645,21 @@
       <c r="CE29" s="2"/>
       <c r="CF29" s="2"/>
       <c r="CG29" s="40"/>
-      <c r="CH29" s="145"/>
+      <c r="CH29" s="148"/>
       <c r="CI29" s="39"/>
     </row>
     <row r="30" spans="1:88" x14ac:dyDescent="0.25">
       <c r="C30" s="29"/>
       <c r="D30" s="34"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="64"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="67"/>
       <c r="G30" s="35"/>
-      <c r="H30" s="113" t="s">
+      <c r="H30" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="I30" s="57"/>
-      <c r="J30" s="57"/>
-      <c r="K30" s="58"/>
+      <c r="I30" s="60"/>
+      <c r="J30" s="60"/>
+      <c r="K30" s="61"/>
       <c r="L30" s="43"/>
       <c r="M30" s="43"/>
       <c r="N30" s="43"/>
@@ -7641,29 +7670,29 @@
       <c r="S30" s="43"/>
       <c r="T30" s="43"/>
       <c r="U30" s="44"/>
-      <c r="V30" s="145"/>
-      <c r="W30" s="150" t="s">
+      <c r="V30" s="148"/>
+      <c r="W30" s="153" t="s">
         <v>24</v>
       </c>
-      <c r="X30" s="151"/>
-      <c r="Y30" s="151"/>
-      <c r="Z30" s="151"/>
-      <c r="AA30" s="151"/>
-      <c r="AB30" s="151"/>
-      <c r="AC30" s="151"/>
-      <c r="AD30" s="151"/>
-      <c r="AE30" s="151"/>
-      <c r="AF30" s="151"/>
-      <c r="AG30" s="151"/>
-      <c r="AH30" s="151"/>
-      <c r="AI30" s="151"/>
-      <c r="AJ30" s="151"/>
-      <c r="AK30" s="151"/>
-      <c r="AL30" s="151"/>
-      <c r="AM30" s="151"/>
-      <c r="AN30" s="151"/>
-      <c r="AO30" s="151"/>
-      <c r="AP30" s="152"/>
+      <c r="X30" s="154"/>
+      <c r="Y30" s="154"/>
+      <c r="Z30" s="154"/>
+      <c r="AA30" s="154"/>
+      <c r="AB30" s="154"/>
+      <c r="AC30" s="154"/>
+      <c r="AD30" s="154"/>
+      <c r="AE30" s="154"/>
+      <c r="AF30" s="154"/>
+      <c r="AG30" s="154"/>
+      <c r="AH30" s="154"/>
+      <c r="AI30" s="154"/>
+      <c r="AJ30" s="154"/>
+      <c r="AK30" s="154"/>
+      <c r="AL30" s="154"/>
+      <c r="AM30" s="154"/>
+      <c r="AN30" s="154"/>
+      <c r="AO30" s="154"/>
+      <c r="AP30" s="155"/>
       <c r="AQ30" s="39"/>
       <c r="AU30" s="47"/>
       <c r="AV30" s="6"/>
@@ -7687,12 +7716,12 @@
       <c r="BN30" s="48"/>
       <c r="BO30" s="39"/>
       <c r="BS30" s="42"/>
-      <c r="BT30" s="113" t="s">
+      <c r="BT30" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="BU30" s="57"/>
-      <c r="BV30" s="57"/>
-      <c r="BW30" s="58"/>
+      <c r="BU30" s="60"/>
+      <c r="BV30" s="60"/>
+      <c r="BW30" s="61"/>
       <c r="BX30" s="43"/>
       <c r="BY30" s="43"/>
       <c r="BZ30" s="43"/>
@@ -7703,7 +7732,7 @@
       <c r="CE30" s="43"/>
       <c r="CF30" s="43"/>
       <c r="CG30" s="44"/>
-      <c r="CH30" s="145"/>
+      <c r="CH30" s="148"/>
       <c r="CI30" s="39"/>
     </row>
     <row r="31" spans="1:88" x14ac:dyDescent="0.25">
@@ -7712,10 +7741,10 @@
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="35"/>
-      <c r="H31" s="75"/>
-      <c r="I31" s="60"/>
-      <c r="J31" s="60"/>
-      <c r="K31" s="61"/>
+      <c r="H31" s="78"/>
+      <c r="I31" s="63"/>
+      <c r="J31" s="63"/>
+      <c r="K31" s="64"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1" t="s">
         <v>8</v>
@@ -7728,27 +7757,27 @@
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
       <c r="U31" s="39"/>
-      <c r="V31" s="145"/>
-      <c r="W31" s="153"/>
-      <c r="X31" s="154"/>
-      <c r="Y31" s="154"/>
-      <c r="Z31" s="154"/>
-      <c r="AA31" s="154"/>
-      <c r="AB31" s="154"/>
-      <c r="AC31" s="154"/>
-      <c r="AD31" s="154"/>
-      <c r="AE31" s="154"/>
-      <c r="AF31" s="154"/>
-      <c r="AG31" s="154"/>
-      <c r="AH31" s="154"/>
-      <c r="AI31" s="154"/>
-      <c r="AJ31" s="154"/>
-      <c r="AK31" s="154"/>
-      <c r="AL31" s="154"/>
-      <c r="AM31" s="154"/>
-      <c r="AN31" s="154"/>
-      <c r="AO31" s="154"/>
-      <c r="AP31" s="155"/>
+      <c r="V31" s="148"/>
+      <c r="W31" s="156"/>
+      <c r="X31" s="157"/>
+      <c r="Y31" s="157"/>
+      <c r="Z31" s="157"/>
+      <c r="AA31" s="157"/>
+      <c r="AB31" s="157"/>
+      <c r="AC31" s="157"/>
+      <c r="AD31" s="157"/>
+      <c r="AE31" s="157"/>
+      <c r="AF31" s="157"/>
+      <c r="AG31" s="157"/>
+      <c r="AH31" s="157"/>
+      <c r="AI31" s="157"/>
+      <c r="AJ31" s="157"/>
+      <c r="AK31" s="157"/>
+      <c r="AL31" s="157"/>
+      <c r="AM31" s="157"/>
+      <c r="AN31" s="157"/>
+      <c r="AO31" s="157"/>
+      <c r="AP31" s="158"/>
       <c r="AQ31" s="39"/>
       <c r="AU31" s="47"/>
       <c r="AV31" s="6"/>
@@ -7772,10 +7801,10 @@
       <c r="BN31" s="48"/>
       <c r="BO31" s="39"/>
       <c r="BS31" s="42"/>
-      <c r="BT31" s="75"/>
-      <c r="BU31" s="60"/>
-      <c r="BV31" s="60"/>
-      <c r="BW31" s="61"/>
+      <c r="BT31" s="78"/>
+      <c r="BU31" s="63"/>
+      <c r="BV31" s="63"/>
+      <c r="BW31" s="64"/>
       <c r="BX31" s="1"/>
       <c r="BY31" s="1" t="s">
         <v>8</v>
@@ -7788,19 +7817,19 @@
       <c r="CE31" s="1"/>
       <c r="CF31" s="1"/>
       <c r="CG31" s="39"/>
-      <c r="CH31" s="145"/>
+      <c r="CH31" s="148"/>
       <c r="CI31" s="39"/>
     </row>
     <row r="32" spans="1:88" x14ac:dyDescent="0.25">
       <c r="C32" s="29"/>
       <c r="D32" s="34"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="58"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="61"/>
       <c r="G32" s="35"/>
-      <c r="H32" s="75"/>
-      <c r="I32" s="60"/>
-      <c r="J32" s="60"/>
-      <c r="K32" s="61"/>
+      <c r="H32" s="78"/>
+      <c r="I32" s="63"/>
+      <c r="J32" s="63"/>
+      <c r="K32" s="64"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
@@ -7811,27 +7840,27 @@
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
       <c r="U32" s="39"/>
-      <c r="V32" s="145"/>
-      <c r="W32" s="156"/>
-      <c r="X32" s="157"/>
-      <c r="Y32" s="157"/>
-      <c r="Z32" s="157"/>
-      <c r="AA32" s="157"/>
-      <c r="AB32" s="157"/>
-      <c r="AC32" s="157"/>
-      <c r="AD32" s="157"/>
-      <c r="AE32" s="157"/>
-      <c r="AF32" s="157"/>
-      <c r="AG32" s="157"/>
-      <c r="AH32" s="157"/>
-      <c r="AI32" s="157"/>
-      <c r="AJ32" s="157"/>
-      <c r="AK32" s="157"/>
-      <c r="AL32" s="157"/>
-      <c r="AM32" s="157"/>
-      <c r="AN32" s="157"/>
-      <c r="AO32" s="157"/>
-      <c r="AP32" s="158"/>
+      <c r="V32" s="148"/>
+      <c r="W32" s="159"/>
+      <c r="X32" s="160"/>
+      <c r="Y32" s="160"/>
+      <c r="Z32" s="160"/>
+      <c r="AA32" s="160"/>
+      <c r="AB32" s="160"/>
+      <c r="AC32" s="160"/>
+      <c r="AD32" s="160"/>
+      <c r="AE32" s="160"/>
+      <c r="AF32" s="160"/>
+      <c r="AG32" s="160"/>
+      <c r="AH32" s="160"/>
+      <c r="AI32" s="160"/>
+      <c r="AJ32" s="160"/>
+      <c r="AK32" s="160"/>
+      <c r="AL32" s="160"/>
+      <c r="AM32" s="160"/>
+      <c r="AN32" s="160"/>
+      <c r="AO32" s="160"/>
+      <c r="AP32" s="161"/>
       <c r="AQ32" s="39"/>
       <c r="AU32" s="47"/>
       <c r="AV32" s="6"/>
@@ -7855,10 +7884,10 @@
       <c r="BN32" s="48"/>
       <c r="BO32" s="39"/>
       <c r="BS32" s="42"/>
-      <c r="BT32" s="75"/>
-      <c r="BU32" s="60"/>
-      <c r="BV32" s="60"/>
-      <c r="BW32" s="61"/>
+      <c r="BT32" s="78"/>
+      <c r="BU32" s="63"/>
+      <c r="BV32" s="63"/>
+      <c r="BW32" s="64"/>
       <c r="BX32" s="1"/>
       <c r="BY32" s="1"/>
       <c r="BZ32" s="1"/>
@@ -7869,19 +7898,19 @@
       <c r="CE32" s="1"/>
       <c r="CF32" s="1"/>
       <c r="CG32" s="39"/>
-      <c r="CH32" s="145"/>
+      <c r="CH32" s="148"/>
       <c r="CI32" s="39"/>
     </row>
     <row r="33" spans="3:87" x14ac:dyDescent="0.25">
       <c r="C33" s="29"/>
       <c r="D33" s="34"/>
-      <c r="E33" s="62"/>
-      <c r="F33" s="64"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="67"/>
       <c r="G33" s="35"/>
-      <c r="H33" s="143"/>
-      <c r="I33" s="63"/>
-      <c r="J33" s="63"/>
-      <c r="K33" s="64"/>
+      <c r="H33" s="146"/>
+      <c r="I33" s="66"/>
+      <c r="J33" s="66"/>
+      <c r="K33" s="67"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -7892,31 +7921,31 @@
       <c r="S33" s="2"/>
       <c r="T33" s="2"/>
       <c r="U33" s="40"/>
-      <c r="V33" s="145"/>
-      <c r="W33" s="113" t="s">
+      <c r="V33" s="148"/>
+      <c r="W33" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="X33" s="57"/>
-      <c r="Y33" s="57"/>
-      <c r="Z33" s="57"/>
-      <c r="AA33" s="57"/>
-      <c r="AB33" s="57"/>
-      <c r="AC33" s="57"/>
-      <c r="AD33" s="57"/>
-      <c r="AE33" s="57"/>
-      <c r="AF33" s="57"/>
-      <c r="AG33" s="57"/>
-      <c r="AH33" s="57"/>
-      <c r="AI33" s="57"/>
-      <c r="AJ33" s="57"/>
-      <c r="AK33" s="57"/>
-      <c r="AL33" s="57"/>
-      <c r="AM33" s="57"/>
-      <c r="AN33" s="56" t="s">
+      <c r="X33" s="60"/>
+      <c r="Y33" s="60"/>
+      <c r="Z33" s="60"/>
+      <c r="AA33" s="60"/>
+      <c r="AB33" s="60"/>
+      <c r="AC33" s="60"/>
+      <c r="AD33" s="60"/>
+      <c r="AE33" s="60"/>
+      <c r="AF33" s="60"/>
+      <c r="AG33" s="60"/>
+      <c r="AH33" s="60"/>
+      <c r="AI33" s="60"/>
+      <c r="AJ33" s="60"/>
+      <c r="AK33" s="60"/>
+      <c r="AL33" s="60"/>
+      <c r="AM33" s="60"/>
+      <c r="AN33" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="AO33" s="57"/>
-      <c r="AP33" s="114"/>
+      <c r="AO33" s="60"/>
+      <c r="AP33" s="117"/>
       <c r="AQ33" s="39"/>
       <c r="AU33" s="47"/>
       <c r="AV33" s="6"/>
@@ -7940,10 +7969,10 @@
       <c r="BN33" s="48"/>
       <c r="BO33" s="39"/>
       <c r="BS33" s="42"/>
-      <c r="BT33" s="143"/>
-      <c r="BU33" s="63"/>
-      <c r="BV33" s="63"/>
-      <c r="BW33" s="64"/>
+      <c r="BT33" s="146"/>
+      <c r="BU33" s="66"/>
+      <c r="BV33" s="66"/>
+      <c r="BW33" s="67"/>
       <c r="BX33" s="2"/>
       <c r="BY33" s="2"/>
       <c r="BZ33" s="2"/>
@@ -7954,7 +7983,7 @@
       <c r="CE33" s="2"/>
       <c r="CF33" s="2"/>
       <c r="CG33" s="40"/>
-      <c r="CH33" s="145"/>
+      <c r="CH33" s="148"/>
       <c r="CI33" s="39"/>
     </row>
     <row r="34" spans="3:87" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7963,12 +7992,12 @@
       <c r="E34" s="37"/>
       <c r="F34" s="37"/>
       <c r="G34" s="38"/>
-      <c r="H34" s="147" t="s">
+      <c r="H34" s="150" t="s">
         <v>7</v>
       </c>
-      <c r="I34" s="148"/>
-      <c r="J34" s="148"/>
-      <c r="K34" s="149"/>
+      <c r="I34" s="151"/>
+      <c r="J34" s="151"/>
+      <c r="K34" s="152"/>
       <c r="L34" s="37"/>
       <c r="M34" s="37"/>
       <c r="N34" s="37"/>
@@ -7979,27 +8008,27 @@
       <c r="S34" s="45"/>
       <c r="T34" s="45"/>
       <c r="U34" s="46"/>
-      <c r="V34" s="146"/>
-      <c r="W34" s="77"/>
-      <c r="X34" s="78"/>
-      <c r="Y34" s="78"/>
-      <c r="Z34" s="78"/>
-      <c r="AA34" s="78"/>
-      <c r="AB34" s="78"/>
-      <c r="AC34" s="78"/>
-      <c r="AD34" s="78"/>
-      <c r="AE34" s="78"/>
-      <c r="AF34" s="78"/>
-      <c r="AG34" s="78"/>
-      <c r="AH34" s="78"/>
-      <c r="AI34" s="78"/>
-      <c r="AJ34" s="78"/>
-      <c r="AK34" s="78"/>
-      <c r="AL34" s="78"/>
-      <c r="AM34" s="78"/>
-      <c r="AN34" s="168"/>
-      <c r="AO34" s="78"/>
-      <c r="AP34" s="79"/>
+      <c r="V34" s="149"/>
+      <c r="W34" s="80"/>
+      <c r="X34" s="81"/>
+      <c r="Y34" s="81"/>
+      <c r="Z34" s="81"/>
+      <c r="AA34" s="81"/>
+      <c r="AB34" s="81"/>
+      <c r="AC34" s="81"/>
+      <c r="AD34" s="81"/>
+      <c r="AE34" s="81"/>
+      <c r="AF34" s="81"/>
+      <c r="AG34" s="81"/>
+      <c r="AH34" s="81"/>
+      <c r="AI34" s="81"/>
+      <c r="AJ34" s="81"/>
+      <c r="AK34" s="81"/>
+      <c r="AL34" s="81"/>
+      <c r="AM34" s="81"/>
+      <c r="AN34" s="171"/>
+      <c r="AO34" s="81"/>
+      <c r="AP34" s="82"/>
       <c r="AQ34" s="40"/>
       <c r="AU34" s="52"/>
       <c r="AV34" s="53"/>
@@ -8023,12 +8052,12 @@
       <c r="BN34" s="54"/>
       <c r="BO34" s="40"/>
       <c r="BS34" s="55"/>
-      <c r="BT34" s="147" t="s">
+      <c r="BT34" s="150" t="s">
         <v>7</v>
       </c>
-      <c r="BU34" s="148"/>
-      <c r="BV34" s="148"/>
-      <c r="BW34" s="149"/>
+      <c r="BU34" s="151"/>
+      <c r="BV34" s="151"/>
+      <c r="BW34" s="152"/>
       <c r="BX34" s="37"/>
       <c r="BY34" s="37"/>
       <c r="BZ34" s="37"/>
@@ -8039,12 +8068,15 @@
       <c r="CE34" s="45"/>
       <c r="CF34" s="45"/>
       <c r="CG34" s="46"/>
-      <c r="CH34" s="146"/>
+      <c r="CH34" s="149"/>
       <c r="CI34" s="40"/>
     </row>
     <row r="35" spans="3:87" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="41">
+  <mergeCells count="46">
+    <mergeCell ref="AX1:AY1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="P1:Q1"/>
     <mergeCell ref="U1:W1"/>
     <mergeCell ref="H3:J5"/>
     <mergeCell ref="V6:V34"/>
@@ -8057,6 +8089,8 @@
     <mergeCell ref="H30:K33"/>
     <mergeCell ref="H34:K34"/>
     <mergeCell ref="W33:AM34"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="M1:N1"/>
     <mergeCell ref="AN33:AP34"/>
     <mergeCell ref="W3:AP5"/>
     <mergeCell ref="W6:AP8"/>

--- a/GUI Designs/GUI designs.xlsx
+++ b/GUI Designs/GUI designs.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28740" windowHeight="12315" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28740" windowHeight="12315" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Android" sheetId="1" r:id="rId1"/>
     <sheet name="Windows" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="35">
   <si>
     <t>Stream2Me</t>
   </si>
@@ -124,6 +125,12 @@
   </si>
   <si>
     <t>:</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>H</t>
   </si>
 </sst>
 </file>
@@ -733,6 +740,39 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -742,254 +782,224 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1015,6 +1025,36 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1050,39 +1090,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3315,84 +3322,84 @@
       </c>
     </row>
     <row r="2" spans="2:47" x14ac:dyDescent="0.25">
-      <c r="B2" s="127"/>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="69"/>
-      <c r="N2" s="127"/>
-      <c r="O2" s="130"/>
-      <c r="P2" s="130"/>
-      <c r="Q2" s="130"/>
-      <c r="R2" s="130"/>
-      <c r="S2" s="130"/>
-      <c r="T2" s="130"/>
-      <c r="U2" s="130"/>
-      <c r="V2" s="130"/>
-      <c r="W2" s="69"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="63"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="62"/>
+      <c r="U2" s="62"/>
+      <c r="V2" s="62"/>
+      <c r="W2" s="63"/>
       <c r="X2" s="3"/>
-      <c r="Z2" s="113"/>
-      <c r="AA2" s="114"/>
-      <c r="AB2" s="114"/>
-      <c r="AC2" s="114"/>
-      <c r="AD2" s="114"/>
-      <c r="AE2" s="114"/>
-      <c r="AF2" s="114"/>
-      <c r="AG2" s="114"/>
-      <c r="AH2" s="114"/>
-      <c r="AI2" s="115"/>
+      <c r="Z2" s="98"/>
+      <c r="AA2" s="99"/>
+      <c r="AB2" s="99"/>
+      <c r="AC2" s="99"/>
+      <c r="AD2" s="99"/>
+      <c r="AE2" s="99"/>
+      <c r="AF2" s="99"/>
+      <c r="AG2" s="99"/>
+      <c r="AH2" s="99"/>
+      <c r="AI2" s="100"/>
       <c r="AJ2" s="3"/>
       <c r="AK2" s="25"/>
       <c r="AL2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="AM2" s="111" t="s">
+      <c r="AM2" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="AN2" s="111"/>
-      <c r="AO2" s="111"/>
-      <c r="AP2" s="111"/>
-      <c r="AQ2" s="111"/>
-      <c r="AR2" s="111"/>
-      <c r="AS2" s="111"/>
-      <c r="AT2" s="111"/>
-      <c r="AU2" s="112"/>
+      <c r="AN2" s="90"/>
+      <c r="AO2" s="90"/>
+      <c r="AP2" s="90"/>
+      <c r="AQ2" s="90"/>
+      <c r="AR2" s="90"/>
+      <c r="AS2" s="90"/>
+      <c r="AT2" s="90"/>
+      <c r="AU2" s="91"/>
     </row>
     <row r="3" spans="2:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="128"/>
-      <c r="C3" s="136" t="s">
+      <c r="B3" s="60"/>
+      <c r="C3" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="137"/>
-      <c r="E3" s="137"/>
-      <c r="F3" s="137"/>
-      <c r="G3" s="137"/>
-      <c r="H3" s="137"/>
-      <c r="I3" s="137"/>
-      <c r="J3" s="138"/>
-      <c r="K3" s="70"/>
-      <c r="N3" s="128"/>
-      <c r="O3" s="131" t="s">
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="64"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="P3" s="131"/>
-      <c r="Q3" s="131"/>
-      <c r="R3" s="131"/>
-      <c r="S3" s="131"/>
-      <c r="T3" s="131"/>
-      <c r="U3" s="131"/>
-      <c r="V3" s="131"/>
-      <c r="W3" s="70"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="66"/>
+      <c r="R3" s="66"/>
+      <c r="S3" s="66"/>
+      <c r="T3" s="66"/>
+      <c r="U3" s="66"/>
+      <c r="V3" s="66"/>
+      <c r="W3" s="64"/>
       <c r="X3" s="3"/>
-      <c r="Z3" s="118" t="s">
+      <c r="Z3" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="AA3" s="119"/>
+      <c r="AA3" s="107"/>
       <c r="AB3" s="9" t="s">
         <v>8</v>
       </c>
@@ -3405,90 +3412,90 @@
       <c r="AI3" s="8"/>
       <c r="AJ3" s="7"/>
       <c r="AK3" s="25"/>
-      <c r="AL3" s="89" t="s">
+      <c r="AL3" s="92" t="s">
         <v>24</v>
       </c>
-      <c r="AM3" s="90"/>
-      <c r="AN3" s="90"/>
-      <c r="AO3" s="90"/>
-      <c r="AP3" s="90"/>
-      <c r="AQ3" s="90"/>
-      <c r="AR3" s="90"/>
-      <c r="AS3" s="90"/>
-      <c r="AT3" s="90"/>
-      <c r="AU3" s="91"/>
+      <c r="AM3" s="93"/>
+      <c r="AN3" s="93"/>
+      <c r="AO3" s="93"/>
+      <c r="AP3" s="93"/>
+      <c r="AQ3" s="93"/>
+      <c r="AR3" s="93"/>
+      <c r="AS3" s="93"/>
+      <c r="AT3" s="93"/>
+      <c r="AU3" s="94"/>
     </row>
     <row r="4" spans="2:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="128"/>
-      <c r="C4" s="139"/>
-      <c r="D4" s="131"/>
-      <c r="E4" s="131"/>
-      <c r="F4" s="131"/>
-      <c r="G4" s="131"/>
-      <c r="H4" s="131"/>
-      <c r="I4" s="131"/>
-      <c r="J4" s="140"/>
-      <c r="K4" s="70"/>
-      <c r="N4" s="128"/>
-      <c r="O4" s="131"/>
-      <c r="P4" s="131"/>
-      <c r="Q4" s="131"/>
-      <c r="R4" s="131"/>
-      <c r="S4" s="131"/>
-      <c r="T4" s="131"/>
-      <c r="U4" s="131"/>
-      <c r="V4" s="131"/>
-      <c r="W4" s="70"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="64"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="66"/>
+      <c r="P4" s="66"/>
+      <c r="Q4" s="66"/>
+      <c r="R4" s="66"/>
+      <c r="S4" s="66"/>
+      <c r="T4" s="66"/>
+      <c r="U4" s="66"/>
+      <c r="V4" s="66"/>
+      <c r="W4" s="64"/>
       <c r="X4" s="3"/>
-      <c r="Z4" s="120"/>
-      <c r="AA4" s="121"/>
-      <c r="AB4" s="107"/>
-      <c r="AC4" s="107"/>
-      <c r="AD4" s="107"/>
-      <c r="AE4" s="107"/>
-      <c r="AF4" s="107"/>
-      <c r="AG4" s="107"/>
-      <c r="AH4" s="107"/>
+      <c r="Z4" s="108"/>
+      <c r="AA4" s="109"/>
+      <c r="AB4" s="87"/>
+      <c r="AC4" s="87"/>
+      <c r="AD4" s="87"/>
+      <c r="AE4" s="87"/>
+      <c r="AF4" s="87"/>
+      <c r="AG4" s="87"/>
+      <c r="AH4" s="87"/>
       <c r="AI4" s="4"/>
       <c r="AJ4" s="1"/>
       <c r="AK4" s="25"/>
-      <c r="AL4" s="92"/>
-      <c r="AM4" s="93"/>
-      <c r="AN4" s="93"/>
-      <c r="AO4" s="93"/>
-      <c r="AP4" s="93"/>
-      <c r="AQ4" s="93"/>
-      <c r="AR4" s="93"/>
-      <c r="AS4" s="93"/>
-      <c r="AT4" s="93"/>
-      <c r="AU4" s="94"/>
+      <c r="AL4" s="95"/>
+      <c r="AM4" s="96"/>
+      <c r="AN4" s="96"/>
+      <c r="AO4" s="96"/>
+      <c r="AP4" s="96"/>
+      <c r="AQ4" s="96"/>
+      <c r="AR4" s="96"/>
+      <c r="AS4" s="96"/>
+      <c r="AT4" s="96"/>
+      <c r="AU4" s="97"/>
     </row>
     <row r="5" spans="2:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="128"/>
-      <c r="C5" s="139"/>
-      <c r="D5" s="131"/>
-      <c r="E5" s="131"/>
-      <c r="F5" s="131"/>
-      <c r="G5" s="131"/>
-      <c r="H5" s="131"/>
-      <c r="I5" s="131"/>
-      <c r="J5" s="140"/>
-      <c r="K5" s="70"/>
-      <c r="N5" s="128"/>
-      <c r="O5" s="131"/>
-      <c r="P5" s="131"/>
-      <c r="Q5" s="131"/>
-      <c r="R5" s="131"/>
-      <c r="S5" s="131"/>
-      <c r="T5" s="131"/>
-      <c r="U5" s="131"/>
-      <c r="V5" s="131"/>
-      <c r="W5" s="70"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="82"/>
+      <c r="K5" s="64"/>
+      <c r="N5" s="60"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="66"/>
+      <c r="T5" s="66"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="64"/>
       <c r="X5" s="3"/>
-      <c r="Z5" s="118" t="s">
+      <c r="Z5" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="AA5" s="119"/>
+      <c r="AA5" s="107"/>
       <c r="AB5" s="9" t="s">
         <v>8</v>
       </c>
@@ -3501,31 +3508,31 @@
       <c r="AI5" s="8"/>
       <c r="AJ5" s="7"/>
       <c r="AK5" s="25"/>
-      <c r="AL5" s="83" t="s">
+      <c r="AL5" s="112" t="s">
         <v>25</v>
       </c>
-      <c r="AM5" s="84"/>
-      <c r="AN5" s="84"/>
-      <c r="AO5" s="84"/>
-      <c r="AP5" s="84"/>
-      <c r="AQ5" s="84"/>
-      <c r="AR5" s="84"/>
-      <c r="AS5" s="84"/>
-      <c r="AT5" s="84"/>
-      <c r="AU5" s="85"/>
+      <c r="AM5" s="113"/>
+      <c r="AN5" s="113"/>
+      <c r="AO5" s="113"/>
+      <c r="AP5" s="113"/>
+      <c r="AQ5" s="113"/>
+      <c r="AR5" s="113"/>
+      <c r="AS5" s="113"/>
+      <c r="AT5" s="113"/>
+      <c r="AU5" s="114"/>
     </row>
     <row r="6" spans="2:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="128"/>
-      <c r="C6" s="139"/>
-      <c r="D6" s="131"/>
-      <c r="E6" s="131"/>
-      <c r="F6" s="131"/>
-      <c r="G6" s="131"/>
-      <c r="H6" s="131"/>
-      <c r="I6" s="131"/>
-      <c r="J6" s="140"/>
-      <c r="K6" s="70"/>
-      <c r="N6" s="128"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="82"/>
+      <c r="K6" s="64"/>
+      <c r="N6" s="60"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
@@ -3534,10 +3541,10 @@
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
-      <c r="W6" s="70"/>
+      <c r="W6" s="64"/>
       <c r="X6" s="3"/>
-      <c r="Z6" s="120"/>
-      <c r="AA6" s="121"/>
+      <c r="Z6" s="108"/>
+      <c r="AA6" s="109"/>
       <c r="AB6" s="2"/>
       <c r="AC6" s="2"/>
       <c r="AD6" s="2"/>
@@ -3548,45 +3555,45 @@
       <c r="AI6" s="4"/>
       <c r="AJ6" s="1"/>
       <c r="AK6" s="25"/>
-      <c r="AL6" s="86"/>
-      <c r="AM6" s="87"/>
-      <c r="AN6" s="87"/>
-      <c r="AO6" s="87"/>
-      <c r="AP6" s="87"/>
-      <c r="AQ6" s="87"/>
-      <c r="AR6" s="87"/>
-      <c r="AS6" s="87"/>
-      <c r="AT6" s="87"/>
-      <c r="AU6" s="88"/>
+      <c r="AL6" s="128"/>
+      <c r="AM6" s="129"/>
+      <c r="AN6" s="129"/>
+      <c r="AO6" s="129"/>
+      <c r="AP6" s="129"/>
+      <c r="AQ6" s="129"/>
+      <c r="AR6" s="129"/>
+      <c r="AS6" s="129"/>
+      <c r="AT6" s="129"/>
+      <c r="AU6" s="130"/>
     </row>
     <row r="7" spans="2:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="128"/>
-      <c r="C7" s="139"/>
-      <c r="D7" s="131"/>
-      <c r="E7" s="131"/>
-      <c r="F7" s="131"/>
-      <c r="G7" s="131"/>
-      <c r="H7" s="131"/>
-      <c r="I7" s="131"/>
-      <c r="J7" s="140"/>
-      <c r="K7" s="70"/>
-      <c r="N7" s="128"/>
-      <c r="O7" s="144" t="s">
+      <c r="B7" s="60"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="82"/>
+      <c r="K7" s="64"/>
+      <c r="N7" s="60"/>
+      <c r="O7" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="P7" s="144"/>
-      <c r="Q7" s="144"/>
-      <c r="R7" s="144"/>
-      <c r="S7" s="144"/>
-      <c r="T7" s="144"/>
-      <c r="U7" s="144"/>
-      <c r="V7" s="144"/>
-      <c r="W7" s="70"/>
+      <c r="P7" s="86"/>
+      <c r="Q7" s="86"/>
+      <c r="R7" s="86"/>
+      <c r="S7" s="86"/>
+      <c r="T7" s="86"/>
+      <c r="U7" s="86"/>
+      <c r="V7" s="86"/>
+      <c r="W7" s="64"/>
       <c r="X7" s="3"/>
-      <c r="Z7" s="118" t="s">
+      <c r="Z7" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="AA7" s="119"/>
+      <c r="AA7" s="107"/>
       <c r="AB7" s="9" t="s">
         <v>8</v>
       </c>
@@ -3599,43 +3606,43 @@
       <c r="AI7" s="8"/>
       <c r="AJ7" s="7"/>
       <c r="AK7" s="25"/>
-      <c r="AL7" s="89" t="s">
+      <c r="AL7" s="92" t="s">
         <v>24</v>
       </c>
-      <c r="AM7" s="90"/>
-      <c r="AN7" s="90"/>
-      <c r="AO7" s="90"/>
-      <c r="AP7" s="90"/>
-      <c r="AQ7" s="90"/>
-      <c r="AR7" s="90"/>
-      <c r="AS7" s="90"/>
-      <c r="AT7" s="90"/>
-      <c r="AU7" s="91"/>
+      <c r="AM7" s="93"/>
+      <c r="AN7" s="93"/>
+      <c r="AO7" s="93"/>
+      <c r="AP7" s="93"/>
+      <c r="AQ7" s="93"/>
+      <c r="AR7" s="93"/>
+      <c r="AS7" s="93"/>
+      <c r="AT7" s="93"/>
+      <c r="AU7" s="94"/>
     </row>
     <row r="8" spans="2:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="128"/>
-      <c r="C8" s="139"/>
-      <c r="D8" s="131"/>
-      <c r="E8" s="131"/>
-      <c r="F8" s="131"/>
-      <c r="G8" s="131"/>
-      <c r="H8" s="131"/>
-      <c r="I8" s="131"/>
-      <c r="J8" s="140"/>
-      <c r="K8" s="70"/>
-      <c r="N8" s="128"/>
-      <c r="O8" s="132"/>
-      <c r="P8" s="133"/>
-      <c r="Q8" s="133"/>
-      <c r="R8" s="133"/>
-      <c r="S8" s="133"/>
-      <c r="T8" s="133"/>
-      <c r="U8" s="133"/>
-      <c r="V8" s="134"/>
-      <c r="W8" s="70"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="82"/>
+      <c r="K8" s="64"/>
+      <c r="N8" s="60"/>
+      <c r="O8" s="67"/>
+      <c r="P8" s="68"/>
+      <c r="Q8" s="68"/>
+      <c r="R8" s="68"/>
+      <c r="S8" s="68"/>
+      <c r="T8" s="68"/>
+      <c r="U8" s="68"/>
+      <c r="V8" s="69"/>
+      <c r="W8" s="64"/>
       <c r="X8" s="3"/>
-      <c r="Z8" s="120"/>
-      <c r="AA8" s="121"/>
+      <c r="Z8" s="108"/>
+      <c r="AA8" s="109"/>
       <c r="AB8" s="2"/>
       <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
@@ -3646,29 +3653,29 @@
       <c r="AI8" s="4"/>
       <c r="AJ8" s="1"/>
       <c r="AK8" s="25"/>
-      <c r="AL8" s="92"/>
-      <c r="AM8" s="93"/>
-      <c r="AN8" s="93"/>
-      <c r="AO8" s="93"/>
-      <c r="AP8" s="93"/>
-      <c r="AQ8" s="93"/>
-      <c r="AR8" s="93"/>
-      <c r="AS8" s="93"/>
-      <c r="AT8" s="93"/>
-      <c r="AU8" s="94"/>
+      <c r="AL8" s="95"/>
+      <c r="AM8" s="96"/>
+      <c r="AN8" s="96"/>
+      <c r="AO8" s="96"/>
+      <c r="AP8" s="96"/>
+      <c r="AQ8" s="96"/>
+      <c r="AR8" s="96"/>
+      <c r="AS8" s="96"/>
+      <c r="AT8" s="96"/>
+      <c r="AU8" s="97"/>
     </row>
     <row r="9" spans="2:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="128"/>
-      <c r="C9" s="139"/>
-      <c r="D9" s="131"/>
-      <c r="E9" s="131"/>
-      <c r="F9" s="131"/>
-      <c r="G9" s="131"/>
-      <c r="H9" s="131"/>
-      <c r="I9" s="131"/>
-      <c r="J9" s="140"/>
-      <c r="K9" s="70"/>
-      <c r="N9" s="128"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="82"/>
+      <c r="K9" s="64"/>
+      <c r="N9" s="60"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
@@ -3677,12 +3684,12 @@
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
-      <c r="W9" s="70"/>
+      <c r="W9" s="64"/>
       <c r="X9" s="3"/>
-      <c r="Z9" s="118" t="s">
+      <c r="Z9" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="AA9" s="119"/>
+      <c r="AA9" s="107"/>
       <c r="AB9" s="9" t="s">
         <v>8</v>
       </c>
@@ -3695,45 +3702,45 @@
       <c r="AI9" s="8"/>
       <c r="AJ9" s="7"/>
       <c r="AK9" s="25"/>
-      <c r="AL9" s="83" t="s">
+      <c r="AL9" s="112" t="s">
         <v>25</v>
       </c>
-      <c r="AM9" s="84"/>
-      <c r="AN9" s="84"/>
-      <c r="AO9" s="84"/>
-      <c r="AP9" s="84"/>
-      <c r="AQ9" s="84"/>
-      <c r="AR9" s="84"/>
-      <c r="AS9" s="84"/>
-      <c r="AT9" s="84"/>
-      <c r="AU9" s="85"/>
+      <c r="AM9" s="113"/>
+      <c r="AN9" s="113"/>
+      <c r="AO9" s="113"/>
+      <c r="AP9" s="113"/>
+      <c r="AQ9" s="113"/>
+      <c r="AR9" s="113"/>
+      <c r="AS9" s="113"/>
+      <c r="AT9" s="113"/>
+      <c r="AU9" s="114"/>
     </row>
     <row r="10" spans="2:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="128"/>
-      <c r="C10" s="139"/>
-      <c r="D10" s="131"/>
-      <c r="E10" s="131"/>
-      <c r="F10" s="131"/>
-      <c r="G10" s="131"/>
-      <c r="H10" s="131"/>
-      <c r="I10" s="131"/>
-      <c r="J10" s="140"/>
-      <c r="K10" s="70"/>
-      <c r="N10" s="128"/>
-      <c r="O10" s="144" t="s">
+      <c r="B10" s="60"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="82"/>
+      <c r="K10" s="64"/>
+      <c r="N10" s="60"/>
+      <c r="O10" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="P10" s="144"/>
-      <c r="Q10" s="144"/>
-      <c r="R10" s="144"/>
-      <c r="S10" s="144"/>
-      <c r="T10" s="144"/>
-      <c r="U10" s="144"/>
-      <c r="V10" s="144"/>
-      <c r="W10" s="70"/>
+      <c r="P10" s="86"/>
+      <c r="Q10" s="86"/>
+      <c r="R10" s="86"/>
+      <c r="S10" s="86"/>
+      <c r="T10" s="86"/>
+      <c r="U10" s="86"/>
+      <c r="V10" s="86"/>
+      <c r="W10" s="64"/>
       <c r="X10" s="3"/>
-      <c r="Z10" s="120"/>
-      <c r="AA10" s="121"/>
+      <c r="Z10" s="108"/>
+      <c r="AA10" s="109"/>
       <c r="AB10" s="2"/>
       <c r="AC10" s="2"/>
       <c r="AD10" s="2"/>
@@ -3744,43 +3751,43 @@
       <c r="AI10" s="4"/>
       <c r="AJ10" s="1"/>
       <c r="AK10" s="25"/>
-      <c r="AL10" s="86"/>
-      <c r="AM10" s="87"/>
-      <c r="AN10" s="87"/>
-      <c r="AO10" s="87"/>
-      <c r="AP10" s="87"/>
-      <c r="AQ10" s="87"/>
-      <c r="AR10" s="87"/>
-      <c r="AS10" s="87"/>
-      <c r="AT10" s="87"/>
-      <c r="AU10" s="88"/>
+      <c r="AL10" s="128"/>
+      <c r="AM10" s="129"/>
+      <c r="AN10" s="129"/>
+      <c r="AO10" s="129"/>
+      <c r="AP10" s="129"/>
+      <c r="AQ10" s="129"/>
+      <c r="AR10" s="129"/>
+      <c r="AS10" s="129"/>
+      <c r="AT10" s="129"/>
+      <c r="AU10" s="130"/>
     </row>
     <row r="11" spans="2:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="128"/>
-      <c r="C11" s="139"/>
-      <c r="D11" s="131"/>
-      <c r="E11" s="131"/>
-      <c r="F11" s="131"/>
-      <c r="G11" s="131"/>
-      <c r="H11" s="131"/>
-      <c r="I11" s="131"/>
-      <c r="J11" s="140"/>
-      <c r="K11" s="70"/>
-      <c r="N11" s="128"/>
-      <c r="O11" s="132"/>
-      <c r="P11" s="133"/>
-      <c r="Q11" s="133"/>
-      <c r="R11" s="133"/>
-      <c r="S11" s="133"/>
-      <c r="T11" s="133"/>
-      <c r="U11" s="133"/>
-      <c r="V11" s="134"/>
-      <c r="W11" s="70"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="82"/>
+      <c r="K11" s="64"/>
+      <c r="N11" s="60"/>
+      <c r="O11" s="67"/>
+      <c r="P11" s="68"/>
+      <c r="Q11" s="68"/>
+      <c r="R11" s="68"/>
+      <c r="S11" s="68"/>
+      <c r="T11" s="68"/>
+      <c r="U11" s="68"/>
+      <c r="V11" s="69"/>
+      <c r="W11" s="64"/>
       <c r="X11" s="3"/>
-      <c r="Z11" s="118" t="s">
+      <c r="Z11" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="AA11" s="119"/>
+      <c r="AA11" s="107"/>
       <c r="AB11" s="9" t="s">
         <v>8</v>
       </c>
@@ -3793,31 +3800,31 @@
       <c r="AI11" s="8"/>
       <c r="AJ11" s="7"/>
       <c r="AK11" s="25"/>
-      <c r="AL11" s="89" t="s">
+      <c r="AL11" s="92" t="s">
         <v>24</v>
       </c>
-      <c r="AM11" s="90"/>
-      <c r="AN11" s="90"/>
-      <c r="AO11" s="90"/>
-      <c r="AP11" s="90"/>
-      <c r="AQ11" s="90"/>
-      <c r="AR11" s="90"/>
-      <c r="AS11" s="90"/>
-      <c r="AT11" s="90"/>
-      <c r="AU11" s="91"/>
+      <c r="AM11" s="93"/>
+      <c r="AN11" s="93"/>
+      <c r="AO11" s="93"/>
+      <c r="AP11" s="93"/>
+      <c r="AQ11" s="93"/>
+      <c r="AR11" s="93"/>
+      <c r="AS11" s="93"/>
+      <c r="AT11" s="93"/>
+      <c r="AU11" s="94"/>
     </row>
     <row r="12" spans="2:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="128"/>
-      <c r="C12" s="139"/>
-      <c r="D12" s="131"/>
-      <c r="E12" s="131"/>
-      <c r="F12" s="131"/>
-      <c r="G12" s="131"/>
-      <c r="H12" s="131"/>
-      <c r="I12" s="131"/>
-      <c r="J12" s="140"/>
-      <c r="K12" s="70"/>
-      <c r="N12" s="128"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="82"/>
+      <c r="K12" s="64"/>
+      <c r="N12" s="60"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
@@ -3826,10 +3833,10 @@
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
-      <c r="W12" s="70"/>
+      <c r="W12" s="64"/>
       <c r="X12" s="3"/>
-      <c r="Z12" s="120"/>
-      <c r="AA12" s="121"/>
+      <c r="Z12" s="108"/>
+      <c r="AA12" s="109"/>
       <c r="AB12" s="2"/>
       <c r="AC12" s="2"/>
       <c r="AD12" s="2"/>
@@ -3840,45 +3847,45 @@
       <c r="AI12" s="4"/>
       <c r="AJ12" s="1"/>
       <c r="AK12" s="25"/>
-      <c r="AL12" s="92"/>
-      <c r="AM12" s="93"/>
-      <c r="AN12" s="93"/>
-      <c r="AO12" s="93"/>
-      <c r="AP12" s="93"/>
-      <c r="AQ12" s="93"/>
-      <c r="AR12" s="93"/>
-      <c r="AS12" s="93"/>
-      <c r="AT12" s="93"/>
-      <c r="AU12" s="94"/>
+      <c r="AL12" s="95"/>
+      <c r="AM12" s="96"/>
+      <c r="AN12" s="96"/>
+      <c r="AO12" s="96"/>
+      <c r="AP12" s="96"/>
+      <c r="AQ12" s="96"/>
+      <c r="AR12" s="96"/>
+      <c r="AS12" s="96"/>
+      <c r="AT12" s="96"/>
+      <c r="AU12" s="97"/>
     </row>
     <row r="13" spans="2:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="128"/>
-      <c r="C13" s="139"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="131"/>
-      <c r="F13" s="131"/>
-      <c r="G13" s="131"/>
-      <c r="H13" s="131"/>
-      <c r="I13" s="131"/>
-      <c r="J13" s="140"/>
-      <c r="K13" s="70"/>
-      <c r="N13" s="128"/>
-      <c r="O13" s="59" t="s">
+      <c r="B13" s="60"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="82"/>
+      <c r="K13" s="64"/>
+      <c r="N13" s="60"/>
+      <c r="O13" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="P13" s="60"/>
-      <c r="Q13" s="60"/>
-      <c r="R13" s="60"/>
-      <c r="S13" s="60"/>
-      <c r="T13" s="60"/>
-      <c r="U13" s="60"/>
-      <c r="V13" s="61"/>
-      <c r="W13" s="70"/>
+      <c r="P13" s="71"/>
+      <c r="Q13" s="71"/>
+      <c r="R13" s="71"/>
+      <c r="S13" s="71"/>
+      <c r="T13" s="71"/>
+      <c r="U13" s="71"/>
+      <c r="V13" s="72"/>
+      <c r="W13" s="64"/>
       <c r="X13" s="3"/>
-      <c r="Z13" s="118" t="s">
+      <c r="Z13" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="AA13" s="119"/>
+      <c r="AA13" s="107"/>
       <c r="AB13" s="9" t="s">
         <v>8</v>
       </c>
@@ -3891,43 +3898,43 @@
       <c r="AI13" s="8"/>
       <c r="AJ13" s="7"/>
       <c r="AK13" s="25"/>
-      <c r="AL13" s="83" t="s">
+      <c r="AL13" s="112" t="s">
         <v>25</v>
       </c>
-      <c r="AM13" s="84"/>
-      <c r="AN13" s="84"/>
-      <c r="AO13" s="84"/>
-      <c r="AP13" s="84"/>
-      <c r="AQ13" s="84"/>
-      <c r="AR13" s="84"/>
-      <c r="AS13" s="84"/>
-      <c r="AT13" s="84"/>
-      <c r="AU13" s="85"/>
+      <c r="AM13" s="113"/>
+      <c r="AN13" s="113"/>
+      <c r="AO13" s="113"/>
+      <c r="AP13" s="113"/>
+      <c r="AQ13" s="113"/>
+      <c r="AR13" s="113"/>
+      <c r="AS13" s="113"/>
+      <c r="AT13" s="113"/>
+      <c r="AU13" s="114"/>
     </row>
     <row r="14" spans="2:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="128"/>
-      <c r="C14" s="139"/>
-      <c r="D14" s="131"/>
-      <c r="E14" s="131"/>
-      <c r="F14" s="131"/>
-      <c r="G14" s="131"/>
-      <c r="H14" s="131"/>
-      <c r="I14" s="131"/>
-      <c r="J14" s="140"/>
-      <c r="K14" s="70"/>
-      <c r="N14" s="128"/>
-      <c r="O14" s="65"/>
-      <c r="P14" s="66"/>
-      <c r="Q14" s="66"/>
-      <c r="R14" s="66"/>
-      <c r="S14" s="66"/>
-      <c r="T14" s="66"/>
-      <c r="U14" s="66"/>
-      <c r="V14" s="67"/>
-      <c r="W14" s="70"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="82"/>
+      <c r="K14" s="64"/>
+      <c r="N14" s="60"/>
+      <c r="O14" s="73"/>
+      <c r="P14" s="74"/>
+      <c r="Q14" s="74"/>
+      <c r="R14" s="74"/>
+      <c r="S14" s="74"/>
+      <c r="T14" s="74"/>
+      <c r="U14" s="74"/>
+      <c r="V14" s="75"/>
+      <c r="W14" s="64"/>
       <c r="X14" s="3"/>
-      <c r="Z14" s="120"/>
-      <c r="AA14" s="121"/>
+      <c r="Z14" s="108"/>
+      <c r="AA14" s="109"/>
       <c r="AB14" s="2"/>
       <c r="AC14" s="2"/>
       <c r="AD14" s="2"/>
@@ -3938,29 +3945,29 @@
       <c r="AI14" s="4"/>
       <c r="AJ14" s="1"/>
       <c r="AK14" s="25"/>
-      <c r="AL14" s="86"/>
-      <c r="AM14" s="87"/>
-      <c r="AN14" s="87"/>
-      <c r="AO14" s="87"/>
-      <c r="AP14" s="87"/>
-      <c r="AQ14" s="87"/>
-      <c r="AR14" s="87"/>
-      <c r="AS14" s="87"/>
-      <c r="AT14" s="87"/>
-      <c r="AU14" s="88"/>
+      <c r="AL14" s="128"/>
+      <c r="AM14" s="129"/>
+      <c r="AN14" s="129"/>
+      <c r="AO14" s="129"/>
+      <c r="AP14" s="129"/>
+      <c r="AQ14" s="129"/>
+      <c r="AR14" s="129"/>
+      <c r="AS14" s="129"/>
+      <c r="AT14" s="129"/>
+      <c r="AU14" s="130"/>
     </row>
     <row r="15" spans="2:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="128"/>
-      <c r="C15" s="139"/>
-      <c r="D15" s="131"/>
-      <c r="E15" s="131"/>
-      <c r="F15" s="131"/>
-      <c r="G15" s="131"/>
-      <c r="H15" s="131"/>
-      <c r="I15" s="131"/>
-      <c r="J15" s="140"/>
-      <c r="K15" s="70"/>
-      <c r="N15" s="128"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="82"/>
+      <c r="K15" s="64"/>
+      <c r="N15" s="60"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
@@ -3969,12 +3976,12 @@
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
-      <c r="W15" s="70"/>
+      <c r="W15" s="64"/>
       <c r="X15" s="3"/>
-      <c r="Z15" s="118" t="s">
+      <c r="Z15" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="AA15" s="119"/>
+      <c r="AA15" s="107"/>
       <c r="AB15" s="9" t="s">
         <v>8</v>
       </c>
@@ -3987,31 +3994,31 @@
       <c r="AI15" s="8"/>
       <c r="AJ15" s="7"/>
       <c r="AK15" s="25"/>
-      <c r="AL15" s="89" t="s">
+      <c r="AL15" s="92" t="s">
         <v>24</v>
       </c>
-      <c r="AM15" s="90"/>
-      <c r="AN15" s="90"/>
-      <c r="AO15" s="90"/>
-      <c r="AP15" s="90"/>
-      <c r="AQ15" s="90"/>
-      <c r="AR15" s="90"/>
-      <c r="AS15" s="90"/>
-      <c r="AT15" s="90"/>
-      <c r="AU15" s="91"/>
+      <c r="AM15" s="93"/>
+      <c r="AN15" s="93"/>
+      <c r="AO15" s="93"/>
+      <c r="AP15" s="93"/>
+      <c r="AQ15" s="93"/>
+      <c r="AR15" s="93"/>
+      <c r="AS15" s="93"/>
+      <c r="AT15" s="93"/>
+      <c r="AU15" s="94"/>
     </row>
     <row r="16" spans="2:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="128"/>
-      <c r="C16" s="139"/>
-      <c r="D16" s="131"/>
-      <c r="E16" s="131"/>
-      <c r="F16" s="131"/>
-      <c r="G16" s="131"/>
-      <c r="H16" s="131"/>
-      <c r="I16" s="131"/>
-      <c r="J16" s="140"/>
-      <c r="K16" s="70"/>
-      <c r="N16" s="128"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="82"/>
+      <c r="K16" s="64"/>
+      <c r="N16" s="60"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
@@ -4020,10 +4027,10 @@
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
-      <c r="W16" s="70"/>
+      <c r="W16" s="64"/>
       <c r="X16" s="3"/>
-      <c r="Z16" s="120"/>
-      <c r="AA16" s="121"/>
+      <c r="Z16" s="108"/>
+      <c r="AA16" s="109"/>
       <c r="AB16" s="2"/>
       <c r="AC16" s="2"/>
       <c r="AD16" s="2"/>
@@ -4034,45 +4041,45 @@
       <c r="AI16" s="4"/>
       <c r="AJ16" s="1"/>
       <c r="AK16" s="25"/>
-      <c r="AL16" s="92"/>
-      <c r="AM16" s="93"/>
-      <c r="AN16" s="93"/>
-      <c r="AO16" s="93"/>
-      <c r="AP16" s="93"/>
-      <c r="AQ16" s="93"/>
-      <c r="AR16" s="93"/>
-      <c r="AS16" s="93"/>
-      <c r="AT16" s="93"/>
-      <c r="AU16" s="94"/>
+      <c r="AL16" s="95"/>
+      <c r="AM16" s="96"/>
+      <c r="AN16" s="96"/>
+      <c r="AO16" s="96"/>
+      <c r="AP16" s="96"/>
+      <c r="AQ16" s="96"/>
+      <c r="AR16" s="96"/>
+      <c r="AS16" s="96"/>
+      <c r="AT16" s="96"/>
+      <c r="AU16" s="97"/>
     </row>
     <row r="17" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="128"/>
-      <c r="C17" s="139"/>
-      <c r="D17" s="131"/>
-      <c r="E17" s="131"/>
-      <c r="F17" s="131"/>
-      <c r="G17" s="131"/>
-      <c r="H17" s="131"/>
-      <c r="I17" s="131"/>
-      <c r="J17" s="140"/>
-      <c r="K17" s="70"/>
-      <c r="N17" s="128"/>
-      <c r="O17" s="59" t="s">
+      <c r="B17" s="60"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="82"/>
+      <c r="K17" s="64"/>
+      <c r="N17" s="60"/>
+      <c r="O17" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="P17" s="60"/>
-      <c r="Q17" s="60"/>
-      <c r="R17" s="60"/>
-      <c r="S17" s="60"/>
-      <c r="T17" s="60"/>
-      <c r="U17" s="60"/>
-      <c r="V17" s="61"/>
-      <c r="W17" s="70"/>
+      <c r="P17" s="71"/>
+      <c r="Q17" s="71"/>
+      <c r="R17" s="71"/>
+      <c r="S17" s="71"/>
+      <c r="T17" s="71"/>
+      <c r="U17" s="71"/>
+      <c r="V17" s="72"/>
+      <c r="W17" s="64"/>
       <c r="X17" s="3"/>
-      <c r="Z17" s="122" t="s">
+      <c r="Z17" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="AA17" s="123"/>
+      <c r="AA17" s="111"/>
       <c r="AB17" s="9" t="s">
         <v>8</v>
       </c>
@@ -4085,112 +4092,112 @@
       <c r="AI17" s="8"/>
       <c r="AJ17" s="7"/>
       <c r="AK17" s="25"/>
-      <c r="AL17" s="83" t="s">
+      <c r="AL17" s="112" t="s">
         <v>25</v>
       </c>
-      <c r="AM17" s="84"/>
-      <c r="AN17" s="84"/>
-      <c r="AO17" s="84"/>
-      <c r="AP17" s="84"/>
-      <c r="AQ17" s="84"/>
-      <c r="AR17" s="84"/>
-      <c r="AS17" s="84"/>
-      <c r="AT17" s="84"/>
-      <c r="AU17" s="85"/>
+      <c r="AM17" s="113"/>
+      <c r="AN17" s="113"/>
+      <c r="AO17" s="113"/>
+      <c r="AP17" s="113"/>
+      <c r="AQ17" s="113"/>
+      <c r="AR17" s="113"/>
+      <c r="AS17" s="113"/>
+      <c r="AT17" s="113"/>
+      <c r="AU17" s="114"/>
     </row>
     <row r="18" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="128"/>
-      <c r="C18" s="141"/>
-      <c r="D18" s="142"/>
-      <c r="E18" s="142"/>
-      <c r="F18" s="142"/>
-      <c r="G18" s="142"/>
-      <c r="H18" s="142"/>
-      <c r="I18" s="142"/>
-      <c r="J18" s="143"/>
-      <c r="K18" s="70"/>
-      <c r="N18" s="128"/>
-      <c r="O18" s="65"/>
-      <c r="P18" s="66"/>
-      <c r="Q18" s="66"/>
-      <c r="R18" s="66"/>
-      <c r="S18" s="66"/>
-      <c r="T18" s="66"/>
-      <c r="U18" s="66"/>
-      <c r="V18" s="67"/>
-      <c r="W18" s="70"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="83"/>
+      <c r="D18" s="84"/>
+      <c r="E18" s="84"/>
+      <c r="F18" s="84"/>
+      <c r="G18" s="84"/>
+      <c r="H18" s="84"/>
+      <c r="I18" s="84"/>
+      <c r="J18" s="85"/>
+      <c r="K18" s="64"/>
+      <c r="N18" s="60"/>
+      <c r="O18" s="73"/>
+      <c r="P18" s="74"/>
+      <c r="Q18" s="74"/>
+      <c r="R18" s="74"/>
+      <c r="S18" s="74"/>
+      <c r="T18" s="74"/>
+      <c r="U18" s="74"/>
+      <c r="V18" s="75"/>
+      <c r="W18" s="64"/>
       <c r="X18" s="3"/>
-      <c r="Z18" s="116" t="s">
+      <c r="Z18" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="AA18" s="60"/>
-      <c r="AB18" s="60"/>
-      <c r="AC18" s="60"/>
-      <c r="AD18" s="60"/>
-      <c r="AE18" s="60"/>
-      <c r="AF18" s="60"/>
-      <c r="AG18" s="60"/>
-      <c r="AH18" s="60"/>
-      <c r="AI18" s="117"/>
+      <c r="AA18" s="71"/>
+      <c r="AB18" s="71"/>
+      <c r="AC18" s="71"/>
+      <c r="AD18" s="71"/>
+      <c r="AE18" s="71"/>
+      <c r="AF18" s="71"/>
+      <c r="AG18" s="71"/>
+      <c r="AH18" s="71"/>
+      <c r="AI18" s="102"/>
       <c r="AJ18" s="7"/>
       <c r="AK18" s="25"/>
-      <c r="AL18" s="124"/>
-      <c r="AM18" s="125"/>
-      <c r="AN18" s="125"/>
-      <c r="AO18" s="125"/>
-      <c r="AP18" s="125"/>
-      <c r="AQ18" s="125"/>
-      <c r="AR18" s="125"/>
-      <c r="AS18" s="125"/>
-      <c r="AT18" s="125"/>
-      <c r="AU18" s="126"/>
+      <c r="AL18" s="115"/>
+      <c r="AM18" s="116"/>
+      <c r="AN18" s="116"/>
+      <c r="AO18" s="116"/>
+      <c r="AP18" s="116"/>
+      <c r="AQ18" s="116"/>
+      <c r="AR18" s="116"/>
+      <c r="AS18" s="116"/>
+      <c r="AT18" s="116"/>
+      <c r="AU18" s="117"/>
     </row>
     <row r="19" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="129"/>
-      <c r="C19" s="135"/>
-      <c r="D19" s="135"/>
-      <c r="E19" s="135"/>
-      <c r="F19" s="135"/>
-      <c r="G19" s="135"/>
-      <c r="H19" s="135"/>
-      <c r="I19" s="135"/>
-      <c r="J19" s="135"/>
-      <c r="K19" s="71"/>
-      <c r="N19" s="129"/>
-      <c r="O19" s="109"/>
-      <c r="P19" s="109"/>
-      <c r="Q19" s="109"/>
-      <c r="R19" s="109"/>
-      <c r="S19" s="109"/>
-      <c r="T19" s="109"/>
-      <c r="U19" s="109"/>
-      <c r="V19" s="109"/>
-      <c r="W19" s="71"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="77"/>
+      <c r="H19" s="77"/>
+      <c r="I19" s="77"/>
+      <c r="J19" s="77"/>
+      <c r="K19" s="65"/>
+      <c r="N19" s="61"/>
+      <c r="O19" s="76"/>
+      <c r="P19" s="76"/>
+      <c r="Q19" s="76"/>
+      <c r="R19" s="76"/>
+      <c r="S19" s="76"/>
+      <c r="T19" s="76"/>
+      <c r="U19" s="76"/>
+      <c r="V19" s="76"/>
+      <c r="W19" s="65"/>
       <c r="X19" s="3"/>
-      <c r="Z19" s="80"/>
-      <c r="AA19" s="81"/>
-      <c r="AB19" s="81"/>
-      <c r="AC19" s="81"/>
-      <c r="AD19" s="81"/>
-      <c r="AE19" s="81"/>
-      <c r="AF19" s="81"/>
-      <c r="AG19" s="81"/>
-      <c r="AH19" s="81"/>
-      <c r="AI19" s="82"/>
+      <c r="Z19" s="103"/>
+      <c r="AA19" s="104"/>
+      <c r="AB19" s="104"/>
+      <c r="AC19" s="104"/>
+      <c r="AD19" s="104"/>
+      <c r="AE19" s="104"/>
+      <c r="AF19" s="104"/>
+      <c r="AG19" s="104"/>
+      <c r="AH19" s="104"/>
+      <c r="AI19" s="105"/>
       <c r="AJ19" s="7"/>
       <c r="AK19" s="25"/>
-      <c r="AL19" s="108" t="s">
+      <c r="AL19" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="AM19" s="109"/>
-      <c r="AN19" s="109"/>
-      <c r="AO19" s="109"/>
-      <c r="AP19" s="109"/>
-      <c r="AQ19" s="109"/>
-      <c r="AR19" s="109"/>
-      <c r="AS19" s="109"/>
-      <c r="AT19" s="109"/>
-      <c r="AU19" s="110"/>
+      <c r="AM19" s="76"/>
+      <c r="AN19" s="76"/>
+      <c r="AO19" s="76"/>
+      <c r="AP19" s="76"/>
+      <c r="AQ19" s="76"/>
+      <c r="AR19" s="76"/>
+      <c r="AS19" s="76"/>
+      <c r="AT19" s="76"/>
+      <c r="AU19" s="89"/>
     </row>
     <row r="20" spans="1:49" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="25"/>
@@ -4293,30 +4300,30 @@
       <c r="AW21" s="24"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="B22" s="95" t="s">
+      <c r="B22" s="131" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="96"/>
-      <c r="D22" s="96"/>
-      <c r="E22" s="96"/>
-      <c r="F22" s="96"/>
-      <c r="G22" s="96"/>
-      <c r="H22" s="96"/>
-      <c r="I22" s="96"/>
-      <c r="J22" s="96"/>
-      <c r="K22" s="97"/>
-      <c r="N22" s="95" t="s">
+      <c r="C22" s="132"/>
+      <c r="D22" s="132"/>
+      <c r="E22" s="132"/>
+      <c r="F22" s="132"/>
+      <c r="G22" s="132"/>
+      <c r="H22" s="132"/>
+      <c r="I22" s="132"/>
+      <c r="J22" s="132"/>
+      <c r="K22" s="133"/>
+      <c r="N22" s="131" t="s">
         <v>23</v>
       </c>
-      <c r="O22" s="96"/>
-      <c r="P22" s="96"/>
-      <c r="Q22" s="96"/>
-      <c r="R22" s="96"/>
-      <c r="S22" s="96"/>
-      <c r="T22" s="96"/>
-      <c r="U22" s="96"/>
-      <c r="V22" s="96"/>
-      <c r="W22" s="97"/>
+      <c r="O22" s="132"/>
+      <c r="P22" s="132"/>
+      <c r="Q22" s="132"/>
+      <c r="R22" s="132"/>
+      <c r="S22" s="132"/>
+      <c r="T22" s="132"/>
+      <c r="U22" s="132"/>
+      <c r="V22" s="132"/>
+      <c r="W22" s="133"/>
       <c r="X22" s="27"/>
       <c r="Z22" s="5"/>
       <c r="AA22" s="5"/>
@@ -4348,13 +4355,13 @@
       <c r="C23" s="18"/>
       <c r="D23" s="18"/>
       <c r="E23" s="21"/>
-      <c r="F23" s="72" t="s">
+      <c r="F23" s="118" t="s">
         <v>16</v>
       </c>
-      <c r="G23" s="73"/>
-      <c r="H23" s="73"/>
-      <c r="I23" s="73"/>
-      <c r="J23" s="73"/>
+      <c r="G23" s="119"/>
+      <c r="H23" s="119"/>
+      <c r="I23" s="119"/>
+      <c r="J23" s="119"/>
       <c r="K23" s="14"/>
       <c r="N23" s="13"/>
       <c r="O23" s="5"/>
@@ -4399,48 +4406,48 @@
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="22"/>
-      <c r="F24" s="74" t="s">
+      <c r="F24" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="G24" s="68"/>
-      <c r="H24" s="68"/>
-      <c r="I24" s="68"/>
-      <c r="J24" s="68"/>
+      <c r="G24" s="121"/>
+      <c r="H24" s="121"/>
+      <c r="I24" s="121"/>
+      <c r="J24" s="121"/>
       <c r="K24" s="14"/>
       <c r="N24" s="13"/>
-      <c r="O24" s="59" t="s">
+      <c r="O24" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="P24" s="60"/>
-      <c r="Q24" s="60"/>
-      <c r="R24" s="60"/>
-      <c r="S24" s="60"/>
-      <c r="T24" s="60"/>
-      <c r="U24" s="60"/>
-      <c r="V24" s="61"/>
+      <c r="P24" s="71"/>
+      <c r="Q24" s="71"/>
+      <c r="R24" s="71"/>
+      <c r="S24" s="71"/>
+      <c r="T24" s="71"/>
+      <c r="U24" s="71"/>
+      <c r="V24" s="72"/>
       <c r="W24" s="14"/>
       <c r="X24" s="5"/>
       <c r="Z24" s="5"/>
-      <c r="AA24" s="75" t="s">
+      <c r="AA24" s="122" t="s">
         <v>29</v>
       </c>
-      <c r="AB24" s="76"/>
-      <c r="AC24" s="76"/>
-      <c r="AD24" s="76"/>
-      <c r="AE24" s="76"/>
-      <c r="AF24" s="76"/>
-      <c r="AG24" s="76"/>
-      <c r="AH24" s="76"/>
-      <c r="AI24" s="76"/>
-      <c r="AJ24" s="76"/>
-      <c r="AK24" s="76"/>
-      <c r="AL24" s="76"/>
-      <c r="AM24" s="76"/>
-      <c r="AN24" s="76"/>
-      <c r="AO24" s="76"/>
-      <c r="AP24" s="76"/>
-      <c r="AQ24" s="76"/>
-      <c r="AR24" s="77"/>
+      <c r="AB24" s="123"/>
+      <c r="AC24" s="123"/>
+      <c r="AD24" s="123"/>
+      <c r="AE24" s="123"/>
+      <c r="AF24" s="123"/>
+      <c r="AG24" s="123"/>
+      <c r="AH24" s="123"/>
+      <c r="AI24" s="123"/>
+      <c r="AJ24" s="123"/>
+      <c r="AK24" s="123"/>
+      <c r="AL24" s="123"/>
+      <c r="AM24" s="123"/>
+      <c r="AN24" s="123"/>
+      <c r="AO24" s="123"/>
+      <c r="AP24" s="123"/>
+      <c r="AQ24" s="123"/>
+      <c r="AR24" s="124"/>
       <c r="AS24" s="6"/>
       <c r="AT24" s="5"/>
       <c r="AU24" s="5"/>
@@ -4452,44 +4459,44 @@
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="22"/>
-      <c r="F25" s="74" t="s">
+      <c r="F25" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="G25" s="68"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="68"/>
-      <c r="J25" s="68"/>
+      <c r="G25" s="121"/>
+      <c r="H25" s="121"/>
+      <c r="I25" s="121"/>
+      <c r="J25" s="121"/>
       <c r="K25" s="14"/>
       <c r="N25" s="13"/>
-      <c r="O25" s="62"/>
-      <c r="P25" s="63"/>
-      <c r="Q25" s="63"/>
-      <c r="R25" s="63"/>
-      <c r="S25" s="63"/>
-      <c r="T25" s="63"/>
-      <c r="U25" s="63"/>
-      <c r="V25" s="64"/>
+      <c r="O25" s="143"/>
+      <c r="P25" s="126"/>
+      <c r="Q25" s="126"/>
+      <c r="R25" s="126"/>
+      <c r="S25" s="126"/>
+      <c r="T25" s="126"/>
+      <c r="U25" s="126"/>
+      <c r="V25" s="144"/>
       <c r="W25" s="14"/>
       <c r="X25" s="5"/>
       <c r="Z25" s="5"/>
-      <c r="AA25" s="78"/>
-      <c r="AB25" s="63"/>
-      <c r="AC25" s="63"/>
-      <c r="AD25" s="63"/>
-      <c r="AE25" s="63"/>
-      <c r="AF25" s="63"/>
-      <c r="AG25" s="63"/>
-      <c r="AH25" s="63"/>
-      <c r="AI25" s="63"/>
-      <c r="AJ25" s="63"/>
-      <c r="AK25" s="63"/>
-      <c r="AL25" s="63"/>
-      <c r="AM25" s="63"/>
-      <c r="AN25" s="63"/>
-      <c r="AO25" s="63"/>
-      <c r="AP25" s="63"/>
-      <c r="AQ25" s="63"/>
-      <c r="AR25" s="79"/>
+      <c r="AA25" s="125"/>
+      <c r="AB25" s="126"/>
+      <c r="AC25" s="126"/>
+      <c r="AD25" s="126"/>
+      <c r="AE25" s="126"/>
+      <c r="AF25" s="126"/>
+      <c r="AG25" s="126"/>
+      <c r="AH25" s="126"/>
+      <c r="AI25" s="126"/>
+      <c r="AJ25" s="126"/>
+      <c r="AK25" s="126"/>
+      <c r="AL25" s="126"/>
+      <c r="AM25" s="126"/>
+      <c r="AN25" s="126"/>
+      <c r="AO25" s="126"/>
+      <c r="AP25" s="126"/>
+      <c r="AQ25" s="126"/>
+      <c r="AR25" s="127"/>
       <c r="AS25" s="6"/>
       <c r="AT25" s="5"/>
       <c r="AU25" s="5"/>
@@ -4508,35 +4515,35 @@
       <c r="J26" s="5"/>
       <c r="K26" s="14"/>
       <c r="N26" s="13"/>
-      <c r="O26" s="62"/>
-      <c r="P26" s="63"/>
-      <c r="Q26" s="63"/>
-      <c r="R26" s="63"/>
-      <c r="S26" s="63"/>
-      <c r="T26" s="63"/>
-      <c r="U26" s="63"/>
-      <c r="V26" s="64"/>
+      <c r="O26" s="143"/>
+      <c r="P26" s="126"/>
+      <c r="Q26" s="126"/>
+      <c r="R26" s="126"/>
+      <c r="S26" s="126"/>
+      <c r="T26" s="126"/>
+      <c r="U26" s="126"/>
+      <c r="V26" s="144"/>
       <c r="W26" s="14"/>
       <c r="X26" s="5"/>
       <c r="Z26" s="5"/>
-      <c r="AA26" s="78"/>
-      <c r="AB26" s="63"/>
-      <c r="AC26" s="63"/>
-      <c r="AD26" s="63"/>
-      <c r="AE26" s="63"/>
-      <c r="AF26" s="63"/>
-      <c r="AG26" s="63"/>
-      <c r="AH26" s="63"/>
-      <c r="AI26" s="63"/>
-      <c r="AJ26" s="63"/>
-      <c r="AK26" s="63"/>
-      <c r="AL26" s="63"/>
-      <c r="AM26" s="63"/>
-      <c r="AN26" s="63"/>
-      <c r="AO26" s="63"/>
-      <c r="AP26" s="63"/>
-      <c r="AQ26" s="63"/>
-      <c r="AR26" s="79"/>
+      <c r="AA26" s="125"/>
+      <c r="AB26" s="126"/>
+      <c r="AC26" s="126"/>
+      <c r="AD26" s="126"/>
+      <c r="AE26" s="126"/>
+      <c r="AF26" s="126"/>
+      <c r="AG26" s="126"/>
+      <c r="AH26" s="126"/>
+      <c r="AI26" s="126"/>
+      <c r="AJ26" s="126"/>
+      <c r="AK26" s="126"/>
+      <c r="AL26" s="126"/>
+      <c r="AM26" s="126"/>
+      <c r="AN26" s="126"/>
+      <c r="AO26" s="126"/>
+      <c r="AP26" s="126"/>
+      <c r="AQ26" s="126"/>
+      <c r="AR26" s="127"/>
       <c r="AS26" s="6"/>
       <c r="AT26" s="5"/>
       <c r="AU26" s="5"/>
@@ -4555,35 +4562,35 @@
       <c r="J27" s="5"/>
       <c r="K27" s="14"/>
       <c r="N27" s="13"/>
-      <c r="O27" s="62"/>
-      <c r="P27" s="63"/>
-      <c r="Q27" s="63"/>
-      <c r="R27" s="63"/>
-      <c r="S27" s="63"/>
-      <c r="T27" s="63"/>
-      <c r="U27" s="63"/>
-      <c r="V27" s="64"/>
+      <c r="O27" s="143"/>
+      <c r="P27" s="126"/>
+      <c r="Q27" s="126"/>
+      <c r="R27" s="126"/>
+      <c r="S27" s="126"/>
+      <c r="T27" s="126"/>
+      <c r="U27" s="126"/>
+      <c r="V27" s="144"/>
       <c r="W27" s="14"/>
       <c r="X27" s="5"/>
       <c r="Z27" s="5"/>
-      <c r="AA27" s="78"/>
-      <c r="AB27" s="63"/>
-      <c r="AC27" s="63"/>
-      <c r="AD27" s="63"/>
-      <c r="AE27" s="63"/>
-      <c r="AF27" s="63"/>
-      <c r="AG27" s="63"/>
-      <c r="AH27" s="63"/>
-      <c r="AI27" s="63"/>
-      <c r="AJ27" s="63"/>
-      <c r="AK27" s="63"/>
-      <c r="AL27" s="63"/>
-      <c r="AM27" s="63"/>
-      <c r="AN27" s="63"/>
-      <c r="AO27" s="63"/>
-      <c r="AP27" s="63"/>
-      <c r="AQ27" s="63"/>
-      <c r="AR27" s="79"/>
+      <c r="AA27" s="125"/>
+      <c r="AB27" s="126"/>
+      <c r="AC27" s="126"/>
+      <c r="AD27" s="126"/>
+      <c r="AE27" s="126"/>
+      <c r="AF27" s="126"/>
+      <c r="AG27" s="126"/>
+      <c r="AH27" s="126"/>
+      <c r="AI27" s="126"/>
+      <c r="AJ27" s="126"/>
+      <c r="AK27" s="126"/>
+      <c r="AL27" s="126"/>
+      <c r="AM27" s="126"/>
+      <c r="AN27" s="126"/>
+      <c r="AO27" s="126"/>
+      <c r="AP27" s="126"/>
+      <c r="AQ27" s="126"/>
+      <c r="AR27" s="127"/>
       <c r="AS27" s="6"/>
       <c r="AT27" s="5"/>
       <c r="AU27" s="5"/>
@@ -4592,49 +4599,49 @@
     </row>
     <row r="28" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="13"/>
-      <c r="C28" s="98" t="s">
+      <c r="C28" s="134" t="s">
         <v>18</v>
       </c>
-      <c r="D28" s="99"/>
-      <c r="E28" s="100"/>
+      <c r="D28" s="135"/>
+      <c r="E28" s="136"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
-      <c r="H28" s="98" t="s">
+      <c r="H28" s="134" t="s">
         <v>19</v>
       </c>
-      <c r="I28" s="99"/>
-      <c r="J28" s="100"/>
+      <c r="I28" s="135"/>
+      <c r="J28" s="136"/>
       <c r="K28" s="14"/>
       <c r="N28" s="13"/>
-      <c r="O28" s="62"/>
-      <c r="P28" s="63"/>
-      <c r="Q28" s="63"/>
-      <c r="R28" s="63"/>
-      <c r="S28" s="63"/>
-      <c r="T28" s="63"/>
-      <c r="U28" s="63"/>
-      <c r="V28" s="64"/>
+      <c r="O28" s="143"/>
+      <c r="P28" s="126"/>
+      <c r="Q28" s="126"/>
+      <c r="R28" s="126"/>
+      <c r="S28" s="126"/>
+      <c r="T28" s="126"/>
+      <c r="U28" s="126"/>
+      <c r="V28" s="144"/>
       <c r="W28" s="14"/>
       <c r="X28" s="5"/>
       <c r="Z28" s="5"/>
-      <c r="AA28" s="78"/>
-      <c r="AB28" s="63"/>
-      <c r="AC28" s="63"/>
-      <c r="AD28" s="63"/>
-      <c r="AE28" s="63"/>
-      <c r="AF28" s="63"/>
-      <c r="AG28" s="63"/>
-      <c r="AH28" s="63"/>
-      <c r="AI28" s="63"/>
-      <c r="AJ28" s="63"/>
-      <c r="AK28" s="63"/>
-      <c r="AL28" s="63"/>
-      <c r="AM28" s="63"/>
-      <c r="AN28" s="63"/>
-      <c r="AO28" s="63"/>
-      <c r="AP28" s="63"/>
-      <c r="AQ28" s="63"/>
-      <c r="AR28" s="79"/>
+      <c r="AA28" s="125"/>
+      <c r="AB28" s="126"/>
+      <c r="AC28" s="126"/>
+      <c r="AD28" s="126"/>
+      <c r="AE28" s="126"/>
+      <c r="AF28" s="126"/>
+      <c r="AG28" s="126"/>
+      <c r="AH28" s="126"/>
+      <c r="AI28" s="126"/>
+      <c r="AJ28" s="126"/>
+      <c r="AK28" s="126"/>
+      <c r="AL28" s="126"/>
+      <c r="AM28" s="126"/>
+      <c r="AN28" s="126"/>
+      <c r="AO28" s="126"/>
+      <c r="AP28" s="126"/>
+      <c r="AQ28" s="126"/>
+      <c r="AR28" s="127"/>
       <c r="AS28" s="6"/>
       <c r="AT28" s="5"/>
       <c r="AU28" s="5"/>
@@ -4643,45 +4650,45 @@
     </row>
     <row r="29" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="13"/>
-      <c r="C29" s="101"/>
-      <c r="D29" s="102"/>
-      <c r="E29" s="103"/>
+      <c r="C29" s="137"/>
+      <c r="D29" s="138"/>
+      <c r="E29" s="139"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
-      <c r="H29" s="101"/>
-      <c r="I29" s="102"/>
-      <c r="J29" s="103"/>
+      <c r="H29" s="137"/>
+      <c r="I29" s="138"/>
+      <c r="J29" s="139"/>
       <c r="K29" s="14"/>
       <c r="N29" s="13"/>
-      <c r="O29" s="62"/>
-      <c r="P29" s="63"/>
-      <c r="Q29" s="63"/>
-      <c r="R29" s="63"/>
-      <c r="S29" s="63"/>
-      <c r="T29" s="63"/>
-      <c r="U29" s="63"/>
-      <c r="V29" s="64"/>
+      <c r="O29" s="143"/>
+      <c r="P29" s="126"/>
+      <c r="Q29" s="126"/>
+      <c r="R29" s="126"/>
+      <c r="S29" s="126"/>
+      <c r="T29" s="126"/>
+      <c r="U29" s="126"/>
+      <c r="V29" s="144"/>
       <c r="W29" s="14"/>
       <c r="X29" s="5"/>
       <c r="Z29" s="5"/>
-      <c r="AA29" s="78"/>
-      <c r="AB29" s="63"/>
-      <c r="AC29" s="63"/>
-      <c r="AD29" s="63"/>
-      <c r="AE29" s="63"/>
-      <c r="AF29" s="63"/>
-      <c r="AG29" s="63"/>
-      <c r="AH29" s="63"/>
-      <c r="AI29" s="63"/>
-      <c r="AJ29" s="63"/>
-      <c r="AK29" s="63"/>
-      <c r="AL29" s="63"/>
-      <c r="AM29" s="63"/>
-      <c r="AN29" s="63"/>
-      <c r="AO29" s="63"/>
-      <c r="AP29" s="63"/>
-      <c r="AQ29" s="63"/>
-      <c r="AR29" s="79"/>
+      <c r="AA29" s="125"/>
+      <c r="AB29" s="126"/>
+      <c r="AC29" s="126"/>
+      <c r="AD29" s="126"/>
+      <c r="AE29" s="126"/>
+      <c r="AF29" s="126"/>
+      <c r="AG29" s="126"/>
+      <c r="AH29" s="126"/>
+      <c r="AI29" s="126"/>
+      <c r="AJ29" s="126"/>
+      <c r="AK29" s="126"/>
+      <c r="AL29" s="126"/>
+      <c r="AM29" s="126"/>
+      <c r="AN29" s="126"/>
+      <c r="AO29" s="126"/>
+      <c r="AP29" s="126"/>
+      <c r="AQ29" s="126"/>
+      <c r="AR29" s="127"/>
       <c r="AS29" s="6"/>
       <c r="AT29" s="5"/>
       <c r="AU29" s="5"/>
@@ -4690,45 +4697,45 @@
     </row>
     <row r="30" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="13"/>
-      <c r="C30" s="104"/>
-      <c r="D30" s="105"/>
-      <c r="E30" s="106"/>
+      <c r="C30" s="140"/>
+      <c r="D30" s="141"/>
+      <c r="E30" s="142"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
-      <c r="H30" s="104"/>
-      <c r="I30" s="105"/>
-      <c r="J30" s="106"/>
+      <c r="H30" s="140"/>
+      <c r="I30" s="141"/>
+      <c r="J30" s="142"/>
       <c r="K30" s="14"/>
       <c r="N30" s="13"/>
-      <c r="O30" s="62"/>
-      <c r="P30" s="63"/>
-      <c r="Q30" s="63"/>
-      <c r="R30" s="63"/>
-      <c r="S30" s="63"/>
-      <c r="T30" s="63"/>
-      <c r="U30" s="63"/>
-      <c r="V30" s="64"/>
+      <c r="O30" s="143"/>
+      <c r="P30" s="126"/>
+      <c r="Q30" s="126"/>
+      <c r="R30" s="126"/>
+      <c r="S30" s="126"/>
+      <c r="T30" s="126"/>
+      <c r="U30" s="126"/>
+      <c r="V30" s="144"/>
       <c r="W30" s="14"/>
       <c r="X30" s="5"/>
       <c r="Z30" s="5"/>
-      <c r="AA30" s="78"/>
-      <c r="AB30" s="63"/>
-      <c r="AC30" s="63"/>
-      <c r="AD30" s="63"/>
-      <c r="AE30" s="63"/>
-      <c r="AF30" s="63"/>
-      <c r="AG30" s="63"/>
-      <c r="AH30" s="63"/>
-      <c r="AI30" s="63"/>
-      <c r="AJ30" s="63"/>
-      <c r="AK30" s="63"/>
-      <c r="AL30" s="63"/>
-      <c r="AM30" s="63"/>
-      <c r="AN30" s="63"/>
-      <c r="AO30" s="63"/>
-      <c r="AP30" s="63"/>
-      <c r="AQ30" s="63"/>
-      <c r="AR30" s="79"/>
+      <c r="AA30" s="125"/>
+      <c r="AB30" s="126"/>
+      <c r="AC30" s="126"/>
+      <c r="AD30" s="126"/>
+      <c r="AE30" s="126"/>
+      <c r="AF30" s="126"/>
+      <c r="AG30" s="126"/>
+      <c r="AH30" s="126"/>
+      <c r="AI30" s="126"/>
+      <c r="AJ30" s="126"/>
+      <c r="AK30" s="126"/>
+      <c r="AL30" s="126"/>
+      <c r="AM30" s="126"/>
+      <c r="AN30" s="126"/>
+      <c r="AO30" s="126"/>
+      <c r="AP30" s="126"/>
+      <c r="AQ30" s="126"/>
+      <c r="AR30" s="127"/>
       <c r="AS30" s="6"/>
       <c r="AT30" s="5"/>
       <c r="AU30" s="5"/>
@@ -4747,35 +4754,35 @@
       <c r="J31" s="5"/>
       <c r="K31" s="14"/>
       <c r="N31" s="13"/>
-      <c r="O31" s="65"/>
-      <c r="P31" s="66"/>
-      <c r="Q31" s="66"/>
-      <c r="R31" s="66"/>
-      <c r="S31" s="66"/>
-      <c r="T31" s="66"/>
-      <c r="U31" s="66"/>
-      <c r="V31" s="67"/>
+      <c r="O31" s="73"/>
+      <c r="P31" s="74"/>
+      <c r="Q31" s="74"/>
+      <c r="R31" s="74"/>
+      <c r="S31" s="74"/>
+      <c r="T31" s="74"/>
+      <c r="U31" s="74"/>
+      <c r="V31" s="75"/>
       <c r="W31" s="14"/>
       <c r="X31" s="5"/>
       <c r="Z31" s="5"/>
-      <c r="AA31" s="78"/>
-      <c r="AB31" s="63"/>
-      <c r="AC31" s="63"/>
-      <c r="AD31" s="63"/>
-      <c r="AE31" s="63"/>
-      <c r="AF31" s="63"/>
-      <c r="AG31" s="63"/>
-      <c r="AH31" s="63"/>
-      <c r="AI31" s="63"/>
-      <c r="AJ31" s="63"/>
-      <c r="AK31" s="63"/>
-      <c r="AL31" s="63"/>
-      <c r="AM31" s="63"/>
-      <c r="AN31" s="63"/>
-      <c r="AO31" s="63"/>
-      <c r="AP31" s="63"/>
-      <c r="AQ31" s="63"/>
-      <c r="AR31" s="79"/>
+      <c r="AA31" s="125"/>
+      <c r="AB31" s="126"/>
+      <c r="AC31" s="126"/>
+      <c r="AD31" s="126"/>
+      <c r="AE31" s="126"/>
+      <c r="AF31" s="126"/>
+      <c r="AG31" s="126"/>
+      <c r="AH31" s="126"/>
+      <c r="AI31" s="126"/>
+      <c r="AJ31" s="126"/>
+      <c r="AK31" s="126"/>
+      <c r="AL31" s="126"/>
+      <c r="AM31" s="126"/>
+      <c r="AN31" s="126"/>
+      <c r="AO31" s="126"/>
+      <c r="AP31" s="126"/>
+      <c r="AQ31" s="126"/>
+      <c r="AR31" s="127"/>
       <c r="AS31" s="6"/>
       <c r="AT31" s="5"/>
       <c r="AU31" s="5"/>
@@ -4805,24 +4812,24 @@
       <c r="W32" s="14"/>
       <c r="X32" s="5"/>
       <c r="Z32" s="5"/>
-      <c r="AA32" s="78"/>
-      <c r="AB32" s="63"/>
-      <c r="AC32" s="63"/>
-      <c r="AD32" s="63"/>
-      <c r="AE32" s="63"/>
-      <c r="AF32" s="63"/>
-      <c r="AG32" s="63"/>
-      <c r="AH32" s="63"/>
-      <c r="AI32" s="63"/>
-      <c r="AJ32" s="63"/>
-      <c r="AK32" s="63"/>
-      <c r="AL32" s="63"/>
-      <c r="AM32" s="63"/>
-      <c r="AN32" s="63"/>
-      <c r="AO32" s="63"/>
-      <c r="AP32" s="63"/>
-      <c r="AQ32" s="63"/>
-      <c r="AR32" s="79"/>
+      <c r="AA32" s="125"/>
+      <c r="AB32" s="126"/>
+      <c r="AC32" s="126"/>
+      <c r="AD32" s="126"/>
+      <c r="AE32" s="126"/>
+      <c r="AF32" s="126"/>
+      <c r="AG32" s="126"/>
+      <c r="AH32" s="126"/>
+      <c r="AI32" s="126"/>
+      <c r="AJ32" s="126"/>
+      <c r="AK32" s="126"/>
+      <c r="AL32" s="126"/>
+      <c r="AM32" s="126"/>
+      <c r="AN32" s="126"/>
+      <c r="AO32" s="126"/>
+      <c r="AP32" s="126"/>
+      <c r="AQ32" s="126"/>
+      <c r="AR32" s="127"/>
       <c r="AS32" s="6"/>
       <c r="AT32" s="5"/>
       <c r="AU32" s="5"/>
@@ -4831,51 +4838,51 @@
     </row>
     <row r="33" spans="2:49" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="13"/>
-      <c r="C33" s="98" t="s">
+      <c r="C33" s="134" t="s">
         <v>20</v>
       </c>
-      <c r="D33" s="99"/>
-      <c r="E33" s="100"/>
+      <c r="D33" s="135"/>
+      <c r="E33" s="136"/>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
-      <c r="H33" s="98" t="s">
+      <c r="H33" s="134" t="s">
         <v>21</v>
       </c>
-      <c r="I33" s="99"/>
-      <c r="J33" s="100"/>
+      <c r="I33" s="135"/>
+      <c r="J33" s="136"/>
       <c r="K33" s="14"/>
       <c r="N33" s="13"/>
-      <c r="O33" s="68" t="s">
+      <c r="O33" s="121" t="s">
         <v>16</v>
       </c>
-      <c r="P33" s="68"/>
-      <c r="Q33" s="68"/>
-      <c r="R33" s="68"/>
-      <c r="S33" s="68"/>
-      <c r="T33" s="68"/>
-      <c r="U33" s="68"/>
-      <c r="V33" s="68"/>
+      <c r="P33" s="121"/>
+      <c r="Q33" s="121"/>
+      <c r="R33" s="121"/>
+      <c r="S33" s="121"/>
+      <c r="T33" s="121"/>
+      <c r="U33" s="121"/>
+      <c r="V33" s="121"/>
       <c r="W33" s="14"/>
       <c r="X33" s="5"/>
       <c r="Z33" s="5"/>
-      <c r="AA33" s="80"/>
-      <c r="AB33" s="81"/>
-      <c r="AC33" s="81"/>
-      <c r="AD33" s="81"/>
-      <c r="AE33" s="81"/>
-      <c r="AF33" s="81"/>
-      <c r="AG33" s="81"/>
-      <c r="AH33" s="81"/>
-      <c r="AI33" s="81"/>
-      <c r="AJ33" s="81"/>
-      <c r="AK33" s="81"/>
-      <c r="AL33" s="81"/>
-      <c r="AM33" s="81"/>
-      <c r="AN33" s="81"/>
-      <c r="AO33" s="81"/>
-      <c r="AP33" s="81"/>
-      <c r="AQ33" s="81"/>
-      <c r="AR33" s="82"/>
+      <c r="AA33" s="103"/>
+      <c r="AB33" s="104"/>
+      <c r="AC33" s="104"/>
+      <c r="AD33" s="104"/>
+      <c r="AE33" s="104"/>
+      <c r="AF33" s="104"/>
+      <c r="AG33" s="104"/>
+      <c r="AH33" s="104"/>
+      <c r="AI33" s="104"/>
+      <c r="AJ33" s="104"/>
+      <c r="AK33" s="104"/>
+      <c r="AL33" s="104"/>
+      <c r="AM33" s="104"/>
+      <c r="AN33" s="104"/>
+      <c r="AO33" s="104"/>
+      <c r="AP33" s="104"/>
+      <c r="AQ33" s="104"/>
+      <c r="AR33" s="105"/>
       <c r="AS33" s="6"/>
       <c r="AT33" s="5"/>
       <c r="AU33" s="5"/>
@@ -4884,26 +4891,26 @@
     </row>
     <row r="34" spans="2:49" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="13"/>
-      <c r="C34" s="101"/>
-      <c r="D34" s="102"/>
-      <c r="E34" s="103"/>
+      <c r="C34" s="137"/>
+      <c r="D34" s="138"/>
+      <c r="E34" s="139"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
-      <c r="H34" s="101"/>
-      <c r="I34" s="102"/>
-      <c r="J34" s="103"/>
+      <c r="H34" s="137"/>
+      <c r="I34" s="138"/>
+      <c r="J34" s="139"/>
       <c r="K34" s="14"/>
       <c r="N34" s="13"/>
-      <c r="O34" s="68" t="s">
+      <c r="O34" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="P34" s="68"/>
-      <c r="Q34" s="68"/>
-      <c r="R34" s="68"/>
-      <c r="S34" s="68"/>
-      <c r="T34" s="68"/>
-      <c r="U34" s="68"/>
-      <c r="V34" s="68"/>
+      <c r="P34" s="121"/>
+      <c r="Q34" s="121"/>
+      <c r="R34" s="121"/>
+      <c r="S34" s="121"/>
+      <c r="T34" s="121"/>
+      <c r="U34" s="121"/>
+      <c r="V34" s="121"/>
       <c r="W34" s="14"/>
       <c r="X34" s="5"/>
       <c r="Z34" s="5"/>
@@ -4933,26 +4940,26 @@
     </row>
     <row r="35" spans="2:49" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="13"/>
-      <c r="C35" s="104"/>
-      <c r="D35" s="105"/>
-      <c r="E35" s="106"/>
+      <c r="C35" s="140"/>
+      <c r="D35" s="141"/>
+      <c r="E35" s="142"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
-      <c r="H35" s="104"/>
-      <c r="I35" s="105"/>
-      <c r="J35" s="106"/>
+      <c r="H35" s="140"/>
+      <c r="I35" s="141"/>
+      <c r="J35" s="142"/>
       <c r="K35" s="14"/>
       <c r="N35" s="13"/>
-      <c r="O35" s="68" t="s">
+      <c r="O35" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="P35" s="68"/>
-      <c r="Q35" s="68"/>
-      <c r="R35" s="68"/>
-      <c r="S35" s="68"/>
-      <c r="T35" s="68"/>
-      <c r="U35" s="68"/>
-      <c r="V35" s="68"/>
+      <c r="P35" s="121"/>
+      <c r="Q35" s="121"/>
+      <c r="R35" s="121"/>
+      <c r="S35" s="121"/>
+      <c r="T35" s="121"/>
+      <c r="U35" s="121"/>
+      <c r="V35" s="121"/>
       <c r="W35" s="14"/>
       <c r="X35" s="5"/>
       <c r="Z35" s="5"/>
@@ -5244,36 +5251,11 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="B2:B19"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="K2:K19"/>
-    <mergeCell ref="O3:V5"/>
-    <mergeCell ref="O8:V8"/>
-    <mergeCell ref="O11:V11"/>
-    <mergeCell ref="O13:V14"/>
-    <mergeCell ref="O17:V18"/>
-    <mergeCell ref="O19:V19"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="C3:J18"/>
-    <mergeCell ref="N2:N19"/>
-    <mergeCell ref="O2:V2"/>
-    <mergeCell ref="O7:V7"/>
-    <mergeCell ref="O10:V10"/>
-    <mergeCell ref="AB4:AH4"/>
-    <mergeCell ref="AL19:AU19"/>
-    <mergeCell ref="AM2:AU2"/>
-    <mergeCell ref="AL3:AU4"/>
-    <mergeCell ref="Z2:AI2"/>
-    <mergeCell ref="Z18:AI19"/>
-    <mergeCell ref="Z3:AA4"/>
-    <mergeCell ref="Z5:AA6"/>
-    <mergeCell ref="Z7:AA8"/>
-    <mergeCell ref="Z9:AA10"/>
-    <mergeCell ref="Z11:AA12"/>
-    <mergeCell ref="Z13:AA14"/>
-    <mergeCell ref="Z15:AA16"/>
-    <mergeCell ref="Z17:AA17"/>
-    <mergeCell ref="AL17:AU18"/>
+    <mergeCell ref="O24:V31"/>
+    <mergeCell ref="O33:V33"/>
+    <mergeCell ref="O34:V34"/>
+    <mergeCell ref="O35:V35"/>
+    <mergeCell ref="W2:W19"/>
     <mergeCell ref="F23:J23"/>
     <mergeCell ref="F24:J24"/>
     <mergeCell ref="F25:J25"/>
@@ -5290,11 +5272,36 @@
     <mergeCell ref="C33:E35"/>
     <mergeCell ref="H33:J35"/>
     <mergeCell ref="N22:W22"/>
-    <mergeCell ref="O24:V31"/>
-    <mergeCell ref="O33:V33"/>
-    <mergeCell ref="O34:V34"/>
-    <mergeCell ref="O35:V35"/>
-    <mergeCell ref="W2:W19"/>
+    <mergeCell ref="AB4:AH4"/>
+    <mergeCell ref="AL19:AU19"/>
+    <mergeCell ref="AM2:AU2"/>
+    <mergeCell ref="AL3:AU4"/>
+    <mergeCell ref="Z2:AI2"/>
+    <mergeCell ref="Z18:AI19"/>
+    <mergeCell ref="Z3:AA4"/>
+    <mergeCell ref="Z5:AA6"/>
+    <mergeCell ref="Z7:AA8"/>
+    <mergeCell ref="Z9:AA10"/>
+    <mergeCell ref="Z11:AA12"/>
+    <mergeCell ref="Z13:AA14"/>
+    <mergeCell ref="Z15:AA16"/>
+    <mergeCell ref="Z17:AA17"/>
+    <mergeCell ref="AL17:AU18"/>
+    <mergeCell ref="B2:B19"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="K2:K19"/>
+    <mergeCell ref="O3:V5"/>
+    <mergeCell ref="O8:V8"/>
+    <mergeCell ref="O11:V11"/>
+    <mergeCell ref="O13:V14"/>
+    <mergeCell ref="O17:V18"/>
+    <mergeCell ref="O19:V19"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="C3:J18"/>
+    <mergeCell ref="N2:N19"/>
+    <mergeCell ref="O2:V2"/>
+    <mergeCell ref="O7:V7"/>
+    <mergeCell ref="O10:V10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5306,8 +5313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CJ35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BC1" sqref="BC1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -5325,39 +5332,40 @@
         <v>32</v>
       </c>
       <c r="D1" s="58">
-        <v>23</v>
-      </c>
-      <c r="F1" s="175">
-        <f>4*D1</f>
-        <v>92</v>
-      </c>
-      <c r="G1" s="175"/>
-      <c r="M1" s="175">
-        <f>15*D1</f>
-        <v>345</v>
-      </c>
-      <c r="N1" s="175"/>
-      <c r="P1" s="175">
-        <f>17*D1+28</f>
-        <v>419</v>
-      </c>
-      <c r="Q1" s="175"/>
-      <c r="U1" s="175">
+        <f>500/32</f>
+        <v>15.625</v>
+      </c>
+      <c r="F1" s="145">
+        <f>COUNTBLANK(D2:G2)*D1</f>
+        <v>62.5</v>
+      </c>
+      <c r="G1" s="145"/>
+      <c r="M1" s="145">
+        <f>COUNTBLANK(H2:V2)*D1</f>
+        <v>234.375</v>
+      </c>
+      <c r="N1" s="145"/>
+      <c r="P1" s="145">
+        <f>COUNTBLANK(G2:W2)*D1+28</f>
+        <v>293.625</v>
+      </c>
+      <c r="Q1" s="145"/>
+      <c r="U1" s="145">
         <f>F1+M1+AC1</f>
-        <v>897</v>
-      </c>
-      <c r="V1" s="175"/>
-      <c r="W1" s="175"/>
-      <c r="AC1" s="175">
-        <f>20*D1</f>
-        <v>460</v>
-      </c>
-      <c r="AD1" s="175"/>
-      <c r="AX1" s="175">
+        <v>609.375</v>
+      </c>
+      <c r="V1" s="145"/>
+      <c r="W1" s="145"/>
+      <c r="AC1" s="145">
+        <f>COUNTBLANK(W2:AP2)*D1</f>
+        <v>312.5</v>
+      </c>
+      <c r="AD1" s="145"/>
+      <c r="AX1" s="145">
         <f>12*D1</f>
-        <v>276</v>
-      </c>
-      <c r="AY1" s="175"/>
+        <v>187.5</v>
+      </c>
+      <c r="AY1" s="145"/>
     </row>
     <row r="2" spans="1:87" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="56"/>
@@ -5365,18 +5373,18 @@
     <row r="3" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A3" s="25">
         <f>3*D1</f>
-        <v>69</v>
+        <v>46.875</v>
       </c>
       <c r="C3" s="28"/>
       <c r="D3" s="31"/>
       <c r="E3" s="32"/>
       <c r="F3" s="32"/>
       <c r="G3" s="33"/>
-      <c r="H3" s="75" t="s">
+      <c r="H3" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="76"/>
-      <c r="J3" s="145"/>
+      <c r="I3" s="123"/>
+      <c r="J3" s="146"/>
       <c r="K3" s="32"/>
       <c r="L3" s="32"/>
       <c r="M3" s="32"/>
@@ -5389,28 +5397,28 @@
       <c r="T3" s="32"/>
       <c r="U3" s="32"/>
       <c r="V3" s="33"/>
-      <c r="W3" s="172" t="s">
+      <c r="W3" s="155" t="s">
         <v>25</v>
       </c>
-      <c r="X3" s="173"/>
-      <c r="Y3" s="173"/>
-      <c r="Z3" s="173"/>
-      <c r="AA3" s="173"/>
-      <c r="AB3" s="173"/>
-      <c r="AC3" s="173"/>
-      <c r="AD3" s="173"/>
-      <c r="AE3" s="173"/>
-      <c r="AF3" s="173"/>
-      <c r="AG3" s="173"/>
-      <c r="AH3" s="173"/>
-      <c r="AI3" s="173"/>
-      <c r="AJ3" s="173"/>
-      <c r="AK3" s="173"/>
-      <c r="AL3" s="173"/>
-      <c r="AM3" s="173"/>
-      <c r="AN3" s="173"/>
-      <c r="AO3" s="173"/>
-      <c r="AP3" s="174"/>
+      <c r="X3" s="156"/>
+      <c r="Y3" s="156"/>
+      <c r="Z3" s="156"/>
+      <c r="AA3" s="156"/>
+      <c r="AB3" s="156"/>
+      <c r="AC3" s="156"/>
+      <c r="AD3" s="156"/>
+      <c r="AE3" s="156"/>
+      <c r="AF3" s="156"/>
+      <c r="AG3" s="156"/>
+      <c r="AH3" s="156"/>
+      <c r="AI3" s="156"/>
+      <c r="AJ3" s="156"/>
+      <c r="AK3" s="156"/>
+      <c r="AL3" s="156"/>
+      <c r="AM3" s="156"/>
+      <c r="AN3" s="156"/>
+      <c r="AO3" s="156"/>
+      <c r="AP3" s="157"/>
       <c r="AQ3" s="44"/>
       <c r="AU3" s="49"/>
       <c r="AV3" s="50"/>
@@ -5434,11 +5442,11 @@
       <c r="BN3" s="51"/>
       <c r="BO3" s="44"/>
       <c r="BS3" s="41"/>
-      <c r="BT3" s="75" t="s">
+      <c r="BT3" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="BU3" s="76"/>
-      <c r="BV3" s="145"/>
+      <c r="BU3" s="123"/>
+      <c r="BV3" s="146"/>
       <c r="BW3" s="32"/>
       <c r="BX3" s="32"/>
       <c r="BY3" s="32"/>
@@ -5456,16 +5464,16 @@
     <row r="4" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A4" s="25">
         <f>15*D1-10</f>
-        <v>335</v>
+        <v>224.375</v>
       </c>
       <c r="C4" s="29"/>
       <c r="D4" s="34"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="61"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="72"/>
       <c r="G4" s="35"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="64"/>
+      <c r="H4" s="125"/>
+      <c r="I4" s="126"/>
+      <c r="J4" s="144"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1" t="s">
         <v>30</v>
@@ -5480,26 +5488,26 @@
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="35"/>
-      <c r="W4" s="165"/>
-      <c r="X4" s="166"/>
-      <c r="Y4" s="166"/>
-      <c r="Z4" s="166"/>
-      <c r="AA4" s="166"/>
-      <c r="AB4" s="166"/>
-      <c r="AC4" s="166"/>
-      <c r="AD4" s="166"/>
-      <c r="AE4" s="166"/>
-      <c r="AF4" s="166"/>
-      <c r="AG4" s="166"/>
-      <c r="AH4" s="166"/>
-      <c r="AI4" s="166"/>
-      <c r="AJ4" s="166"/>
-      <c r="AK4" s="166"/>
-      <c r="AL4" s="166"/>
-      <c r="AM4" s="166"/>
-      <c r="AN4" s="166"/>
-      <c r="AO4" s="166"/>
-      <c r="AP4" s="167"/>
+      <c r="W4" s="158"/>
+      <c r="X4" s="159"/>
+      <c r="Y4" s="159"/>
+      <c r="Z4" s="159"/>
+      <c r="AA4" s="159"/>
+      <c r="AB4" s="159"/>
+      <c r="AC4" s="159"/>
+      <c r="AD4" s="159"/>
+      <c r="AE4" s="159"/>
+      <c r="AF4" s="159"/>
+      <c r="AG4" s="159"/>
+      <c r="AH4" s="159"/>
+      <c r="AI4" s="159"/>
+      <c r="AJ4" s="159"/>
+      <c r="AK4" s="159"/>
+      <c r="AL4" s="159"/>
+      <c r="AM4" s="159"/>
+      <c r="AN4" s="159"/>
+      <c r="AO4" s="159"/>
+      <c r="AP4" s="160"/>
       <c r="AQ4" s="39"/>
       <c r="AU4" s="47"/>
       <c r="AV4" s="6"/>
@@ -5523,9 +5531,9 @@
       <c r="BN4" s="48"/>
       <c r="BO4" s="39"/>
       <c r="BS4" s="42"/>
-      <c r="BT4" s="78"/>
-      <c r="BU4" s="63"/>
-      <c r="BV4" s="64"/>
+      <c r="BT4" s="125"/>
+      <c r="BU4" s="126"/>
+      <c r="BV4" s="144"/>
       <c r="BW4" s="1"/>
       <c r="BX4" s="1" t="s">
         <v>30</v>
@@ -5545,12 +5553,12 @@
     <row r="5" spans="1:87" x14ac:dyDescent="0.25">
       <c r="C5" s="29"/>
       <c r="D5" s="34"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="67"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="75"/>
       <c r="G5" s="35"/>
-      <c r="H5" s="146"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="67"/>
+      <c r="H5" s="147"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
@@ -5563,43 +5571,43 @@
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
       <c r="V5" s="4"/>
-      <c r="W5" s="168"/>
-      <c r="X5" s="169"/>
-      <c r="Y5" s="169"/>
-      <c r="Z5" s="169"/>
-      <c r="AA5" s="169"/>
-      <c r="AB5" s="169"/>
-      <c r="AC5" s="169"/>
-      <c r="AD5" s="169"/>
-      <c r="AE5" s="169"/>
-      <c r="AF5" s="169"/>
-      <c r="AG5" s="169"/>
-      <c r="AH5" s="169"/>
-      <c r="AI5" s="169"/>
-      <c r="AJ5" s="169"/>
-      <c r="AK5" s="169"/>
-      <c r="AL5" s="169"/>
-      <c r="AM5" s="169"/>
-      <c r="AN5" s="169"/>
-      <c r="AO5" s="169"/>
-      <c r="AP5" s="170"/>
+      <c r="W5" s="161"/>
+      <c r="X5" s="162"/>
+      <c r="Y5" s="162"/>
+      <c r="Z5" s="162"/>
+      <c r="AA5" s="162"/>
+      <c r="AB5" s="162"/>
+      <c r="AC5" s="162"/>
+      <c r="AD5" s="162"/>
+      <c r="AE5" s="162"/>
+      <c r="AF5" s="162"/>
+      <c r="AG5" s="162"/>
+      <c r="AH5" s="162"/>
+      <c r="AI5" s="162"/>
+      <c r="AJ5" s="162"/>
+      <c r="AK5" s="162"/>
+      <c r="AL5" s="162"/>
+      <c r="AM5" s="162"/>
+      <c r="AN5" s="162"/>
+      <c r="AO5" s="162"/>
+      <c r="AP5" s="163"/>
       <c r="AQ5" s="39"/>
       <c r="AU5" s="47"/>
       <c r="AV5" s="6"/>
-      <c r="AW5" s="98" t="s">
+      <c r="AW5" s="134" t="s">
         <v>27</v>
       </c>
-      <c r="AX5" s="99"/>
-      <c r="AY5" s="99"/>
-      <c r="AZ5" s="99"/>
-      <c r="BA5" s="99"/>
-      <c r="BB5" s="99"/>
-      <c r="BC5" s="99"/>
-      <c r="BD5" s="99"/>
-      <c r="BE5" s="99"/>
-      <c r="BF5" s="99"/>
-      <c r="BG5" s="99"/>
-      <c r="BH5" s="100"/>
+      <c r="AX5" s="135"/>
+      <c r="AY5" s="135"/>
+      <c r="AZ5" s="135"/>
+      <c r="BA5" s="135"/>
+      <c r="BB5" s="135"/>
+      <c r="BC5" s="135"/>
+      <c r="BD5" s="135"/>
+      <c r="BE5" s="135"/>
+      <c r="BF5" s="135"/>
+      <c r="BG5" s="135"/>
+      <c r="BH5" s="136"/>
       <c r="BI5" s="6"/>
       <c r="BJ5" s="6"/>
       <c r="BK5" s="6"/>
@@ -5608,9 +5616,9 @@
       <c r="BN5" s="48"/>
       <c r="BO5" s="39"/>
       <c r="BS5" s="42"/>
-      <c r="BT5" s="146"/>
-      <c r="BU5" s="66"/>
-      <c r="BV5" s="67"/>
+      <c r="BT5" s="147"/>
+      <c r="BU5" s="74"/>
+      <c r="BV5" s="75"/>
       <c r="BW5" s="2"/>
       <c r="BX5" s="2"/>
       <c r="BY5" s="2"/>
@@ -5631,12 +5639,12 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="35"/>
-      <c r="H6" s="116" t="s">
+      <c r="H6" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="61"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="72"/>
       <c r="L6" s="43"/>
       <c r="M6" s="43"/>
       <c r="N6" s="43"/>
@@ -5647,44 +5655,44 @@
       <c r="S6" s="43"/>
       <c r="T6" s="43"/>
       <c r="U6" s="44"/>
-      <c r="V6" s="147"/>
-      <c r="W6" s="153" t="s">
+      <c r="V6" s="148"/>
+      <c r="W6" s="164" t="s">
         <v>24</v>
       </c>
-      <c r="X6" s="154"/>
-      <c r="Y6" s="154"/>
-      <c r="Z6" s="154"/>
-      <c r="AA6" s="154"/>
-      <c r="AB6" s="154"/>
-      <c r="AC6" s="154"/>
-      <c r="AD6" s="154"/>
-      <c r="AE6" s="154"/>
-      <c r="AF6" s="154"/>
-      <c r="AG6" s="154"/>
-      <c r="AH6" s="154"/>
-      <c r="AI6" s="154"/>
-      <c r="AJ6" s="154"/>
-      <c r="AK6" s="154"/>
-      <c r="AL6" s="154"/>
-      <c r="AM6" s="154"/>
-      <c r="AN6" s="154"/>
-      <c r="AO6" s="154"/>
-      <c r="AP6" s="155"/>
+      <c r="X6" s="165"/>
+      <c r="Y6" s="165"/>
+      <c r="Z6" s="165"/>
+      <c r="AA6" s="165"/>
+      <c r="AB6" s="165"/>
+      <c r="AC6" s="165"/>
+      <c r="AD6" s="165"/>
+      <c r="AE6" s="165"/>
+      <c r="AF6" s="165"/>
+      <c r="AG6" s="165"/>
+      <c r="AH6" s="165"/>
+      <c r="AI6" s="165"/>
+      <c r="AJ6" s="165"/>
+      <c r="AK6" s="165"/>
+      <c r="AL6" s="165"/>
+      <c r="AM6" s="165"/>
+      <c r="AN6" s="165"/>
+      <c r="AO6" s="165"/>
+      <c r="AP6" s="166"/>
       <c r="AQ6" s="39"/>
       <c r="AU6" s="47"/>
       <c r="AV6" s="6"/>
-      <c r="AW6" s="101"/>
-      <c r="AX6" s="102"/>
-      <c r="AY6" s="102"/>
-      <c r="AZ6" s="102"/>
-      <c r="BA6" s="102"/>
-      <c r="BB6" s="102"/>
-      <c r="BC6" s="102"/>
-      <c r="BD6" s="102"/>
-      <c r="BE6" s="102"/>
-      <c r="BF6" s="102"/>
-      <c r="BG6" s="102"/>
-      <c r="BH6" s="103"/>
+      <c r="AW6" s="137"/>
+      <c r="AX6" s="138"/>
+      <c r="AY6" s="138"/>
+      <c r="AZ6" s="138"/>
+      <c r="BA6" s="138"/>
+      <c r="BB6" s="138"/>
+      <c r="BC6" s="138"/>
+      <c r="BD6" s="138"/>
+      <c r="BE6" s="138"/>
+      <c r="BF6" s="138"/>
+      <c r="BG6" s="138"/>
+      <c r="BH6" s="139"/>
       <c r="BI6" s="6"/>
       <c r="BJ6" s="6"/>
       <c r="BK6" s="6"/>
@@ -5693,12 +5701,12 @@
       <c r="BN6" s="48"/>
       <c r="BO6" s="39"/>
       <c r="BS6" s="42"/>
-      <c r="BT6" s="116" t="s">
+      <c r="BT6" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="BU6" s="60"/>
-      <c r="BV6" s="60"/>
-      <c r="BW6" s="61"/>
+      <c r="BU6" s="71"/>
+      <c r="BV6" s="71"/>
+      <c r="BW6" s="72"/>
       <c r="BX6" s="43"/>
       <c r="BY6" s="43"/>
       <c r="BZ6" s="43"/>
@@ -5709,19 +5717,19 @@
       <c r="CE6" s="43"/>
       <c r="CF6" s="43"/>
       <c r="CG6" s="44"/>
-      <c r="CH6" s="147"/>
+      <c r="CH6" s="148"/>
       <c r="CI6" s="39"/>
     </row>
     <row r="7" spans="1:87" x14ac:dyDescent="0.25">
       <c r="C7" s="29"/>
       <c r="D7" s="34"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="61"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="72"/>
       <c r="G7" s="35"/>
-      <c r="H7" s="78"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="64"/>
+      <c r="H7" s="125"/>
+      <c r="I7" s="126"/>
+      <c r="J7" s="126"/>
+      <c r="K7" s="144"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1" t="s">
         <v>8</v>
@@ -5734,42 +5742,42 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
       <c r="U7" s="39"/>
-      <c r="V7" s="148"/>
-      <c r="W7" s="156"/>
-      <c r="X7" s="157"/>
-      <c r="Y7" s="157"/>
-      <c r="Z7" s="157"/>
-      <c r="AA7" s="157"/>
-      <c r="AB7" s="157"/>
-      <c r="AC7" s="157"/>
-      <c r="AD7" s="157"/>
-      <c r="AE7" s="157"/>
-      <c r="AF7" s="157"/>
-      <c r="AG7" s="157"/>
-      <c r="AH7" s="157"/>
-      <c r="AI7" s="157"/>
-      <c r="AJ7" s="157"/>
-      <c r="AK7" s="157"/>
-      <c r="AL7" s="157"/>
-      <c r="AM7" s="157"/>
-      <c r="AN7" s="157"/>
-      <c r="AO7" s="157"/>
-      <c r="AP7" s="158"/>
+      <c r="V7" s="149"/>
+      <c r="W7" s="167"/>
+      <c r="X7" s="168"/>
+      <c r="Y7" s="168"/>
+      <c r="Z7" s="168"/>
+      <c r="AA7" s="168"/>
+      <c r="AB7" s="168"/>
+      <c r="AC7" s="168"/>
+      <c r="AD7" s="168"/>
+      <c r="AE7" s="168"/>
+      <c r="AF7" s="168"/>
+      <c r="AG7" s="168"/>
+      <c r="AH7" s="168"/>
+      <c r="AI7" s="168"/>
+      <c r="AJ7" s="168"/>
+      <c r="AK7" s="168"/>
+      <c r="AL7" s="168"/>
+      <c r="AM7" s="168"/>
+      <c r="AN7" s="168"/>
+      <c r="AO7" s="168"/>
+      <c r="AP7" s="169"/>
       <c r="AQ7" s="39"/>
       <c r="AU7" s="47"/>
       <c r="AV7" s="6"/>
-      <c r="AW7" s="101"/>
-      <c r="AX7" s="102"/>
-      <c r="AY7" s="102"/>
-      <c r="AZ7" s="102"/>
-      <c r="BA7" s="102"/>
-      <c r="BB7" s="102"/>
-      <c r="BC7" s="102"/>
-      <c r="BD7" s="102"/>
-      <c r="BE7" s="102"/>
-      <c r="BF7" s="102"/>
-      <c r="BG7" s="102"/>
-      <c r="BH7" s="103"/>
+      <c r="AW7" s="137"/>
+      <c r="AX7" s="138"/>
+      <c r="AY7" s="138"/>
+      <c r="AZ7" s="138"/>
+      <c r="BA7" s="138"/>
+      <c r="BB7" s="138"/>
+      <c r="BC7" s="138"/>
+      <c r="BD7" s="138"/>
+      <c r="BE7" s="138"/>
+      <c r="BF7" s="138"/>
+      <c r="BG7" s="138"/>
+      <c r="BH7" s="139"/>
       <c r="BI7" s="6"/>
       <c r="BJ7" s="6"/>
       <c r="BK7" s="6"/>
@@ -5778,10 +5786,10 @@
       <c r="BN7" s="48"/>
       <c r="BO7" s="39"/>
       <c r="BS7" s="42"/>
-      <c r="BT7" s="78"/>
-      <c r="BU7" s="63"/>
-      <c r="BV7" s="63"/>
-      <c r="BW7" s="64"/>
+      <c r="BT7" s="125"/>
+      <c r="BU7" s="126"/>
+      <c r="BV7" s="126"/>
+      <c r="BW7" s="144"/>
       <c r="BX7" s="1"/>
       <c r="BY7" s="1" t="s">
         <v>8</v>
@@ -5794,19 +5802,19 @@
       <c r="CE7" s="1"/>
       <c r="CF7" s="1"/>
       <c r="CG7" s="39"/>
-      <c r="CH7" s="148"/>
+      <c r="CH7" s="149"/>
       <c r="CI7" s="39"/>
     </row>
     <row r="8" spans="1:87" x14ac:dyDescent="0.25">
       <c r="C8" s="29"/>
       <c r="D8" s="34"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="67"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="75"/>
       <c r="G8" s="35"/>
-      <c r="H8" s="78"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="64"/>
+      <c r="H8" s="125"/>
+      <c r="I8" s="126"/>
+      <c r="J8" s="126"/>
+      <c r="K8" s="144"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -5817,42 +5825,42 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
       <c r="U8" s="39"/>
-      <c r="V8" s="148"/>
-      <c r="W8" s="159"/>
-      <c r="X8" s="160"/>
-      <c r="Y8" s="160"/>
-      <c r="Z8" s="160"/>
-      <c r="AA8" s="160"/>
-      <c r="AB8" s="160"/>
-      <c r="AC8" s="160"/>
-      <c r="AD8" s="160"/>
-      <c r="AE8" s="160"/>
-      <c r="AF8" s="160"/>
-      <c r="AG8" s="160"/>
-      <c r="AH8" s="160"/>
-      <c r="AI8" s="160"/>
-      <c r="AJ8" s="160"/>
-      <c r="AK8" s="160"/>
-      <c r="AL8" s="160"/>
-      <c r="AM8" s="160"/>
-      <c r="AN8" s="160"/>
-      <c r="AO8" s="160"/>
-      <c r="AP8" s="161"/>
+      <c r="V8" s="149"/>
+      <c r="W8" s="170"/>
+      <c r="X8" s="171"/>
+      <c r="Y8" s="171"/>
+      <c r="Z8" s="171"/>
+      <c r="AA8" s="171"/>
+      <c r="AB8" s="171"/>
+      <c r="AC8" s="171"/>
+      <c r="AD8" s="171"/>
+      <c r="AE8" s="171"/>
+      <c r="AF8" s="171"/>
+      <c r="AG8" s="171"/>
+      <c r="AH8" s="171"/>
+      <c r="AI8" s="171"/>
+      <c r="AJ8" s="171"/>
+      <c r="AK8" s="171"/>
+      <c r="AL8" s="171"/>
+      <c r="AM8" s="171"/>
+      <c r="AN8" s="171"/>
+      <c r="AO8" s="171"/>
+      <c r="AP8" s="172"/>
       <c r="AQ8" s="39"/>
       <c r="AU8" s="47"/>
       <c r="AV8" s="6"/>
-      <c r="AW8" s="101"/>
-      <c r="AX8" s="102"/>
-      <c r="AY8" s="102"/>
-      <c r="AZ8" s="102"/>
-      <c r="BA8" s="102"/>
-      <c r="BB8" s="102"/>
-      <c r="BC8" s="102"/>
-      <c r="BD8" s="102"/>
-      <c r="BE8" s="102"/>
-      <c r="BF8" s="102"/>
-      <c r="BG8" s="102"/>
-      <c r="BH8" s="103"/>
+      <c r="AW8" s="137"/>
+      <c r="AX8" s="138"/>
+      <c r="AY8" s="138"/>
+      <c r="AZ8" s="138"/>
+      <c r="BA8" s="138"/>
+      <c r="BB8" s="138"/>
+      <c r="BC8" s="138"/>
+      <c r="BD8" s="138"/>
+      <c r="BE8" s="138"/>
+      <c r="BF8" s="138"/>
+      <c r="BG8" s="138"/>
+      <c r="BH8" s="139"/>
       <c r="BI8" s="6"/>
       <c r="BJ8" s="6"/>
       <c r="BK8" s="6"/>
@@ -5861,10 +5869,10 @@
       <c r="BN8" s="48"/>
       <c r="BO8" s="39"/>
       <c r="BS8" s="42"/>
-      <c r="BT8" s="78"/>
-      <c r="BU8" s="63"/>
-      <c r="BV8" s="63"/>
-      <c r="BW8" s="64"/>
+      <c r="BT8" s="125"/>
+      <c r="BU8" s="126"/>
+      <c r="BV8" s="126"/>
+      <c r="BW8" s="144"/>
       <c r="BX8" s="1"/>
       <c r="BY8" s="1"/>
       <c r="BZ8" s="1"/>
@@ -5875,7 +5883,7 @@
       <c r="CE8" s="1"/>
       <c r="CF8" s="1"/>
       <c r="CG8" s="39"/>
-      <c r="CH8" s="148"/>
+      <c r="CH8" s="149"/>
       <c r="CI8" s="39"/>
     </row>
     <row r="9" spans="1:87" x14ac:dyDescent="0.25">
@@ -5884,10 +5892,10 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="35"/>
-      <c r="H9" s="146"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="67"/>
+      <c r="H9" s="147"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="74"/>
+      <c r="K9" s="75"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -5898,44 +5906,44 @@
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
       <c r="U9" s="40"/>
-      <c r="V9" s="148"/>
-      <c r="W9" s="162" t="s">
+      <c r="V9" s="149"/>
+      <c r="W9" s="173" t="s">
         <v>25</v>
       </c>
-      <c r="X9" s="163"/>
-      <c r="Y9" s="163"/>
-      <c r="Z9" s="163"/>
-      <c r="AA9" s="163"/>
-      <c r="AB9" s="163"/>
-      <c r="AC9" s="163"/>
-      <c r="AD9" s="163"/>
-      <c r="AE9" s="163"/>
-      <c r="AF9" s="163"/>
-      <c r="AG9" s="163"/>
-      <c r="AH9" s="163"/>
-      <c r="AI9" s="163"/>
-      <c r="AJ9" s="163"/>
-      <c r="AK9" s="163"/>
-      <c r="AL9" s="163"/>
-      <c r="AM9" s="163"/>
-      <c r="AN9" s="163"/>
-      <c r="AO9" s="163"/>
-      <c r="AP9" s="164"/>
+      <c r="X9" s="174"/>
+      <c r="Y9" s="174"/>
+      <c r="Z9" s="174"/>
+      <c r="AA9" s="174"/>
+      <c r="AB9" s="174"/>
+      <c r="AC9" s="174"/>
+      <c r="AD9" s="174"/>
+      <c r="AE9" s="174"/>
+      <c r="AF9" s="174"/>
+      <c r="AG9" s="174"/>
+      <c r="AH9" s="174"/>
+      <c r="AI9" s="174"/>
+      <c r="AJ9" s="174"/>
+      <c r="AK9" s="174"/>
+      <c r="AL9" s="174"/>
+      <c r="AM9" s="174"/>
+      <c r="AN9" s="174"/>
+      <c r="AO9" s="174"/>
+      <c r="AP9" s="175"/>
       <c r="AQ9" s="39"/>
       <c r="AU9" s="47"/>
       <c r="AV9" s="6"/>
-      <c r="AW9" s="101"/>
-      <c r="AX9" s="102"/>
-      <c r="AY9" s="102"/>
-      <c r="AZ9" s="102"/>
-      <c r="BA9" s="102"/>
-      <c r="BB9" s="102"/>
-      <c r="BC9" s="102"/>
-      <c r="BD9" s="102"/>
-      <c r="BE9" s="102"/>
-      <c r="BF9" s="102"/>
-      <c r="BG9" s="102"/>
-      <c r="BH9" s="103"/>
+      <c r="AW9" s="137"/>
+      <c r="AX9" s="138"/>
+      <c r="AY9" s="138"/>
+      <c r="AZ9" s="138"/>
+      <c r="BA9" s="138"/>
+      <c r="BB9" s="138"/>
+      <c r="BC9" s="138"/>
+      <c r="BD9" s="138"/>
+      <c r="BE9" s="138"/>
+      <c r="BF9" s="138"/>
+      <c r="BG9" s="138"/>
+      <c r="BH9" s="139"/>
       <c r="BI9" s="6"/>
       <c r="BJ9" s="6"/>
       <c r="BK9" s="6"/>
@@ -5944,10 +5952,10 @@
       <c r="BN9" s="48"/>
       <c r="BO9" s="39"/>
       <c r="BS9" s="42"/>
-      <c r="BT9" s="146"/>
-      <c r="BU9" s="66"/>
-      <c r="BV9" s="66"/>
-      <c r="BW9" s="67"/>
+      <c r="BT9" s="147"/>
+      <c r="BU9" s="74"/>
+      <c r="BV9" s="74"/>
+      <c r="BW9" s="75"/>
       <c r="BX9" s="2"/>
       <c r="BY9" s="2"/>
       <c r="BZ9" s="2"/>
@@ -5958,7 +5966,7 @@
       <c r="CE9" s="2"/>
       <c r="CF9" s="2"/>
       <c r="CG9" s="40"/>
-      <c r="CH9" s="148"/>
+      <c r="CH9" s="149"/>
       <c r="CI9" s="39"/>
     </row>
     <row r="10" spans="1:87" x14ac:dyDescent="0.25">
@@ -5967,12 +5975,12 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="35"/>
-      <c r="H10" s="116" t="s">
+      <c r="H10" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="60"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="61"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="71"/>
+      <c r="K10" s="72"/>
       <c r="L10" s="43"/>
       <c r="M10" s="43"/>
       <c r="N10" s="43"/>
@@ -5983,42 +5991,42 @@
       <c r="S10" s="43"/>
       <c r="T10" s="43"/>
       <c r="U10" s="44"/>
-      <c r="V10" s="148"/>
-      <c r="W10" s="165"/>
-      <c r="X10" s="166"/>
-      <c r="Y10" s="166"/>
-      <c r="Z10" s="166"/>
-      <c r="AA10" s="166"/>
-      <c r="AB10" s="166"/>
-      <c r="AC10" s="166"/>
-      <c r="AD10" s="166"/>
-      <c r="AE10" s="166"/>
-      <c r="AF10" s="166"/>
-      <c r="AG10" s="166"/>
-      <c r="AH10" s="166"/>
-      <c r="AI10" s="166"/>
-      <c r="AJ10" s="166"/>
-      <c r="AK10" s="166"/>
-      <c r="AL10" s="166"/>
-      <c r="AM10" s="166"/>
-      <c r="AN10" s="166"/>
-      <c r="AO10" s="166"/>
-      <c r="AP10" s="167"/>
+      <c r="V10" s="149"/>
+      <c r="W10" s="158"/>
+      <c r="X10" s="159"/>
+      <c r="Y10" s="159"/>
+      <c r="Z10" s="159"/>
+      <c r="AA10" s="159"/>
+      <c r="AB10" s="159"/>
+      <c r="AC10" s="159"/>
+      <c r="AD10" s="159"/>
+      <c r="AE10" s="159"/>
+      <c r="AF10" s="159"/>
+      <c r="AG10" s="159"/>
+      <c r="AH10" s="159"/>
+      <c r="AI10" s="159"/>
+      <c r="AJ10" s="159"/>
+      <c r="AK10" s="159"/>
+      <c r="AL10" s="159"/>
+      <c r="AM10" s="159"/>
+      <c r="AN10" s="159"/>
+      <c r="AO10" s="159"/>
+      <c r="AP10" s="160"/>
       <c r="AQ10" s="39"/>
       <c r="AU10" s="47"/>
       <c r="AV10" s="6"/>
-      <c r="AW10" s="101"/>
-      <c r="AX10" s="102"/>
-      <c r="AY10" s="102"/>
-      <c r="AZ10" s="102"/>
-      <c r="BA10" s="102"/>
-      <c r="BB10" s="102"/>
-      <c r="BC10" s="102"/>
-      <c r="BD10" s="102"/>
-      <c r="BE10" s="102"/>
-      <c r="BF10" s="102"/>
-      <c r="BG10" s="102"/>
-      <c r="BH10" s="103"/>
+      <c r="AW10" s="137"/>
+      <c r="AX10" s="138"/>
+      <c r="AY10" s="138"/>
+      <c r="AZ10" s="138"/>
+      <c r="BA10" s="138"/>
+      <c r="BB10" s="138"/>
+      <c r="BC10" s="138"/>
+      <c r="BD10" s="138"/>
+      <c r="BE10" s="138"/>
+      <c r="BF10" s="138"/>
+      <c r="BG10" s="138"/>
+      <c r="BH10" s="139"/>
       <c r="BI10" s="6"/>
       <c r="BJ10" s="6"/>
       <c r="BK10" s="6"/>
@@ -6027,12 +6035,12 @@
       <c r="BN10" s="48"/>
       <c r="BO10" s="39"/>
       <c r="BS10" s="42"/>
-      <c r="BT10" s="116" t="s">
+      <c r="BT10" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="BU10" s="60"/>
-      <c r="BV10" s="60"/>
-      <c r="BW10" s="61"/>
+      <c r="BU10" s="71"/>
+      <c r="BV10" s="71"/>
+      <c r="BW10" s="72"/>
       <c r="BX10" s="43"/>
       <c r="BY10" s="43"/>
       <c r="BZ10" s="43"/>
@@ -6043,7 +6051,7 @@
       <c r="CE10" s="43"/>
       <c r="CF10" s="43"/>
       <c r="CG10" s="44"/>
-      <c r="CH10" s="148"/>
+      <c r="CH10" s="149"/>
       <c r="CI10" s="39"/>
     </row>
     <row r="11" spans="1:87" x14ac:dyDescent="0.25">
@@ -6052,10 +6060,10 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="35"/>
-      <c r="H11" s="78"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="64"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="126"/>
+      <c r="J11" s="126"/>
+      <c r="K11" s="144"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1" t="s">
         <v>8</v>
@@ -6068,42 +6076,42 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
       <c r="U11" s="39"/>
-      <c r="V11" s="148"/>
-      <c r="W11" s="168"/>
-      <c r="X11" s="169"/>
-      <c r="Y11" s="169"/>
-      <c r="Z11" s="169"/>
-      <c r="AA11" s="169"/>
-      <c r="AB11" s="169"/>
-      <c r="AC11" s="169"/>
-      <c r="AD11" s="169"/>
-      <c r="AE11" s="169"/>
-      <c r="AF11" s="169"/>
-      <c r="AG11" s="169"/>
-      <c r="AH11" s="169"/>
-      <c r="AI11" s="169"/>
-      <c r="AJ11" s="169"/>
-      <c r="AK11" s="169"/>
-      <c r="AL11" s="169"/>
-      <c r="AM11" s="169"/>
-      <c r="AN11" s="169"/>
-      <c r="AO11" s="169"/>
-      <c r="AP11" s="170"/>
+      <c r="V11" s="149"/>
+      <c r="W11" s="161"/>
+      <c r="X11" s="162"/>
+      <c r="Y11" s="162"/>
+      <c r="Z11" s="162"/>
+      <c r="AA11" s="162"/>
+      <c r="AB11" s="162"/>
+      <c r="AC11" s="162"/>
+      <c r="AD11" s="162"/>
+      <c r="AE11" s="162"/>
+      <c r="AF11" s="162"/>
+      <c r="AG11" s="162"/>
+      <c r="AH11" s="162"/>
+      <c r="AI11" s="162"/>
+      <c r="AJ11" s="162"/>
+      <c r="AK11" s="162"/>
+      <c r="AL11" s="162"/>
+      <c r="AM11" s="162"/>
+      <c r="AN11" s="162"/>
+      <c r="AO11" s="162"/>
+      <c r="AP11" s="163"/>
       <c r="AQ11" s="39"/>
       <c r="AU11" s="47"/>
       <c r="AV11" s="6"/>
-      <c r="AW11" s="101"/>
-      <c r="AX11" s="102"/>
-      <c r="AY11" s="102"/>
-      <c r="AZ11" s="102"/>
-      <c r="BA11" s="102"/>
-      <c r="BB11" s="102"/>
-      <c r="BC11" s="102"/>
-      <c r="BD11" s="102"/>
-      <c r="BE11" s="102"/>
-      <c r="BF11" s="102"/>
-      <c r="BG11" s="102"/>
-      <c r="BH11" s="103"/>
+      <c r="AW11" s="137"/>
+      <c r="AX11" s="138"/>
+      <c r="AY11" s="138"/>
+      <c r="AZ11" s="138"/>
+      <c r="BA11" s="138"/>
+      <c r="BB11" s="138"/>
+      <c r="BC11" s="138"/>
+      <c r="BD11" s="138"/>
+      <c r="BE11" s="138"/>
+      <c r="BF11" s="138"/>
+      <c r="BG11" s="138"/>
+      <c r="BH11" s="139"/>
       <c r="BI11" s="6"/>
       <c r="BJ11" s="6"/>
       <c r="BK11" s="6"/>
@@ -6112,10 +6120,10 @@
       <c r="BN11" s="48"/>
       <c r="BO11" s="39"/>
       <c r="BS11" s="42"/>
-      <c r="BT11" s="78"/>
-      <c r="BU11" s="63"/>
-      <c r="BV11" s="63"/>
-      <c r="BW11" s="64"/>
+      <c r="BT11" s="125"/>
+      <c r="BU11" s="126"/>
+      <c r="BV11" s="126"/>
+      <c r="BW11" s="144"/>
       <c r="BX11" s="1"/>
       <c r="BY11" s="1" t="s">
         <v>8</v>
@@ -6128,7 +6136,7 @@
       <c r="CE11" s="1"/>
       <c r="CF11" s="1"/>
       <c r="CG11" s="39"/>
-      <c r="CH11" s="148"/>
+      <c r="CH11" s="149"/>
       <c r="CI11" s="39"/>
     </row>
     <row r="12" spans="1:87" x14ac:dyDescent="0.25">
@@ -6137,10 +6145,10 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="35"/>
-      <c r="H12" s="78"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="63"/>
-      <c r="K12" s="64"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="126"/>
+      <c r="J12" s="126"/>
+      <c r="K12" s="144"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -6151,44 +6159,44 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
       <c r="U12" s="39"/>
-      <c r="V12" s="148"/>
-      <c r="W12" s="153" t="s">
+      <c r="V12" s="149"/>
+      <c r="W12" s="164" t="s">
         <v>24</v>
       </c>
-      <c r="X12" s="154"/>
-      <c r="Y12" s="154"/>
-      <c r="Z12" s="154"/>
-      <c r="AA12" s="154"/>
-      <c r="AB12" s="154"/>
-      <c r="AC12" s="154"/>
-      <c r="AD12" s="154"/>
-      <c r="AE12" s="154"/>
-      <c r="AF12" s="154"/>
-      <c r="AG12" s="154"/>
-      <c r="AH12" s="154"/>
-      <c r="AI12" s="154"/>
-      <c r="AJ12" s="154"/>
-      <c r="AK12" s="154"/>
-      <c r="AL12" s="154"/>
-      <c r="AM12" s="154"/>
-      <c r="AN12" s="154"/>
-      <c r="AO12" s="154"/>
-      <c r="AP12" s="155"/>
+      <c r="X12" s="165"/>
+      <c r="Y12" s="165"/>
+      <c r="Z12" s="165"/>
+      <c r="AA12" s="165"/>
+      <c r="AB12" s="165"/>
+      <c r="AC12" s="165"/>
+      <c r="AD12" s="165"/>
+      <c r="AE12" s="165"/>
+      <c r="AF12" s="165"/>
+      <c r="AG12" s="165"/>
+      <c r="AH12" s="165"/>
+      <c r="AI12" s="165"/>
+      <c r="AJ12" s="165"/>
+      <c r="AK12" s="165"/>
+      <c r="AL12" s="165"/>
+      <c r="AM12" s="165"/>
+      <c r="AN12" s="165"/>
+      <c r="AO12" s="165"/>
+      <c r="AP12" s="166"/>
       <c r="AQ12" s="39"/>
       <c r="AU12" s="47"/>
       <c r="AV12" s="6"/>
-      <c r="AW12" s="101"/>
-      <c r="AX12" s="102"/>
-      <c r="AY12" s="102"/>
-      <c r="AZ12" s="102"/>
-      <c r="BA12" s="102"/>
-      <c r="BB12" s="102"/>
-      <c r="BC12" s="102"/>
-      <c r="BD12" s="102"/>
-      <c r="BE12" s="102"/>
-      <c r="BF12" s="102"/>
-      <c r="BG12" s="102"/>
-      <c r="BH12" s="103"/>
+      <c r="AW12" s="137"/>
+      <c r="AX12" s="138"/>
+      <c r="AY12" s="138"/>
+      <c r="AZ12" s="138"/>
+      <c r="BA12" s="138"/>
+      <c r="BB12" s="138"/>
+      <c r="BC12" s="138"/>
+      <c r="BD12" s="138"/>
+      <c r="BE12" s="138"/>
+      <c r="BF12" s="138"/>
+      <c r="BG12" s="138"/>
+      <c r="BH12" s="139"/>
       <c r="BI12" s="6"/>
       <c r="BJ12" s="6"/>
       <c r="BK12" s="6"/>
@@ -6197,10 +6205,10 @@
       <c r="BN12" s="48"/>
       <c r="BO12" s="39"/>
       <c r="BS12" s="42"/>
-      <c r="BT12" s="78"/>
-      <c r="BU12" s="63"/>
-      <c r="BV12" s="63"/>
-      <c r="BW12" s="64"/>
+      <c r="BT12" s="125"/>
+      <c r="BU12" s="126"/>
+      <c r="BV12" s="126"/>
+      <c r="BW12" s="144"/>
       <c r="BX12" s="1"/>
       <c r="BY12" s="1"/>
       <c r="BZ12" s="1"/>
@@ -6211,7 +6219,7 @@
       <c r="CE12" s="1"/>
       <c r="CF12" s="1"/>
       <c r="CG12" s="39"/>
-      <c r="CH12" s="148"/>
+      <c r="CH12" s="149"/>
       <c r="CI12" s="39"/>
     </row>
     <row r="13" spans="1:87" x14ac:dyDescent="0.25">
@@ -6220,10 +6228,10 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="35"/>
-      <c r="H13" s="146"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="67"/>
+      <c r="H13" s="147"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="74"/>
+      <c r="K13" s="75"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -6234,42 +6242,42 @@
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
       <c r="U13" s="40"/>
-      <c r="V13" s="148"/>
-      <c r="W13" s="156"/>
-      <c r="X13" s="157"/>
-      <c r="Y13" s="157"/>
-      <c r="Z13" s="157"/>
-      <c r="AA13" s="157"/>
-      <c r="AB13" s="157"/>
-      <c r="AC13" s="157"/>
-      <c r="AD13" s="157"/>
-      <c r="AE13" s="157"/>
-      <c r="AF13" s="157"/>
-      <c r="AG13" s="157"/>
-      <c r="AH13" s="157"/>
-      <c r="AI13" s="157"/>
-      <c r="AJ13" s="157"/>
-      <c r="AK13" s="157"/>
-      <c r="AL13" s="157"/>
-      <c r="AM13" s="157"/>
-      <c r="AN13" s="157"/>
-      <c r="AO13" s="157"/>
-      <c r="AP13" s="158"/>
+      <c r="V13" s="149"/>
+      <c r="W13" s="167"/>
+      <c r="X13" s="168"/>
+      <c r="Y13" s="168"/>
+      <c r="Z13" s="168"/>
+      <c r="AA13" s="168"/>
+      <c r="AB13" s="168"/>
+      <c r="AC13" s="168"/>
+      <c r="AD13" s="168"/>
+      <c r="AE13" s="168"/>
+      <c r="AF13" s="168"/>
+      <c r="AG13" s="168"/>
+      <c r="AH13" s="168"/>
+      <c r="AI13" s="168"/>
+      <c r="AJ13" s="168"/>
+      <c r="AK13" s="168"/>
+      <c r="AL13" s="168"/>
+      <c r="AM13" s="168"/>
+      <c r="AN13" s="168"/>
+      <c r="AO13" s="168"/>
+      <c r="AP13" s="169"/>
       <c r="AQ13" s="39"/>
       <c r="AU13" s="47"/>
       <c r="AV13" s="6"/>
-      <c r="AW13" s="101"/>
-      <c r="AX13" s="102"/>
-      <c r="AY13" s="102"/>
-      <c r="AZ13" s="102"/>
-      <c r="BA13" s="102"/>
-      <c r="BB13" s="102"/>
-      <c r="BC13" s="102"/>
-      <c r="BD13" s="102"/>
-      <c r="BE13" s="102"/>
-      <c r="BF13" s="102"/>
-      <c r="BG13" s="102"/>
-      <c r="BH13" s="103"/>
+      <c r="AW13" s="137"/>
+      <c r="AX13" s="138"/>
+      <c r="AY13" s="138"/>
+      <c r="AZ13" s="138"/>
+      <c r="BA13" s="138"/>
+      <c r="BB13" s="138"/>
+      <c r="BC13" s="138"/>
+      <c r="BD13" s="138"/>
+      <c r="BE13" s="138"/>
+      <c r="BF13" s="138"/>
+      <c r="BG13" s="138"/>
+      <c r="BH13" s="139"/>
       <c r="BI13" s="6"/>
       <c r="BJ13" s="6"/>
       <c r="BK13" s="6"/>
@@ -6278,10 +6286,10 @@
       <c r="BN13" s="48"/>
       <c r="BO13" s="39"/>
       <c r="BS13" s="42"/>
-      <c r="BT13" s="146"/>
-      <c r="BU13" s="66"/>
-      <c r="BV13" s="66"/>
-      <c r="BW13" s="67"/>
+      <c r="BT13" s="147"/>
+      <c r="BU13" s="74"/>
+      <c r="BV13" s="74"/>
+      <c r="BW13" s="75"/>
       <c r="BX13" s="2"/>
       <c r="BY13" s="2"/>
       <c r="BZ13" s="2"/>
@@ -6292,7 +6300,7 @@
       <c r="CE13" s="2"/>
       <c r="CF13" s="2"/>
       <c r="CG13" s="40"/>
-      <c r="CH13" s="148"/>
+      <c r="CH13" s="149"/>
       <c r="CI13" s="39"/>
     </row>
     <row r="14" spans="1:87" x14ac:dyDescent="0.25">
@@ -6301,12 +6309,12 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="35"/>
-      <c r="H14" s="116" t="s">
+      <c r="H14" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="61"/>
+      <c r="I14" s="71"/>
+      <c r="J14" s="71"/>
+      <c r="K14" s="72"/>
       <c r="L14" s="43"/>
       <c r="M14" s="43"/>
       <c r="N14" s="43"/>
@@ -6317,42 +6325,42 @@
       <c r="S14" s="43"/>
       <c r="T14" s="43"/>
       <c r="U14" s="44"/>
-      <c r="V14" s="148"/>
-      <c r="W14" s="159"/>
-      <c r="X14" s="160"/>
-      <c r="Y14" s="160"/>
-      <c r="Z14" s="160"/>
-      <c r="AA14" s="160"/>
-      <c r="AB14" s="160"/>
-      <c r="AC14" s="160"/>
-      <c r="AD14" s="160"/>
-      <c r="AE14" s="160"/>
-      <c r="AF14" s="160"/>
-      <c r="AG14" s="160"/>
-      <c r="AH14" s="160"/>
-      <c r="AI14" s="160"/>
-      <c r="AJ14" s="160"/>
-      <c r="AK14" s="160"/>
-      <c r="AL14" s="160"/>
-      <c r="AM14" s="160"/>
-      <c r="AN14" s="160"/>
-      <c r="AO14" s="160"/>
-      <c r="AP14" s="161"/>
+      <c r="V14" s="149"/>
+      <c r="W14" s="170"/>
+      <c r="X14" s="171"/>
+      <c r="Y14" s="171"/>
+      <c r="Z14" s="171"/>
+      <c r="AA14" s="171"/>
+      <c r="AB14" s="171"/>
+      <c r="AC14" s="171"/>
+      <c r="AD14" s="171"/>
+      <c r="AE14" s="171"/>
+      <c r="AF14" s="171"/>
+      <c r="AG14" s="171"/>
+      <c r="AH14" s="171"/>
+      <c r="AI14" s="171"/>
+      <c r="AJ14" s="171"/>
+      <c r="AK14" s="171"/>
+      <c r="AL14" s="171"/>
+      <c r="AM14" s="171"/>
+      <c r="AN14" s="171"/>
+      <c r="AO14" s="171"/>
+      <c r="AP14" s="172"/>
       <c r="AQ14" s="39"/>
       <c r="AU14" s="47"/>
       <c r="AV14" s="6"/>
-      <c r="AW14" s="101"/>
-      <c r="AX14" s="102"/>
-      <c r="AY14" s="102"/>
-      <c r="AZ14" s="102"/>
-      <c r="BA14" s="102"/>
-      <c r="BB14" s="102"/>
-      <c r="BC14" s="102"/>
-      <c r="BD14" s="102"/>
-      <c r="BE14" s="102"/>
-      <c r="BF14" s="102"/>
-      <c r="BG14" s="102"/>
-      <c r="BH14" s="103"/>
+      <c r="AW14" s="137"/>
+      <c r="AX14" s="138"/>
+      <c r="AY14" s="138"/>
+      <c r="AZ14" s="138"/>
+      <c r="BA14" s="138"/>
+      <c r="BB14" s="138"/>
+      <c r="BC14" s="138"/>
+      <c r="BD14" s="138"/>
+      <c r="BE14" s="138"/>
+      <c r="BF14" s="138"/>
+      <c r="BG14" s="138"/>
+      <c r="BH14" s="139"/>
       <c r="BI14" s="6"/>
       <c r="BJ14" s="6"/>
       <c r="BK14" s="6"/>
@@ -6361,12 +6369,12 @@
       <c r="BN14" s="48"/>
       <c r="BO14" s="39"/>
       <c r="BS14" s="42"/>
-      <c r="BT14" s="116" t="s">
+      <c r="BT14" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="BU14" s="60"/>
-      <c r="BV14" s="60"/>
-      <c r="BW14" s="61"/>
+      <c r="BU14" s="71"/>
+      <c r="BV14" s="71"/>
+      <c r="BW14" s="72"/>
       <c r="BX14" s="43"/>
       <c r="BY14" s="43"/>
       <c r="BZ14" s="43"/>
@@ -6377,7 +6385,7 @@
       <c r="CE14" s="43"/>
       <c r="CF14" s="43"/>
       <c r="CG14" s="44"/>
-      <c r="CH14" s="148"/>
+      <c r="CH14" s="149"/>
       <c r="CI14" s="39"/>
     </row>
     <row r="15" spans="1:87" x14ac:dyDescent="0.25">
@@ -6386,10 +6394,10 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="35"/>
-      <c r="H15" s="78"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="64"/>
+      <c r="H15" s="125"/>
+      <c r="I15" s="126"/>
+      <c r="J15" s="126"/>
+      <c r="K15" s="144"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1" t="s">
         <v>8</v>
@@ -6402,44 +6410,44 @@
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
       <c r="U15" s="39"/>
-      <c r="V15" s="148"/>
-      <c r="W15" s="162" t="s">
+      <c r="V15" s="149"/>
+      <c r="W15" s="173" t="s">
         <v>25</v>
       </c>
-      <c r="X15" s="163"/>
-      <c r="Y15" s="163"/>
-      <c r="Z15" s="163"/>
-      <c r="AA15" s="163"/>
-      <c r="AB15" s="163"/>
-      <c r="AC15" s="163"/>
-      <c r="AD15" s="163"/>
-      <c r="AE15" s="163"/>
-      <c r="AF15" s="163"/>
-      <c r="AG15" s="163"/>
-      <c r="AH15" s="163"/>
-      <c r="AI15" s="163"/>
-      <c r="AJ15" s="163"/>
-      <c r="AK15" s="163"/>
-      <c r="AL15" s="163"/>
-      <c r="AM15" s="163"/>
-      <c r="AN15" s="163"/>
-      <c r="AO15" s="163"/>
-      <c r="AP15" s="164"/>
+      <c r="X15" s="174"/>
+      <c r="Y15" s="174"/>
+      <c r="Z15" s="174"/>
+      <c r="AA15" s="174"/>
+      <c r="AB15" s="174"/>
+      <c r="AC15" s="174"/>
+      <c r="AD15" s="174"/>
+      <c r="AE15" s="174"/>
+      <c r="AF15" s="174"/>
+      <c r="AG15" s="174"/>
+      <c r="AH15" s="174"/>
+      <c r="AI15" s="174"/>
+      <c r="AJ15" s="174"/>
+      <c r="AK15" s="174"/>
+      <c r="AL15" s="174"/>
+      <c r="AM15" s="174"/>
+      <c r="AN15" s="174"/>
+      <c r="AO15" s="174"/>
+      <c r="AP15" s="175"/>
       <c r="AQ15" s="39"/>
       <c r="AU15" s="47"/>
       <c r="AV15" s="6"/>
-      <c r="AW15" s="101"/>
-      <c r="AX15" s="102"/>
-      <c r="AY15" s="102"/>
-      <c r="AZ15" s="102"/>
-      <c r="BA15" s="102"/>
-      <c r="BB15" s="102"/>
-      <c r="BC15" s="102"/>
-      <c r="BD15" s="102"/>
-      <c r="BE15" s="102"/>
-      <c r="BF15" s="102"/>
-      <c r="BG15" s="102"/>
-      <c r="BH15" s="103"/>
+      <c r="AW15" s="137"/>
+      <c r="AX15" s="138"/>
+      <c r="AY15" s="138"/>
+      <c r="AZ15" s="138"/>
+      <c r="BA15" s="138"/>
+      <c r="BB15" s="138"/>
+      <c r="BC15" s="138"/>
+      <c r="BD15" s="138"/>
+      <c r="BE15" s="138"/>
+      <c r="BF15" s="138"/>
+      <c r="BG15" s="138"/>
+      <c r="BH15" s="139"/>
       <c r="BI15" s="6"/>
       <c r="BJ15" s="6"/>
       <c r="BK15" s="6"/>
@@ -6448,10 +6456,10 @@
       <c r="BN15" s="48"/>
       <c r="BO15" s="39"/>
       <c r="BS15" s="42"/>
-      <c r="BT15" s="78"/>
-      <c r="BU15" s="63"/>
-      <c r="BV15" s="63"/>
-      <c r="BW15" s="64"/>
+      <c r="BT15" s="125"/>
+      <c r="BU15" s="126"/>
+      <c r="BV15" s="126"/>
+      <c r="BW15" s="144"/>
       <c r="BX15" s="1"/>
       <c r="BY15" s="1" t="s">
         <v>8</v>
@@ -6464,19 +6472,19 @@
       <c r="CE15" s="1"/>
       <c r="CF15" s="1"/>
       <c r="CG15" s="39"/>
-      <c r="CH15" s="148"/>
+      <c r="CH15" s="149"/>
       <c r="CI15" s="39"/>
     </row>
     <row r="16" spans="1:87" x14ac:dyDescent="0.25">
       <c r="C16" s="29"/>
       <c r="D16" s="34"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="61"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="72"/>
       <c r="G16" s="35"/>
-      <c r="H16" s="78"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="63"/>
-      <c r="K16" s="64"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="126"/>
+      <c r="J16" s="126"/>
+      <c r="K16" s="144"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
@@ -6487,42 +6495,42 @@
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
       <c r="U16" s="39"/>
-      <c r="V16" s="148"/>
-      <c r="W16" s="165"/>
-      <c r="X16" s="166"/>
-      <c r="Y16" s="166"/>
-      <c r="Z16" s="166"/>
-      <c r="AA16" s="166"/>
-      <c r="AB16" s="166"/>
-      <c r="AC16" s="166"/>
-      <c r="AD16" s="166"/>
-      <c r="AE16" s="166"/>
-      <c r="AF16" s="166"/>
-      <c r="AG16" s="166"/>
-      <c r="AH16" s="166"/>
-      <c r="AI16" s="166"/>
-      <c r="AJ16" s="166"/>
-      <c r="AK16" s="166"/>
-      <c r="AL16" s="166"/>
-      <c r="AM16" s="166"/>
-      <c r="AN16" s="166"/>
-      <c r="AO16" s="166"/>
-      <c r="AP16" s="167"/>
+      <c r="V16" s="149"/>
+      <c r="W16" s="158"/>
+      <c r="X16" s="159"/>
+      <c r="Y16" s="159"/>
+      <c r="Z16" s="159"/>
+      <c r="AA16" s="159"/>
+      <c r="AB16" s="159"/>
+      <c r="AC16" s="159"/>
+      <c r="AD16" s="159"/>
+      <c r="AE16" s="159"/>
+      <c r="AF16" s="159"/>
+      <c r="AG16" s="159"/>
+      <c r="AH16" s="159"/>
+      <c r="AI16" s="159"/>
+      <c r="AJ16" s="159"/>
+      <c r="AK16" s="159"/>
+      <c r="AL16" s="159"/>
+      <c r="AM16" s="159"/>
+      <c r="AN16" s="159"/>
+      <c r="AO16" s="159"/>
+      <c r="AP16" s="160"/>
       <c r="AQ16" s="39"/>
       <c r="AU16" s="47"/>
       <c r="AV16" s="6"/>
-      <c r="AW16" s="104"/>
-      <c r="AX16" s="105"/>
-      <c r="AY16" s="105"/>
-      <c r="AZ16" s="105"/>
-      <c r="BA16" s="105"/>
-      <c r="BB16" s="105"/>
-      <c r="BC16" s="105"/>
-      <c r="BD16" s="105"/>
-      <c r="BE16" s="105"/>
-      <c r="BF16" s="105"/>
-      <c r="BG16" s="105"/>
-      <c r="BH16" s="106"/>
+      <c r="AW16" s="140"/>
+      <c r="AX16" s="141"/>
+      <c r="AY16" s="141"/>
+      <c r="AZ16" s="141"/>
+      <c r="BA16" s="141"/>
+      <c r="BB16" s="141"/>
+      <c r="BC16" s="141"/>
+      <c r="BD16" s="141"/>
+      <c r="BE16" s="141"/>
+      <c r="BF16" s="141"/>
+      <c r="BG16" s="141"/>
+      <c r="BH16" s="142"/>
       <c r="BI16" s="6"/>
       <c r="BJ16" s="6"/>
       <c r="BK16" s="6"/>
@@ -6531,10 +6539,10 @@
       <c r="BN16" s="48"/>
       <c r="BO16" s="39"/>
       <c r="BS16" s="42"/>
-      <c r="BT16" s="78"/>
-      <c r="BU16" s="63"/>
-      <c r="BV16" s="63"/>
-      <c r="BW16" s="64"/>
+      <c r="BT16" s="125"/>
+      <c r="BU16" s="126"/>
+      <c r="BV16" s="126"/>
+      <c r="BW16" s="144"/>
       <c r="BX16" s="1"/>
       <c r="BY16" s="1"/>
       <c r="BZ16" s="1"/>
@@ -6545,19 +6553,19 @@
       <c r="CE16" s="1"/>
       <c r="CF16" s="1"/>
       <c r="CG16" s="39"/>
-      <c r="CH16" s="148"/>
+      <c r="CH16" s="149"/>
       <c r="CI16" s="39"/>
     </row>
     <row r="17" spans="1:88" x14ac:dyDescent="0.25">
       <c r="C17" s="29"/>
       <c r="D17" s="34"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="67"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="75"/>
       <c r="G17" s="35"/>
-      <c r="H17" s="146"/>
-      <c r="I17" s="66"/>
-      <c r="J17" s="66"/>
-      <c r="K17" s="67"/>
+      <c r="H17" s="147"/>
+      <c r="I17" s="74"/>
+      <c r="J17" s="74"/>
+      <c r="K17" s="75"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -6568,27 +6576,27 @@
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
       <c r="U17" s="40"/>
-      <c r="V17" s="148"/>
-      <c r="W17" s="168"/>
-      <c r="X17" s="169"/>
-      <c r="Y17" s="169"/>
-      <c r="Z17" s="169"/>
-      <c r="AA17" s="169"/>
-      <c r="AB17" s="169"/>
-      <c r="AC17" s="169"/>
-      <c r="AD17" s="169"/>
-      <c r="AE17" s="169"/>
-      <c r="AF17" s="169"/>
-      <c r="AG17" s="169"/>
-      <c r="AH17" s="169"/>
-      <c r="AI17" s="169"/>
-      <c r="AJ17" s="169"/>
-      <c r="AK17" s="169"/>
-      <c r="AL17" s="169"/>
-      <c r="AM17" s="169"/>
-      <c r="AN17" s="169"/>
-      <c r="AO17" s="169"/>
-      <c r="AP17" s="170"/>
+      <c r="V17" s="149"/>
+      <c r="W17" s="161"/>
+      <c r="X17" s="162"/>
+      <c r="Y17" s="162"/>
+      <c r="Z17" s="162"/>
+      <c r="AA17" s="162"/>
+      <c r="AB17" s="162"/>
+      <c r="AC17" s="162"/>
+      <c r="AD17" s="162"/>
+      <c r="AE17" s="162"/>
+      <c r="AF17" s="162"/>
+      <c r="AG17" s="162"/>
+      <c r="AH17" s="162"/>
+      <c r="AI17" s="162"/>
+      <c r="AJ17" s="162"/>
+      <c r="AK17" s="162"/>
+      <c r="AL17" s="162"/>
+      <c r="AM17" s="162"/>
+      <c r="AN17" s="162"/>
+      <c r="AO17" s="162"/>
+      <c r="AP17" s="163"/>
       <c r="AQ17" s="39"/>
       <c r="AU17" s="47"/>
       <c r="AV17" s="6"/>
@@ -6612,10 +6620,10 @@
       <c r="BN17" s="48"/>
       <c r="BO17" s="39"/>
       <c r="BS17" s="42"/>
-      <c r="BT17" s="146"/>
-      <c r="BU17" s="66"/>
-      <c r="BV17" s="66"/>
-      <c r="BW17" s="67"/>
+      <c r="BT17" s="147"/>
+      <c r="BU17" s="74"/>
+      <c r="BV17" s="74"/>
+      <c r="BW17" s="75"/>
       <c r="BX17" s="2"/>
       <c r="BY17" s="2"/>
       <c r="BZ17" s="2"/>
@@ -6626,13 +6634,13 @@
       <c r="CE17" s="2"/>
       <c r="CF17" s="2"/>
       <c r="CG17" s="40"/>
-      <c r="CH17" s="148"/>
+      <c r="CH17" s="149"/>
       <c r="CI17" s="39"/>
     </row>
     <row r="18" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A18" s="25">
         <f>(COUNTBLANK(B3:B34)/B1)*D1</f>
-        <v>736</v>
+        <v>500</v>
       </c>
       <c r="B18" s="40"/>
       <c r="C18" s="29"/>
@@ -6640,12 +6648,12 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="35"/>
-      <c r="H18" s="116" t="s">
+      <c r="H18" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="61"/>
+      <c r="I18" s="71"/>
+      <c r="J18" s="71"/>
+      <c r="K18" s="72"/>
       <c r="L18" s="43"/>
       <c r="M18" s="43"/>
       <c r="N18" s="43"/>
@@ -6656,29 +6664,29 @@
       <c r="S18" s="43"/>
       <c r="T18" s="43"/>
       <c r="U18" s="44"/>
-      <c r="V18" s="148"/>
-      <c r="W18" s="153" t="s">
+      <c r="V18" s="149"/>
+      <c r="W18" s="164" t="s">
         <v>24</v>
       </c>
-      <c r="X18" s="154"/>
-      <c r="Y18" s="154"/>
-      <c r="Z18" s="154"/>
-      <c r="AA18" s="154"/>
-      <c r="AB18" s="154"/>
-      <c r="AC18" s="154"/>
-      <c r="AD18" s="154"/>
-      <c r="AE18" s="154"/>
-      <c r="AF18" s="154"/>
-      <c r="AG18" s="154"/>
-      <c r="AH18" s="154"/>
-      <c r="AI18" s="154"/>
-      <c r="AJ18" s="154"/>
-      <c r="AK18" s="154"/>
-      <c r="AL18" s="154"/>
-      <c r="AM18" s="154"/>
-      <c r="AN18" s="154"/>
-      <c r="AO18" s="154"/>
-      <c r="AP18" s="155"/>
+      <c r="X18" s="165"/>
+      <c r="Y18" s="165"/>
+      <c r="Z18" s="165"/>
+      <c r="AA18" s="165"/>
+      <c r="AB18" s="165"/>
+      <c r="AC18" s="165"/>
+      <c r="AD18" s="165"/>
+      <c r="AE18" s="165"/>
+      <c r="AF18" s="165"/>
+      <c r="AG18" s="165"/>
+      <c r="AH18" s="165"/>
+      <c r="AI18" s="165"/>
+      <c r="AJ18" s="165"/>
+      <c r="AK18" s="165"/>
+      <c r="AL18" s="165"/>
+      <c r="AM18" s="165"/>
+      <c r="AN18" s="165"/>
+      <c r="AO18" s="165"/>
+      <c r="AP18" s="166"/>
       <c r="AQ18" s="39"/>
       <c r="AR18" s="30"/>
       <c r="AU18" s="47"/>
@@ -6707,12 +6715,12 @@
       <c r="BP18" s="30"/>
       <c r="BR18" s="40"/>
       <c r="BS18" s="42"/>
-      <c r="BT18" s="116" t="s">
+      <c r="BT18" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="BU18" s="60"/>
-      <c r="BV18" s="60"/>
-      <c r="BW18" s="61"/>
+      <c r="BU18" s="71"/>
+      <c r="BV18" s="71"/>
+      <c r="BW18" s="72"/>
       <c r="BX18" s="43"/>
       <c r="BY18" s="43"/>
       <c r="BZ18" s="43"/>
@@ -6723,20 +6731,20 @@
       <c r="CE18" s="43"/>
       <c r="CF18" s="43"/>
       <c r="CG18" s="44"/>
-      <c r="CH18" s="148"/>
+      <c r="CH18" s="149"/>
       <c r="CI18" s="39"/>
       <c r="CJ18" s="30"/>
     </row>
     <row r="19" spans="1:88" x14ac:dyDescent="0.25">
       <c r="C19" s="29"/>
       <c r="D19" s="34"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="61"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="72"/>
       <c r="G19" s="35"/>
-      <c r="H19" s="78"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="64"/>
+      <c r="H19" s="125"/>
+      <c r="I19" s="126"/>
+      <c r="J19" s="126"/>
+      <c r="K19" s="144"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1" t="s">
         <v>8</v>
@@ -6749,27 +6757,27 @@
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
       <c r="U19" s="39"/>
-      <c r="V19" s="148"/>
-      <c r="W19" s="156"/>
-      <c r="X19" s="157"/>
-      <c r="Y19" s="157"/>
-      <c r="Z19" s="157"/>
-      <c r="AA19" s="157"/>
-      <c r="AB19" s="157"/>
-      <c r="AC19" s="157"/>
-      <c r="AD19" s="157"/>
-      <c r="AE19" s="157"/>
-      <c r="AF19" s="157"/>
-      <c r="AG19" s="157"/>
-      <c r="AH19" s="157"/>
-      <c r="AI19" s="157"/>
-      <c r="AJ19" s="157"/>
-      <c r="AK19" s="157"/>
-      <c r="AL19" s="157"/>
-      <c r="AM19" s="157"/>
-      <c r="AN19" s="157"/>
-      <c r="AO19" s="157"/>
-      <c r="AP19" s="158"/>
+      <c r="V19" s="149"/>
+      <c r="W19" s="167"/>
+      <c r="X19" s="168"/>
+      <c r="Y19" s="168"/>
+      <c r="Z19" s="168"/>
+      <c r="AA19" s="168"/>
+      <c r="AB19" s="168"/>
+      <c r="AC19" s="168"/>
+      <c r="AD19" s="168"/>
+      <c r="AE19" s="168"/>
+      <c r="AF19" s="168"/>
+      <c r="AG19" s="168"/>
+      <c r="AH19" s="168"/>
+      <c r="AI19" s="168"/>
+      <c r="AJ19" s="168"/>
+      <c r="AK19" s="168"/>
+      <c r="AL19" s="168"/>
+      <c r="AM19" s="168"/>
+      <c r="AN19" s="168"/>
+      <c r="AO19" s="168"/>
+      <c r="AP19" s="169"/>
       <c r="AQ19" s="39"/>
       <c r="AU19" s="47"/>
       <c r="AV19" s="6"/>
@@ -6793,10 +6801,10 @@
       <c r="BN19" s="48"/>
       <c r="BO19" s="39"/>
       <c r="BS19" s="42"/>
-      <c r="BT19" s="78"/>
-      <c r="BU19" s="63"/>
-      <c r="BV19" s="63"/>
-      <c r="BW19" s="64"/>
+      <c r="BT19" s="125"/>
+      <c r="BU19" s="126"/>
+      <c r="BV19" s="126"/>
+      <c r="BW19" s="144"/>
       <c r="BX19" s="1"/>
       <c r="BY19" s="1" t="s">
         <v>8</v>
@@ -6809,19 +6817,19 @@
       <c r="CE19" s="1"/>
       <c r="CF19" s="1"/>
       <c r="CG19" s="39"/>
-      <c r="CH19" s="148"/>
+      <c r="CH19" s="149"/>
       <c r="CI19" s="39"/>
     </row>
     <row r="20" spans="1:88" x14ac:dyDescent="0.25">
       <c r="C20" s="29"/>
       <c r="D20" s="34"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="67"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="75"/>
       <c r="G20" s="35"/>
-      <c r="H20" s="78"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="63"/>
-      <c r="K20" s="64"/>
+      <c r="H20" s="125"/>
+      <c r="I20" s="126"/>
+      <c r="J20" s="126"/>
+      <c r="K20" s="144"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
@@ -6832,27 +6840,27 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
       <c r="U20" s="39"/>
-      <c r="V20" s="148"/>
-      <c r="W20" s="159"/>
-      <c r="X20" s="160"/>
-      <c r="Y20" s="160"/>
-      <c r="Z20" s="160"/>
-      <c r="AA20" s="160"/>
-      <c r="AB20" s="160"/>
-      <c r="AC20" s="160"/>
-      <c r="AD20" s="160"/>
-      <c r="AE20" s="160"/>
-      <c r="AF20" s="160"/>
-      <c r="AG20" s="160"/>
-      <c r="AH20" s="160"/>
-      <c r="AI20" s="160"/>
-      <c r="AJ20" s="160"/>
-      <c r="AK20" s="160"/>
-      <c r="AL20" s="160"/>
-      <c r="AM20" s="160"/>
-      <c r="AN20" s="160"/>
-      <c r="AO20" s="160"/>
-      <c r="AP20" s="161"/>
+      <c r="V20" s="149"/>
+      <c r="W20" s="170"/>
+      <c r="X20" s="171"/>
+      <c r="Y20" s="171"/>
+      <c r="Z20" s="171"/>
+      <c r="AA20" s="171"/>
+      <c r="AB20" s="171"/>
+      <c r="AC20" s="171"/>
+      <c r="AD20" s="171"/>
+      <c r="AE20" s="171"/>
+      <c r="AF20" s="171"/>
+      <c r="AG20" s="171"/>
+      <c r="AH20" s="171"/>
+      <c r="AI20" s="171"/>
+      <c r="AJ20" s="171"/>
+      <c r="AK20" s="171"/>
+      <c r="AL20" s="171"/>
+      <c r="AM20" s="171"/>
+      <c r="AN20" s="171"/>
+      <c r="AO20" s="171"/>
+      <c r="AP20" s="172"/>
       <c r="AQ20" s="39"/>
       <c r="AU20" s="47"/>
       <c r="AV20" s="6"/>
@@ -6878,10 +6886,10 @@
       <c r="BN20" s="48"/>
       <c r="BO20" s="39"/>
       <c r="BS20" s="42"/>
-      <c r="BT20" s="78"/>
-      <c r="BU20" s="63"/>
-      <c r="BV20" s="63"/>
-      <c r="BW20" s="64"/>
+      <c r="BT20" s="125"/>
+      <c r="BU20" s="126"/>
+      <c r="BV20" s="126"/>
+      <c r="BW20" s="144"/>
       <c r="BX20" s="1"/>
       <c r="BY20" s="1"/>
       <c r="BZ20" s="1"/>
@@ -6892,7 +6900,7 @@
       <c r="CE20" s="1"/>
       <c r="CF20" s="1"/>
       <c r="CG20" s="39"/>
-      <c r="CH20" s="148"/>
+      <c r="CH20" s="149"/>
       <c r="CI20" s="39"/>
     </row>
     <row r="21" spans="1:88" x14ac:dyDescent="0.25">
@@ -6901,10 +6909,10 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="35"/>
-      <c r="H21" s="146"/>
-      <c r="I21" s="66"/>
-      <c r="J21" s="66"/>
-      <c r="K21" s="67"/>
+      <c r="H21" s="147"/>
+      <c r="I21" s="74"/>
+      <c r="J21" s="74"/>
+      <c r="K21" s="75"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -6915,29 +6923,29 @@
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
       <c r="U21" s="40"/>
-      <c r="V21" s="148"/>
-      <c r="W21" s="162" t="s">
+      <c r="V21" s="149"/>
+      <c r="W21" s="173" t="s">
         <v>25</v>
       </c>
-      <c r="X21" s="163"/>
-      <c r="Y21" s="163"/>
-      <c r="Z21" s="163"/>
-      <c r="AA21" s="163"/>
-      <c r="AB21" s="163"/>
-      <c r="AC21" s="163"/>
-      <c r="AD21" s="163"/>
-      <c r="AE21" s="163"/>
-      <c r="AF21" s="163"/>
-      <c r="AG21" s="163"/>
-      <c r="AH21" s="163"/>
-      <c r="AI21" s="163"/>
-      <c r="AJ21" s="163"/>
-      <c r="AK21" s="163"/>
-      <c r="AL21" s="163"/>
-      <c r="AM21" s="163"/>
-      <c r="AN21" s="163"/>
-      <c r="AO21" s="163"/>
-      <c r="AP21" s="164"/>
+      <c r="X21" s="174"/>
+      <c r="Y21" s="174"/>
+      <c r="Z21" s="174"/>
+      <c r="AA21" s="174"/>
+      <c r="AB21" s="174"/>
+      <c r="AC21" s="174"/>
+      <c r="AD21" s="174"/>
+      <c r="AE21" s="174"/>
+      <c r="AF21" s="174"/>
+      <c r="AG21" s="174"/>
+      <c r="AH21" s="174"/>
+      <c r="AI21" s="174"/>
+      <c r="AJ21" s="174"/>
+      <c r="AK21" s="174"/>
+      <c r="AL21" s="174"/>
+      <c r="AM21" s="174"/>
+      <c r="AN21" s="174"/>
+      <c r="AO21" s="174"/>
+      <c r="AP21" s="175"/>
       <c r="AQ21" s="39"/>
       <c r="AU21" s="47"/>
       <c r="AV21" s="6"/>
@@ -6961,10 +6969,10 @@
       <c r="BN21" s="48"/>
       <c r="BO21" s="39"/>
       <c r="BS21" s="42"/>
-      <c r="BT21" s="146"/>
-      <c r="BU21" s="66"/>
-      <c r="BV21" s="66"/>
-      <c r="BW21" s="67"/>
+      <c r="BT21" s="147"/>
+      <c r="BU21" s="74"/>
+      <c r="BV21" s="74"/>
+      <c r="BW21" s="75"/>
       <c r="BX21" s="2"/>
       <c r="BY21" s="2"/>
       <c r="BZ21" s="2"/>
@@ -6975,7 +6983,7 @@
       <c r="CE21" s="2"/>
       <c r="CF21" s="2"/>
       <c r="CG21" s="40"/>
-      <c r="CH21" s="148"/>
+      <c r="CH21" s="149"/>
       <c r="CI21" s="39"/>
     </row>
     <row r="22" spans="1:88" x14ac:dyDescent="0.25">
@@ -6984,12 +6992,12 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="35"/>
-      <c r="H22" s="116" t="s">
+      <c r="H22" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="I22" s="60"/>
-      <c r="J22" s="60"/>
-      <c r="K22" s="61"/>
+      <c r="I22" s="71"/>
+      <c r="J22" s="71"/>
+      <c r="K22" s="72"/>
       <c r="L22" s="43"/>
       <c r="M22" s="43"/>
       <c r="N22" s="43"/>
@@ -7000,27 +7008,27 @@
       <c r="S22" s="43"/>
       <c r="T22" s="43"/>
       <c r="U22" s="44"/>
-      <c r="V22" s="148"/>
-      <c r="W22" s="165"/>
-      <c r="X22" s="166"/>
-      <c r="Y22" s="166"/>
-      <c r="Z22" s="166"/>
-      <c r="AA22" s="166"/>
-      <c r="AB22" s="166"/>
-      <c r="AC22" s="166"/>
-      <c r="AD22" s="166"/>
-      <c r="AE22" s="166"/>
-      <c r="AF22" s="166"/>
-      <c r="AG22" s="166"/>
-      <c r="AH22" s="166"/>
-      <c r="AI22" s="166"/>
-      <c r="AJ22" s="166"/>
-      <c r="AK22" s="166"/>
-      <c r="AL22" s="166"/>
-      <c r="AM22" s="166"/>
-      <c r="AN22" s="166"/>
-      <c r="AO22" s="166"/>
-      <c r="AP22" s="167"/>
+      <c r="V22" s="149"/>
+      <c r="W22" s="158"/>
+      <c r="X22" s="159"/>
+      <c r="Y22" s="159"/>
+      <c r="Z22" s="159"/>
+      <c r="AA22" s="159"/>
+      <c r="AB22" s="159"/>
+      <c r="AC22" s="159"/>
+      <c r="AD22" s="159"/>
+      <c r="AE22" s="159"/>
+      <c r="AF22" s="159"/>
+      <c r="AG22" s="159"/>
+      <c r="AH22" s="159"/>
+      <c r="AI22" s="159"/>
+      <c r="AJ22" s="159"/>
+      <c r="AK22" s="159"/>
+      <c r="AL22" s="159"/>
+      <c r="AM22" s="159"/>
+      <c r="AN22" s="159"/>
+      <c r="AO22" s="159"/>
+      <c r="AP22" s="160"/>
       <c r="AQ22" s="39"/>
       <c r="AU22" s="47"/>
       <c r="AV22" s="6"/>
@@ -7046,12 +7054,12 @@
       <c r="BN22" s="48"/>
       <c r="BO22" s="39"/>
       <c r="BS22" s="42"/>
-      <c r="BT22" s="116" t="s">
+      <c r="BT22" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="BU22" s="60"/>
-      <c r="BV22" s="60"/>
-      <c r="BW22" s="61"/>
+      <c r="BU22" s="71"/>
+      <c r="BV22" s="71"/>
+      <c r="BW22" s="72"/>
       <c r="BX22" s="43"/>
       <c r="BY22" s="43"/>
       <c r="BZ22" s="43"/>
@@ -7062,7 +7070,7 @@
       <c r="CE22" s="43"/>
       <c r="CF22" s="43"/>
       <c r="CG22" s="44"/>
-      <c r="CH22" s="148"/>
+      <c r="CH22" s="149"/>
       <c r="CI22" s="39"/>
     </row>
     <row r="23" spans="1:88" x14ac:dyDescent="0.25">
@@ -7071,10 +7079,10 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="35"/>
-      <c r="H23" s="78"/>
-      <c r="I23" s="63"/>
-      <c r="J23" s="63"/>
-      <c r="K23" s="64"/>
+      <c r="H23" s="125"/>
+      <c r="I23" s="126"/>
+      <c r="J23" s="126"/>
+      <c r="K23" s="144"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1" t="s">
         <v>8</v>
@@ -7087,27 +7095,27 @@
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
       <c r="U23" s="39"/>
-      <c r="V23" s="148"/>
-      <c r="W23" s="168"/>
-      <c r="X23" s="169"/>
-      <c r="Y23" s="169"/>
-      <c r="Z23" s="169"/>
-      <c r="AA23" s="169"/>
-      <c r="AB23" s="169"/>
-      <c r="AC23" s="169"/>
-      <c r="AD23" s="169"/>
-      <c r="AE23" s="169"/>
-      <c r="AF23" s="169"/>
-      <c r="AG23" s="169"/>
-      <c r="AH23" s="169"/>
-      <c r="AI23" s="169"/>
-      <c r="AJ23" s="169"/>
-      <c r="AK23" s="169"/>
-      <c r="AL23" s="169"/>
-      <c r="AM23" s="169"/>
-      <c r="AN23" s="169"/>
-      <c r="AO23" s="169"/>
-      <c r="AP23" s="170"/>
+      <c r="V23" s="149"/>
+      <c r="W23" s="161"/>
+      <c r="X23" s="162"/>
+      <c r="Y23" s="162"/>
+      <c r="Z23" s="162"/>
+      <c r="AA23" s="162"/>
+      <c r="AB23" s="162"/>
+      <c r="AC23" s="162"/>
+      <c r="AD23" s="162"/>
+      <c r="AE23" s="162"/>
+      <c r="AF23" s="162"/>
+      <c r="AG23" s="162"/>
+      <c r="AH23" s="162"/>
+      <c r="AI23" s="162"/>
+      <c r="AJ23" s="162"/>
+      <c r="AK23" s="162"/>
+      <c r="AL23" s="162"/>
+      <c r="AM23" s="162"/>
+      <c r="AN23" s="162"/>
+      <c r="AO23" s="162"/>
+      <c r="AP23" s="163"/>
       <c r="AQ23" s="39"/>
       <c r="AU23" s="47"/>
       <c r="AV23" s="6"/>
@@ -7131,10 +7139,10 @@
       <c r="BN23" s="48"/>
       <c r="BO23" s="39"/>
       <c r="BS23" s="42"/>
-      <c r="BT23" s="78"/>
-      <c r="BU23" s="63"/>
-      <c r="BV23" s="63"/>
-      <c r="BW23" s="64"/>
+      <c r="BT23" s="125"/>
+      <c r="BU23" s="126"/>
+      <c r="BV23" s="126"/>
+      <c r="BW23" s="144"/>
       <c r="BX23" s="1"/>
       <c r="BY23" s="1" t="s">
         <v>8</v>
@@ -7147,7 +7155,7 @@
       <c r="CE23" s="1"/>
       <c r="CF23" s="1"/>
       <c r="CG23" s="39"/>
-      <c r="CH23" s="148"/>
+      <c r="CH23" s="149"/>
       <c r="CI23" s="39"/>
     </row>
     <row r="24" spans="1:88" x14ac:dyDescent="0.25">
@@ -7156,10 +7164,10 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="35"/>
-      <c r="H24" s="78"/>
-      <c r="I24" s="63"/>
-      <c r="J24" s="63"/>
-      <c r="K24" s="64"/>
+      <c r="H24" s="125"/>
+      <c r="I24" s="126"/>
+      <c r="J24" s="126"/>
+      <c r="K24" s="144"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
@@ -7170,29 +7178,29 @@
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
       <c r="U24" s="39"/>
-      <c r="V24" s="148"/>
-      <c r="W24" s="153" t="s">
+      <c r="V24" s="149"/>
+      <c r="W24" s="164" t="s">
         <v>24</v>
       </c>
-      <c r="X24" s="154"/>
-      <c r="Y24" s="154"/>
-      <c r="Z24" s="154"/>
-      <c r="AA24" s="154"/>
-      <c r="AB24" s="154"/>
-      <c r="AC24" s="154"/>
-      <c r="AD24" s="154"/>
-      <c r="AE24" s="154"/>
-      <c r="AF24" s="154"/>
-      <c r="AG24" s="154"/>
-      <c r="AH24" s="154"/>
-      <c r="AI24" s="154"/>
-      <c r="AJ24" s="154"/>
-      <c r="AK24" s="154"/>
-      <c r="AL24" s="154"/>
-      <c r="AM24" s="154"/>
-      <c r="AN24" s="154"/>
-      <c r="AO24" s="154"/>
-      <c r="AP24" s="155"/>
+      <c r="X24" s="165"/>
+      <c r="Y24" s="165"/>
+      <c r="Z24" s="165"/>
+      <c r="AA24" s="165"/>
+      <c r="AB24" s="165"/>
+      <c r="AC24" s="165"/>
+      <c r="AD24" s="165"/>
+      <c r="AE24" s="165"/>
+      <c r="AF24" s="165"/>
+      <c r="AG24" s="165"/>
+      <c r="AH24" s="165"/>
+      <c r="AI24" s="165"/>
+      <c r="AJ24" s="165"/>
+      <c r="AK24" s="165"/>
+      <c r="AL24" s="165"/>
+      <c r="AM24" s="165"/>
+      <c r="AN24" s="165"/>
+      <c r="AO24" s="165"/>
+      <c r="AP24" s="166"/>
       <c r="AQ24" s="39"/>
       <c r="AU24" s="47"/>
       <c r="AV24" s="6"/>
@@ -7216,10 +7224,10 @@
       <c r="BN24" s="48"/>
       <c r="BO24" s="39"/>
       <c r="BS24" s="42"/>
-      <c r="BT24" s="78"/>
-      <c r="BU24" s="63"/>
-      <c r="BV24" s="63"/>
-      <c r="BW24" s="64"/>
+      <c r="BT24" s="125"/>
+      <c r="BU24" s="126"/>
+      <c r="BV24" s="126"/>
+      <c r="BW24" s="144"/>
       <c r="BX24" s="1"/>
       <c r="BY24" s="1"/>
       <c r="BZ24" s="1"/>
@@ -7230,7 +7238,7 @@
       <c r="CE24" s="1"/>
       <c r="CF24" s="1"/>
       <c r="CG24" s="39"/>
-      <c r="CH24" s="148"/>
+      <c r="CH24" s="149"/>
       <c r="CI24" s="39"/>
     </row>
     <row r="25" spans="1:88" x14ac:dyDescent="0.25">
@@ -7239,10 +7247,10 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="35"/>
-      <c r="H25" s="146"/>
-      <c r="I25" s="66"/>
-      <c r="J25" s="66"/>
-      <c r="K25" s="67"/>
+      <c r="H25" s="147"/>
+      <c r="I25" s="74"/>
+      <c r="J25" s="74"/>
+      <c r="K25" s="75"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -7253,27 +7261,27 @@
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
       <c r="U25" s="40"/>
-      <c r="V25" s="148"/>
-      <c r="W25" s="156"/>
-      <c r="X25" s="157"/>
-      <c r="Y25" s="157"/>
-      <c r="Z25" s="157"/>
-      <c r="AA25" s="157"/>
-      <c r="AB25" s="157"/>
-      <c r="AC25" s="157"/>
-      <c r="AD25" s="157"/>
-      <c r="AE25" s="157"/>
-      <c r="AF25" s="157"/>
-      <c r="AG25" s="157"/>
-      <c r="AH25" s="157"/>
-      <c r="AI25" s="157"/>
-      <c r="AJ25" s="157"/>
-      <c r="AK25" s="157"/>
-      <c r="AL25" s="157"/>
-      <c r="AM25" s="157"/>
-      <c r="AN25" s="157"/>
-      <c r="AO25" s="157"/>
-      <c r="AP25" s="158"/>
+      <c r="V25" s="149"/>
+      <c r="W25" s="167"/>
+      <c r="X25" s="168"/>
+      <c r="Y25" s="168"/>
+      <c r="Z25" s="168"/>
+      <c r="AA25" s="168"/>
+      <c r="AB25" s="168"/>
+      <c r="AC25" s="168"/>
+      <c r="AD25" s="168"/>
+      <c r="AE25" s="168"/>
+      <c r="AF25" s="168"/>
+      <c r="AG25" s="168"/>
+      <c r="AH25" s="168"/>
+      <c r="AI25" s="168"/>
+      <c r="AJ25" s="168"/>
+      <c r="AK25" s="168"/>
+      <c r="AL25" s="168"/>
+      <c r="AM25" s="168"/>
+      <c r="AN25" s="168"/>
+      <c r="AO25" s="168"/>
+      <c r="AP25" s="169"/>
       <c r="AQ25" s="39"/>
       <c r="AU25" s="47"/>
       <c r="AV25" s="6"/>
@@ -7297,10 +7305,10 @@
       <c r="BN25" s="48"/>
       <c r="BO25" s="39"/>
       <c r="BS25" s="42"/>
-      <c r="BT25" s="146"/>
-      <c r="BU25" s="66"/>
-      <c r="BV25" s="66"/>
-      <c r="BW25" s="67"/>
+      <c r="BT25" s="147"/>
+      <c r="BU25" s="74"/>
+      <c r="BV25" s="74"/>
+      <c r="BW25" s="75"/>
       <c r="BX25" s="2"/>
       <c r="BY25" s="2"/>
       <c r="BZ25" s="2"/>
@@ -7311,21 +7319,21 @@
       <c r="CE25" s="2"/>
       <c r="CF25" s="2"/>
       <c r="CG25" s="40"/>
-      <c r="CH25" s="148"/>
+      <c r="CH25" s="149"/>
       <c r="CI25" s="39"/>
     </row>
     <row r="26" spans="1:88" x14ac:dyDescent="0.25">
       <c r="C26" s="29"/>
       <c r="D26" s="34"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="61"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="72"/>
       <c r="G26" s="35"/>
-      <c r="H26" s="116" t="s">
+      <c r="H26" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="I26" s="60"/>
-      <c r="J26" s="60"/>
-      <c r="K26" s="61"/>
+      <c r="I26" s="71"/>
+      <c r="J26" s="71"/>
+      <c r="K26" s="72"/>
       <c r="L26" s="43"/>
       <c r="M26" s="43"/>
       <c r="N26" s="43"/>
@@ -7336,27 +7344,27 @@
       <c r="S26" s="43"/>
       <c r="T26" s="43"/>
       <c r="U26" s="44"/>
-      <c r="V26" s="148"/>
-      <c r="W26" s="159"/>
-      <c r="X26" s="160"/>
-      <c r="Y26" s="160"/>
-      <c r="Z26" s="160"/>
-      <c r="AA26" s="160"/>
-      <c r="AB26" s="160"/>
-      <c r="AC26" s="160"/>
-      <c r="AD26" s="160"/>
-      <c r="AE26" s="160"/>
-      <c r="AF26" s="160"/>
-      <c r="AG26" s="160"/>
-      <c r="AH26" s="160"/>
-      <c r="AI26" s="160"/>
-      <c r="AJ26" s="160"/>
-      <c r="AK26" s="160"/>
-      <c r="AL26" s="160"/>
-      <c r="AM26" s="160"/>
-      <c r="AN26" s="160"/>
-      <c r="AO26" s="160"/>
-      <c r="AP26" s="161"/>
+      <c r="V26" s="149"/>
+      <c r="W26" s="170"/>
+      <c r="X26" s="171"/>
+      <c r="Y26" s="171"/>
+      <c r="Z26" s="171"/>
+      <c r="AA26" s="171"/>
+      <c r="AB26" s="171"/>
+      <c r="AC26" s="171"/>
+      <c r="AD26" s="171"/>
+      <c r="AE26" s="171"/>
+      <c r="AF26" s="171"/>
+      <c r="AG26" s="171"/>
+      <c r="AH26" s="171"/>
+      <c r="AI26" s="171"/>
+      <c r="AJ26" s="171"/>
+      <c r="AK26" s="171"/>
+      <c r="AL26" s="171"/>
+      <c r="AM26" s="171"/>
+      <c r="AN26" s="171"/>
+      <c r="AO26" s="171"/>
+      <c r="AP26" s="172"/>
       <c r="AQ26" s="39"/>
       <c r="AU26" s="47"/>
       <c r="AV26" s="6"/>
@@ -7380,12 +7388,12 @@
       <c r="BN26" s="48"/>
       <c r="BO26" s="39"/>
       <c r="BS26" s="42"/>
-      <c r="BT26" s="116" t="s">
+      <c r="BT26" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="BU26" s="60"/>
-      <c r="BV26" s="60"/>
-      <c r="BW26" s="61"/>
+      <c r="BU26" s="71"/>
+      <c r="BV26" s="71"/>
+      <c r="BW26" s="72"/>
       <c r="BX26" s="43"/>
       <c r="BY26" s="43"/>
       <c r="BZ26" s="43"/>
@@ -7396,19 +7404,19 @@
       <c r="CE26" s="43"/>
       <c r="CF26" s="43"/>
       <c r="CG26" s="44"/>
-      <c r="CH26" s="148"/>
+      <c r="CH26" s="149"/>
       <c r="CI26" s="39"/>
     </row>
     <row r="27" spans="1:88" x14ac:dyDescent="0.25">
       <c r="C27" s="29"/>
       <c r="D27" s="34"/>
-      <c r="E27" s="65"/>
-      <c r="F27" s="67"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="75"/>
       <c r="G27" s="35"/>
-      <c r="H27" s="78"/>
-      <c r="I27" s="63"/>
-      <c r="J27" s="63"/>
-      <c r="K27" s="64"/>
+      <c r="H27" s="125"/>
+      <c r="I27" s="126"/>
+      <c r="J27" s="126"/>
+      <c r="K27" s="144"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1" t="s">
         <v>8</v>
@@ -7421,29 +7429,29 @@
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
       <c r="U27" s="39"/>
-      <c r="V27" s="148"/>
-      <c r="W27" s="162" t="s">
+      <c r="V27" s="149"/>
+      <c r="W27" s="173" t="s">
         <v>25</v>
       </c>
-      <c r="X27" s="163"/>
-      <c r="Y27" s="163"/>
-      <c r="Z27" s="163"/>
-      <c r="AA27" s="163"/>
-      <c r="AB27" s="163"/>
-      <c r="AC27" s="163"/>
-      <c r="AD27" s="163"/>
-      <c r="AE27" s="163"/>
-      <c r="AF27" s="163"/>
-      <c r="AG27" s="163"/>
-      <c r="AH27" s="163"/>
-      <c r="AI27" s="163"/>
-      <c r="AJ27" s="163"/>
-      <c r="AK27" s="163"/>
-      <c r="AL27" s="163"/>
-      <c r="AM27" s="163"/>
-      <c r="AN27" s="163"/>
-      <c r="AO27" s="163"/>
-      <c r="AP27" s="164"/>
+      <c r="X27" s="174"/>
+      <c r="Y27" s="174"/>
+      <c r="Z27" s="174"/>
+      <c r="AA27" s="174"/>
+      <c r="AB27" s="174"/>
+      <c r="AC27" s="174"/>
+      <c r="AD27" s="174"/>
+      <c r="AE27" s="174"/>
+      <c r="AF27" s="174"/>
+      <c r="AG27" s="174"/>
+      <c r="AH27" s="174"/>
+      <c r="AI27" s="174"/>
+      <c r="AJ27" s="174"/>
+      <c r="AK27" s="174"/>
+      <c r="AL27" s="174"/>
+      <c r="AM27" s="174"/>
+      <c r="AN27" s="174"/>
+      <c r="AO27" s="174"/>
+      <c r="AP27" s="175"/>
       <c r="AQ27" s="39"/>
       <c r="AU27" s="47"/>
       <c r="AV27" s="6"/>
@@ -7467,10 +7475,10 @@
       <c r="BN27" s="48"/>
       <c r="BO27" s="39"/>
       <c r="BS27" s="42"/>
-      <c r="BT27" s="78"/>
-      <c r="BU27" s="63"/>
-      <c r="BV27" s="63"/>
-      <c r="BW27" s="64"/>
+      <c r="BT27" s="125"/>
+      <c r="BU27" s="126"/>
+      <c r="BV27" s="126"/>
+      <c r="BW27" s="144"/>
       <c r="BX27" s="1"/>
       <c r="BY27" s="1" t="s">
         <v>8</v>
@@ -7483,7 +7491,7 @@
       <c r="CE27" s="1"/>
       <c r="CF27" s="1"/>
       <c r="CG27" s="39"/>
-      <c r="CH27" s="148"/>
+      <c r="CH27" s="149"/>
       <c r="CI27" s="39"/>
     </row>
     <row r="28" spans="1:88" x14ac:dyDescent="0.25">
@@ -7492,10 +7500,10 @@
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="35"/>
-      <c r="H28" s="78"/>
-      <c r="I28" s="63"/>
-      <c r="J28" s="63"/>
-      <c r="K28" s="64"/>
+      <c r="H28" s="125"/>
+      <c r="I28" s="126"/>
+      <c r="J28" s="126"/>
+      <c r="K28" s="144"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
@@ -7506,27 +7514,27 @@
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
       <c r="U28" s="39"/>
-      <c r="V28" s="148"/>
-      <c r="W28" s="165"/>
-      <c r="X28" s="166"/>
-      <c r="Y28" s="166"/>
-      <c r="Z28" s="166"/>
-      <c r="AA28" s="166"/>
-      <c r="AB28" s="166"/>
-      <c r="AC28" s="166"/>
-      <c r="AD28" s="166"/>
-      <c r="AE28" s="166"/>
-      <c r="AF28" s="166"/>
-      <c r="AG28" s="166"/>
-      <c r="AH28" s="166"/>
-      <c r="AI28" s="166"/>
-      <c r="AJ28" s="166"/>
-      <c r="AK28" s="166"/>
-      <c r="AL28" s="166"/>
-      <c r="AM28" s="166"/>
-      <c r="AN28" s="166"/>
-      <c r="AO28" s="166"/>
-      <c r="AP28" s="167"/>
+      <c r="V28" s="149"/>
+      <c r="W28" s="158"/>
+      <c r="X28" s="159"/>
+      <c r="Y28" s="159"/>
+      <c r="Z28" s="159"/>
+      <c r="AA28" s="159"/>
+      <c r="AB28" s="159"/>
+      <c r="AC28" s="159"/>
+      <c r="AD28" s="159"/>
+      <c r="AE28" s="159"/>
+      <c r="AF28" s="159"/>
+      <c r="AG28" s="159"/>
+      <c r="AH28" s="159"/>
+      <c r="AI28" s="159"/>
+      <c r="AJ28" s="159"/>
+      <c r="AK28" s="159"/>
+      <c r="AL28" s="159"/>
+      <c r="AM28" s="159"/>
+      <c r="AN28" s="159"/>
+      <c r="AO28" s="159"/>
+      <c r="AP28" s="160"/>
       <c r="AQ28" s="39"/>
       <c r="AU28" s="47"/>
       <c r="AV28" s="6"/>
@@ -7550,10 +7558,10 @@
       <c r="BN28" s="48"/>
       <c r="BO28" s="39"/>
       <c r="BS28" s="42"/>
-      <c r="BT28" s="78"/>
-      <c r="BU28" s="63"/>
-      <c r="BV28" s="63"/>
-      <c r="BW28" s="64"/>
+      <c r="BT28" s="125"/>
+      <c r="BU28" s="126"/>
+      <c r="BV28" s="126"/>
+      <c r="BW28" s="144"/>
       <c r="BX28" s="1"/>
       <c r="BY28" s="1"/>
       <c r="BZ28" s="1"/>
@@ -7564,19 +7572,19 @@
       <c r="CE28" s="1"/>
       <c r="CF28" s="1"/>
       <c r="CG28" s="39"/>
-      <c r="CH28" s="148"/>
+      <c r="CH28" s="149"/>
       <c r="CI28" s="39"/>
     </row>
     <row r="29" spans="1:88" x14ac:dyDescent="0.25">
       <c r="C29" s="29"/>
       <c r="D29" s="34"/>
-      <c r="E29" s="59"/>
-      <c r="F29" s="61"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="72"/>
       <c r="G29" s="35"/>
-      <c r="H29" s="146"/>
-      <c r="I29" s="66"/>
-      <c r="J29" s="66"/>
-      <c r="K29" s="67"/>
+      <c r="H29" s="147"/>
+      <c r="I29" s="74"/>
+      <c r="J29" s="74"/>
+      <c r="K29" s="75"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -7587,27 +7595,27 @@
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>
       <c r="U29" s="40"/>
-      <c r="V29" s="148"/>
-      <c r="W29" s="168"/>
-      <c r="X29" s="169"/>
-      <c r="Y29" s="169"/>
-      <c r="Z29" s="169"/>
-      <c r="AA29" s="169"/>
-      <c r="AB29" s="169"/>
-      <c r="AC29" s="169"/>
-      <c r="AD29" s="169"/>
-      <c r="AE29" s="169"/>
-      <c r="AF29" s="169"/>
-      <c r="AG29" s="169"/>
-      <c r="AH29" s="169"/>
-      <c r="AI29" s="169"/>
-      <c r="AJ29" s="169"/>
-      <c r="AK29" s="169"/>
-      <c r="AL29" s="169"/>
-      <c r="AM29" s="169"/>
-      <c r="AN29" s="169"/>
-      <c r="AO29" s="169"/>
-      <c r="AP29" s="170"/>
+      <c r="V29" s="149"/>
+      <c r="W29" s="161"/>
+      <c r="X29" s="162"/>
+      <c r="Y29" s="162"/>
+      <c r="Z29" s="162"/>
+      <c r="AA29" s="162"/>
+      <c r="AB29" s="162"/>
+      <c r="AC29" s="162"/>
+      <c r="AD29" s="162"/>
+      <c r="AE29" s="162"/>
+      <c r="AF29" s="162"/>
+      <c r="AG29" s="162"/>
+      <c r="AH29" s="162"/>
+      <c r="AI29" s="162"/>
+      <c r="AJ29" s="162"/>
+      <c r="AK29" s="162"/>
+      <c r="AL29" s="162"/>
+      <c r="AM29" s="162"/>
+      <c r="AN29" s="162"/>
+      <c r="AO29" s="162"/>
+      <c r="AP29" s="163"/>
       <c r="AQ29" s="39"/>
       <c r="AU29" s="47"/>
       <c r="AV29" s="6"/>
@@ -7631,10 +7639,10 @@
       <c r="BN29" s="48"/>
       <c r="BO29" s="39"/>
       <c r="BS29" s="42"/>
-      <c r="BT29" s="146"/>
-      <c r="BU29" s="66"/>
-      <c r="BV29" s="66"/>
-      <c r="BW29" s="67"/>
+      <c r="BT29" s="147"/>
+      <c r="BU29" s="74"/>
+      <c r="BV29" s="74"/>
+      <c r="BW29" s="75"/>
       <c r="BX29" s="2"/>
       <c r="BY29" s="2"/>
       <c r="BZ29" s="2"/>
@@ -7645,21 +7653,21 @@
       <c r="CE29" s="2"/>
       <c r="CF29" s="2"/>
       <c r="CG29" s="40"/>
-      <c r="CH29" s="148"/>
+      <c r="CH29" s="149"/>
       <c r="CI29" s="39"/>
     </row>
     <row r="30" spans="1:88" x14ac:dyDescent="0.25">
       <c r="C30" s="29"/>
       <c r="D30" s="34"/>
-      <c r="E30" s="65"/>
-      <c r="F30" s="67"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="75"/>
       <c r="G30" s="35"/>
-      <c r="H30" s="116" t="s">
+      <c r="H30" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="I30" s="60"/>
-      <c r="J30" s="60"/>
-      <c r="K30" s="61"/>
+      <c r="I30" s="71"/>
+      <c r="J30" s="71"/>
+      <c r="K30" s="72"/>
       <c r="L30" s="43"/>
       <c r="M30" s="43"/>
       <c r="N30" s="43"/>
@@ -7670,29 +7678,29 @@
       <c r="S30" s="43"/>
       <c r="T30" s="43"/>
       <c r="U30" s="44"/>
-      <c r="V30" s="148"/>
-      <c r="W30" s="153" t="s">
+      <c r="V30" s="149"/>
+      <c r="W30" s="164" t="s">
         <v>24</v>
       </c>
-      <c r="X30" s="154"/>
-      <c r="Y30" s="154"/>
-      <c r="Z30" s="154"/>
-      <c r="AA30" s="154"/>
-      <c r="AB30" s="154"/>
-      <c r="AC30" s="154"/>
-      <c r="AD30" s="154"/>
-      <c r="AE30" s="154"/>
-      <c r="AF30" s="154"/>
-      <c r="AG30" s="154"/>
-      <c r="AH30" s="154"/>
-      <c r="AI30" s="154"/>
-      <c r="AJ30" s="154"/>
-      <c r="AK30" s="154"/>
-      <c r="AL30" s="154"/>
-      <c r="AM30" s="154"/>
-      <c r="AN30" s="154"/>
-      <c r="AO30" s="154"/>
-      <c r="AP30" s="155"/>
+      <c r="X30" s="165"/>
+      <c r="Y30" s="165"/>
+      <c r="Z30" s="165"/>
+      <c r="AA30" s="165"/>
+      <c r="AB30" s="165"/>
+      <c r="AC30" s="165"/>
+      <c r="AD30" s="165"/>
+      <c r="AE30" s="165"/>
+      <c r="AF30" s="165"/>
+      <c r="AG30" s="165"/>
+      <c r="AH30" s="165"/>
+      <c r="AI30" s="165"/>
+      <c r="AJ30" s="165"/>
+      <c r="AK30" s="165"/>
+      <c r="AL30" s="165"/>
+      <c r="AM30" s="165"/>
+      <c r="AN30" s="165"/>
+      <c r="AO30" s="165"/>
+      <c r="AP30" s="166"/>
       <c r="AQ30" s="39"/>
       <c r="AU30" s="47"/>
       <c r="AV30" s="6"/>
@@ -7716,12 +7724,12 @@
       <c r="BN30" s="48"/>
       <c r="BO30" s="39"/>
       <c r="BS30" s="42"/>
-      <c r="BT30" s="116" t="s">
+      <c r="BT30" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="BU30" s="60"/>
-      <c r="BV30" s="60"/>
-      <c r="BW30" s="61"/>
+      <c r="BU30" s="71"/>
+      <c r="BV30" s="71"/>
+      <c r="BW30" s="72"/>
       <c r="BX30" s="43"/>
       <c r="BY30" s="43"/>
       <c r="BZ30" s="43"/>
@@ -7732,7 +7740,7 @@
       <c r="CE30" s="43"/>
       <c r="CF30" s="43"/>
       <c r="CG30" s="44"/>
-      <c r="CH30" s="148"/>
+      <c r="CH30" s="149"/>
       <c r="CI30" s="39"/>
     </row>
     <row r="31" spans="1:88" x14ac:dyDescent="0.25">
@@ -7741,10 +7749,10 @@
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="35"/>
-      <c r="H31" s="78"/>
-      <c r="I31" s="63"/>
-      <c r="J31" s="63"/>
-      <c r="K31" s="64"/>
+      <c r="H31" s="125"/>
+      <c r="I31" s="126"/>
+      <c r="J31" s="126"/>
+      <c r="K31" s="144"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1" t="s">
         <v>8</v>
@@ -7757,27 +7765,27 @@
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
       <c r="U31" s="39"/>
-      <c r="V31" s="148"/>
-      <c r="W31" s="156"/>
-      <c r="X31" s="157"/>
-      <c r="Y31" s="157"/>
-      <c r="Z31" s="157"/>
-      <c r="AA31" s="157"/>
-      <c r="AB31" s="157"/>
-      <c r="AC31" s="157"/>
-      <c r="AD31" s="157"/>
-      <c r="AE31" s="157"/>
-      <c r="AF31" s="157"/>
-      <c r="AG31" s="157"/>
-      <c r="AH31" s="157"/>
-      <c r="AI31" s="157"/>
-      <c r="AJ31" s="157"/>
-      <c r="AK31" s="157"/>
-      <c r="AL31" s="157"/>
-      <c r="AM31" s="157"/>
-      <c r="AN31" s="157"/>
-      <c r="AO31" s="157"/>
-      <c r="AP31" s="158"/>
+      <c r="V31" s="149"/>
+      <c r="W31" s="167"/>
+      <c r="X31" s="168"/>
+      <c r="Y31" s="168"/>
+      <c r="Z31" s="168"/>
+      <c r="AA31" s="168"/>
+      <c r="AB31" s="168"/>
+      <c r="AC31" s="168"/>
+      <c r="AD31" s="168"/>
+      <c r="AE31" s="168"/>
+      <c r="AF31" s="168"/>
+      <c r="AG31" s="168"/>
+      <c r="AH31" s="168"/>
+      <c r="AI31" s="168"/>
+      <c r="AJ31" s="168"/>
+      <c r="AK31" s="168"/>
+      <c r="AL31" s="168"/>
+      <c r="AM31" s="168"/>
+      <c r="AN31" s="168"/>
+      <c r="AO31" s="168"/>
+      <c r="AP31" s="169"/>
       <c r="AQ31" s="39"/>
       <c r="AU31" s="47"/>
       <c r="AV31" s="6"/>
@@ -7801,10 +7809,10 @@
       <c r="BN31" s="48"/>
       <c r="BO31" s="39"/>
       <c r="BS31" s="42"/>
-      <c r="BT31" s="78"/>
-      <c r="BU31" s="63"/>
-      <c r="BV31" s="63"/>
-      <c r="BW31" s="64"/>
+      <c r="BT31" s="125"/>
+      <c r="BU31" s="126"/>
+      <c r="BV31" s="126"/>
+      <c r="BW31" s="144"/>
       <c r="BX31" s="1"/>
       <c r="BY31" s="1" t="s">
         <v>8</v>
@@ -7817,19 +7825,19 @@
       <c r="CE31" s="1"/>
       <c r="CF31" s="1"/>
       <c r="CG31" s="39"/>
-      <c r="CH31" s="148"/>
+      <c r="CH31" s="149"/>
       <c r="CI31" s="39"/>
     </row>
     <row r="32" spans="1:88" x14ac:dyDescent="0.25">
       <c r="C32" s="29"/>
       <c r="D32" s="34"/>
-      <c r="E32" s="59"/>
-      <c r="F32" s="61"/>
+      <c r="E32" s="70"/>
+      <c r="F32" s="72"/>
       <c r="G32" s="35"/>
-      <c r="H32" s="78"/>
-      <c r="I32" s="63"/>
-      <c r="J32" s="63"/>
-      <c r="K32" s="64"/>
+      <c r="H32" s="125"/>
+      <c r="I32" s="126"/>
+      <c r="J32" s="126"/>
+      <c r="K32" s="144"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
@@ -7840,27 +7848,27 @@
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
       <c r="U32" s="39"/>
-      <c r="V32" s="148"/>
-      <c r="W32" s="159"/>
-      <c r="X32" s="160"/>
-      <c r="Y32" s="160"/>
-      <c r="Z32" s="160"/>
-      <c r="AA32" s="160"/>
-      <c r="AB32" s="160"/>
-      <c r="AC32" s="160"/>
-      <c r="AD32" s="160"/>
-      <c r="AE32" s="160"/>
-      <c r="AF32" s="160"/>
-      <c r="AG32" s="160"/>
-      <c r="AH32" s="160"/>
-      <c r="AI32" s="160"/>
-      <c r="AJ32" s="160"/>
-      <c r="AK32" s="160"/>
-      <c r="AL32" s="160"/>
-      <c r="AM32" s="160"/>
-      <c r="AN32" s="160"/>
-      <c r="AO32" s="160"/>
-      <c r="AP32" s="161"/>
+      <c r="V32" s="149"/>
+      <c r="W32" s="170"/>
+      <c r="X32" s="171"/>
+      <c r="Y32" s="171"/>
+      <c r="Z32" s="171"/>
+      <c r="AA32" s="171"/>
+      <c r="AB32" s="171"/>
+      <c r="AC32" s="171"/>
+      <c r="AD32" s="171"/>
+      <c r="AE32" s="171"/>
+      <c r="AF32" s="171"/>
+      <c r="AG32" s="171"/>
+      <c r="AH32" s="171"/>
+      <c r="AI32" s="171"/>
+      <c r="AJ32" s="171"/>
+      <c r="AK32" s="171"/>
+      <c r="AL32" s="171"/>
+      <c r="AM32" s="171"/>
+      <c r="AN32" s="171"/>
+      <c r="AO32" s="171"/>
+      <c r="AP32" s="172"/>
       <c r="AQ32" s="39"/>
       <c r="AU32" s="47"/>
       <c r="AV32" s="6"/>
@@ -7884,10 +7892,10 @@
       <c r="BN32" s="48"/>
       <c r="BO32" s="39"/>
       <c r="BS32" s="42"/>
-      <c r="BT32" s="78"/>
-      <c r="BU32" s="63"/>
-      <c r="BV32" s="63"/>
-      <c r="BW32" s="64"/>
+      <c r="BT32" s="125"/>
+      <c r="BU32" s="126"/>
+      <c r="BV32" s="126"/>
+      <c r="BW32" s="144"/>
       <c r="BX32" s="1"/>
       <c r="BY32" s="1"/>
       <c r="BZ32" s="1"/>
@@ -7898,19 +7906,19 @@
       <c r="CE32" s="1"/>
       <c r="CF32" s="1"/>
       <c r="CG32" s="39"/>
-      <c r="CH32" s="148"/>
+      <c r="CH32" s="149"/>
       <c r="CI32" s="39"/>
     </row>
     <row r="33" spans="3:87" x14ac:dyDescent="0.25">
       <c r="C33" s="29"/>
       <c r="D33" s="34"/>
-      <c r="E33" s="65"/>
-      <c r="F33" s="67"/>
+      <c r="E33" s="73"/>
+      <c r="F33" s="75"/>
       <c r="G33" s="35"/>
-      <c r="H33" s="146"/>
-      <c r="I33" s="66"/>
-      <c r="J33" s="66"/>
-      <c r="K33" s="67"/>
+      <c r="H33" s="147"/>
+      <c r="I33" s="74"/>
+      <c r="J33" s="74"/>
+      <c r="K33" s="75"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -7921,31 +7929,31 @@
       <c r="S33" s="2"/>
       <c r="T33" s="2"/>
       <c r="U33" s="40"/>
-      <c r="V33" s="148"/>
-      <c r="W33" s="116" t="s">
+      <c r="V33" s="149"/>
+      <c r="W33" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="X33" s="60"/>
-      <c r="Y33" s="60"/>
-      <c r="Z33" s="60"/>
-      <c r="AA33" s="60"/>
-      <c r="AB33" s="60"/>
-      <c r="AC33" s="60"/>
-      <c r="AD33" s="60"/>
-      <c r="AE33" s="60"/>
-      <c r="AF33" s="60"/>
-      <c r="AG33" s="60"/>
-      <c r="AH33" s="60"/>
-      <c r="AI33" s="60"/>
-      <c r="AJ33" s="60"/>
-      <c r="AK33" s="60"/>
-      <c r="AL33" s="60"/>
-      <c r="AM33" s="60"/>
-      <c r="AN33" s="59" t="s">
+      <c r="X33" s="71"/>
+      <c r="Y33" s="71"/>
+      <c r="Z33" s="71"/>
+      <c r="AA33" s="71"/>
+      <c r="AB33" s="71"/>
+      <c r="AC33" s="71"/>
+      <c r="AD33" s="71"/>
+      <c r="AE33" s="71"/>
+      <c r="AF33" s="71"/>
+      <c r="AG33" s="71"/>
+      <c r="AH33" s="71"/>
+      <c r="AI33" s="71"/>
+      <c r="AJ33" s="71"/>
+      <c r="AK33" s="71"/>
+      <c r="AL33" s="71"/>
+      <c r="AM33" s="71"/>
+      <c r="AN33" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="AO33" s="60"/>
-      <c r="AP33" s="117"/>
+      <c r="AO33" s="71"/>
+      <c r="AP33" s="102"/>
       <c r="AQ33" s="39"/>
       <c r="AU33" s="47"/>
       <c r="AV33" s="6"/>
@@ -7969,10 +7977,10 @@
       <c r="BN33" s="48"/>
       <c r="BO33" s="39"/>
       <c r="BS33" s="42"/>
-      <c r="BT33" s="146"/>
-      <c r="BU33" s="66"/>
-      <c r="BV33" s="66"/>
-      <c r="BW33" s="67"/>
+      <c r="BT33" s="147"/>
+      <c r="BU33" s="74"/>
+      <c r="BV33" s="74"/>
+      <c r="BW33" s="75"/>
       <c r="BX33" s="2"/>
       <c r="BY33" s="2"/>
       <c r="BZ33" s="2"/>
@@ -7983,7 +7991,7 @@
       <c r="CE33" s="2"/>
       <c r="CF33" s="2"/>
       <c r="CG33" s="40"/>
-      <c r="CH33" s="148"/>
+      <c r="CH33" s="149"/>
       <c r="CI33" s="39"/>
     </row>
     <row r="34" spans="3:87" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7992,12 +8000,12 @@
       <c r="E34" s="37"/>
       <c r="F34" s="37"/>
       <c r="G34" s="38"/>
-      <c r="H34" s="150" t="s">
+      <c r="H34" s="151" t="s">
         <v>7</v>
       </c>
-      <c r="I34" s="151"/>
-      <c r="J34" s="151"/>
-      <c r="K34" s="152"/>
+      <c r="I34" s="152"/>
+      <c r="J34" s="152"/>
+      <c r="K34" s="153"/>
       <c r="L34" s="37"/>
       <c r="M34" s="37"/>
       <c r="N34" s="37"/>
@@ -8008,27 +8016,27 @@
       <c r="S34" s="45"/>
       <c r="T34" s="45"/>
       <c r="U34" s="46"/>
-      <c r="V34" s="149"/>
-      <c r="W34" s="80"/>
-      <c r="X34" s="81"/>
-      <c r="Y34" s="81"/>
-      <c r="Z34" s="81"/>
-      <c r="AA34" s="81"/>
-      <c r="AB34" s="81"/>
-      <c r="AC34" s="81"/>
-      <c r="AD34" s="81"/>
-      <c r="AE34" s="81"/>
-      <c r="AF34" s="81"/>
-      <c r="AG34" s="81"/>
-      <c r="AH34" s="81"/>
-      <c r="AI34" s="81"/>
-      <c r="AJ34" s="81"/>
-      <c r="AK34" s="81"/>
-      <c r="AL34" s="81"/>
-      <c r="AM34" s="81"/>
-      <c r="AN34" s="171"/>
-      <c r="AO34" s="81"/>
-      <c r="AP34" s="82"/>
+      <c r="V34" s="150"/>
+      <c r="W34" s="103"/>
+      <c r="X34" s="104"/>
+      <c r="Y34" s="104"/>
+      <c r="Z34" s="104"/>
+      <c r="AA34" s="104"/>
+      <c r="AB34" s="104"/>
+      <c r="AC34" s="104"/>
+      <c r="AD34" s="104"/>
+      <c r="AE34" s="104"/>
+      <c r="AF34" s="104"/>
+      <c r="AG34" s="104"/>
+      <c r="AH34" s="104"/>
+      <c r="AI34" s="104"/>
+      <c r="AJ34" s="104"/>
+      <c r="AK34" s="104"/>
+      <c r="AL34" s="104"/>
+      <c r="AM34" s="104"/>
+      <c r="AN34" s="154"/>
+      <c r="AO34" s="104"/>
+      <c r="AP34" s="105"/>
       <c r="AQ34" s="40"/>
       <c r="AU34" s="52"/>
       <c r="AV34" s="53"/>
@@ -8052,12 +8060,12 @@
       <c r="BN34" s="54"/>
       <c r="BO34" s="40"/>
       <c r="BS34" s="55"/>
-      <c r="BT34" s="150" t="s">
+      <c r="BT34" s="151" t="s">
         <v>7</v>
       </c>
-      <c r="BU34" s="151"/>
-      <c r="BV34" s="151"/>
-      <c r="BW34" s="152"/>
+      <c r="BU34" s="152"/>
+      <c r="BV34" s="152"/>
+      <c r="BW34" s="153"/>
       <c r="BX34" s="37"/>
       <c r="BY34" s="37"/>
       <c r="BZ34" s="37"/>
@@ -8068,26 +8076,29 @@
       <c r="CE34" s="45"/>
       <c r="CF34" s="45"/>
       <c r="CG34" s="46"/>
-      <c r="CH34" s="149"/>
+      <c r="CH34" s="150"/>
       <c r="CI34" s="40"/>
     </row>
     <row r="35" spans="3:87" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="AX1:AY1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="H3:J5"/>
-    <mergeCell ref="V6:V34"/>
-    <mergeCell ref="H6:K9"/>
-    <mergeCell ref="H10:K13"/>
-    <mergeCell ref="H14:K17"/>
-    <mergeCell ref="H18:K21"/>
-    <mergeCell ref="H22:K25"/>
-    <mergeCell ref="H26:K29"/>
-    <mergeCell ref="H30:K33"/>
-    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="E29:F30"/>
+    <mergeCell ref="E32:F33"/>
+    <mergeCell ref="E4:F5"/>
+    <mergeCell ref="E7:F8"/>
+    <mergeCell ref="E16:F17"/>
+    <mergeCell ref="E19:F20"/>
+    <mergeCell ref="E26:F27"/>
+    <mergeCell ref="BT3:BV5"/>
+    <mergeCell ref="BT6:BW9"/>
+    <mergeCell ref="CH6:CH34"/>
+    <mergeCell ref="BT10:BW13"/>
+    <mergeCell ref="BT14:BW17"/>
+    <mergeCell ref="BT18:BW21"/>
+    <mergeCell ref="BT22:BW25"/>
+    <mergeCell ref="BT26:BW29"/>
+    <mergeCell ref="BT30:BW33"/>
+    <mergeCell ref="BT34:BW34"/>
     <mergeCell ref="W33:AM34"/>
     <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="M1:N1"/>
@@ -8098,31 +8109,85 @@
     <mergeCell ref="W12:AP14"/>
     <mergeCell ref="W18:AP20"/>
     <mergeCell ref="W24:AP26"/>
-    <mergeCell ref="AW5:BH16"/>
     <mergeCell ref="W30:AP32"/>
     <mergeCell ref="W15:AP17"/>
     <mergeCell ref="W21:AP23"/>
     <mergeCell ref="W27:AP29"/>
-    <mergeCell ref="BT3:BV5"/>
-    <mergeCell ref="BT6:BW9"/>
-    <mergeCell ref="CH6:CH34"/>
-    <mergeCell ref="BT10:BW13"/>
-    <mergeCell ref="BT14:BW17"/>
-    <mergeCell ref="BT18:BW21"/>
-    <mergeCell ref="BT22:BW25"/>
-    <mergeCell ref="BT26:BW29"/>
-    <mergeCell ref="BT30:BW33"/>
-    <mergeCell ref="BT34:BW34"/>
-    <mergeCell ref="E29:F30"/>
-    <mergeCell ref="E32:F33"/>
-    <mergeCell ref="E4:F5"/>
-    <mergeCell ref="E7:F8"/>
-    <mergeCell ref="E16:F17"/>
-    <mergeCell ref="E19:F20"/>
-    <mergeCell ref="E26:F27"/>
+    <mergeCell ref="V6:V34"/>
+    <mergeCell ref="H6:K9"/>
+    <mergeCell ref="H10:K13"/>
+    <mergeCell ref="H14:K17"/>
+    <mergeCell ref="H18:K21"/>
+    <mergeCell ref="H22:K25"/>
+    <mergeCell ref="H26:K29"/>
+    <mergeCell ref="H30:K33"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="AX1:AY1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="H3:J5"/>
+    <mergeCell ref="AW5:BH16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1">
+        <v>48</v>
+      </c>
+      <c r="D1">
+        <v>29</v>
+      </c>
+      <c r="F1">
+        <f>D1/B1</f>
+        <v>0.60416666666666663</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2">
+        <v>48</v>
+      </c>
+      <c r="D2">
+        <v>29</v>
+      </c>
+      <c r="F2">
+        <f>D2/B2</f>
+        <v>0.60416666666666663</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <f>D1/F1</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <f>D2/F1</f>
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/GUI Designs/GUI designs.xlsx
+++ b/GUI Designs/GUI designs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28740" windowHeight="12315" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Android" sheetId="1" r:id="rId1"/>
@@ -5313,8 +5313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CJ35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC2" sqref="AC2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -8139,8 +8139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
